--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BE95D8-8A7A-44F7-B5FD-3DD890BD5663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD6192C-AC8A-44AC-90B6-CD5C10B4757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{DC1A8874-CF5D-4DF3-B66F-7CA3C73D11F3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="223">
   <si>
     <t>SimulationName</t>
   </si>
@@ -250,12 +250,6 @@
   </si>
   <si>
     <t>Cotton.Seed.Wt</t>
-  </si>
-  <si>
-    <t>Cotton.Seed.NConc</t>
-  </si>
-  <si>
-    <t>Cotton.Seed.N</t>
   </si>
   <si>
     <t>Yield_bales</t>
@@ -5863,10 +5857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BBC4D-1054-4A81-B133-16FD0890ACC7}">
-  <dimension ref="A1:GB22"/>
+  <dimension ref="A1:FZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="DI2" sqref="DI2"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BR1" sqref="BR1:BS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5939,86 +5933,86 @@
     <col min="67" max="67" width="9" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="29.1328125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="4.265625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="14" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="14" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="14" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="14" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="14" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="14" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="14" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="14" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="14" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="28.86328125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="7" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="14" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="14" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="14" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="14" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="14" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="14" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="14" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="15.86328125" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="15.86328125" bestFit="1" customWidth="1"/>
@@ -6033,15 +6027,13 @@
     <col min="162" max="162" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="15.86328125" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="168" max="175" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="3.59765625" bestFit="1" customWidth="1"/>
-    <col min="177" max="184" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="166" max="173" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="175" max="182" width="21.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6322,22 +6314,22 @@
         <v>92</v>
       </c>
       <c r="CP1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>193</v>
-      </c>
       <c r="CS1" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="CT1" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="CU1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CV1" t="s">
         <v>189</v>
@@ -6346,16 +6338,16 @@
         <v>190</v>
       </c>
       <c r="CX1" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="CY1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="CZ1" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="DA1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="DB1" t="s">
         <v>195</v>
@@ -6364,130 +6356,130 @@
         <v>196</v>
       </c>
       <c r="DD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DH1" t="s">
         <v>197</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DI1" t="s">
         <v>198</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DJ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>200</v>
+      </c>
+      <c r="DP1" t="s">
         <v>97</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DQ1" t="s">
         <v>175</v>
       </c>
-      <c r="DH1" t="s">
-        <v>223</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>199</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>200</v>
-      </c>
-      <c r="DL1" t="s">
+      <c r="DR1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DV1" t="s">
         <v>98</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DW1" t="s">
         <v>176</v>
       </c>
-      <c r="DN1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>212</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>202</v>
-      </c>
-      <c r="DR1" t="s">
+      <c r="DX1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>203</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>204</v>
+      </c>
+      <c r="EB1" t="s">
         <v>99</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EC1" t="s">
         <v>177</v>
       </c>
-      <c r="DT1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>214</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>203</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>204</v>
-      </c>
-      <c r="DX1" t="s">
+      <c r="ED1" t="s">
+        <v>215</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>216</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>206</v>
+      </c>
+      <c r="EH1" t="s">
         <v>100</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EI1" t="s">
         <v>178</v>
       </c>
-      <c r="DZ1" t="s">
-        <v>215</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>216</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>205</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>206</v>
-      </c>
-      <c r="ED1" t="s">
+      <c r="EJ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>218</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>207</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>208</v>
+      </c>
+      <c r="EN1" t="s">
         <v>101</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EO1" t="s">
         <v>179</v>
       </c>
-      <c r="EF1" t="s">
-        <v>217</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>218</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>207</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>208</v>
-      </c>
-      <c r="EJ1" t="s">
+      <c r="EP1" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>220</v>
+      </c>
+      <c r="ER1" t="s">
         <v>102</v>
       </c>
-      <c r="EK1" t="s">
-        <v>180</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>219</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>220</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>209</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>210</v>
-      </c>
-      <c r="EP1" t="s">
+      <c r="ES1" t="s">
         <v>103</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>181</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>221</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>222</v>
       </c>
       <c r="ET1" t="s">
         <v>104</v>
@@ -6588,16 +6580,10 @@
       <c r="FZ1" t="s">
         <v>136</v>
       </c>
-      <c r="GA1" t="s">
-        <v>137</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
@@ -6607,16 +6593,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I2" s="6">
         <v>10.5</v>
@@ -6685,16 +6671,16 @@
       <c r="BO2" s="11"/>
       <c r="BP2" s="4"/>
       <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
       <c r="BT2" s="11"/>
       <c r="BU2" s="11"/>
       <c r="BV2" s="11"/>
       <c r="BW2" s="11"/>
       <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="7"/>
       <c r="CB2" s="7"/>
       <c r="CC2" s="7"/>
       <c r="CD2" s="7"/>
@@ -6702,15 +6688,15 @@
       <c r="CF2" s="7"/>
       <c r="CG2" s="7"/>
       <c r="CH2" s="7"/>
-      <c r="CI2" s="7"/>
+      <c r="CI2" s="8"/>
       <c r="CJ2" s="7"/>
-      <c r="CK2" s="8"/>
-      <c r="CL2" s="7"/>
+      <c r="CK2" s="7"/>
+      <c r="CL2" s="8"/>
       <c r="CM2" s="7"/>
-      <c r="CN2" s="8"/>
+      <c r="CN2" s="7"/>
       <c r="CO2" s="7"/>
-      <c r="CP2" s="7"/>
-      <c r="CQ2" s="7"/>
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="8"/>
       <c r="CR2" s="8"/>
       <c r="CS2" s="8"/>
       <c r="CT2" s="8"/>
@@ -6750,8 +6736,8 @@
       <c r="EB2" s="8"/>
       <c r="EC2" s="8"/>
       <c r="ED2" s="8"/>
-      <c r="EE2" s="8"/>
       <c r="EF2" s="8"/>
+      <c r="EG2" s="8"/>
       <c r="EH2" s="8"/>
       <c r="EI2" s="8"/>
       <c r="EJ2" s="8"/>
@@ -6797,12 +6783,10 @@
       <c r="FX2" s="8"/>
       <c r="FY2" s="8"/>
       <c r="FZ2" s="8"/>
-      <c r="GA2" s="8"/>
-      <c r="GB2" s="8"/>
-    </row>
-    <row r="3" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
@@ -6815,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I3" s="6">
         <v>10.5</v>
@@ -6884,16 +6868,16 @@
       <c r="BO3" s="11"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
-      <c r="BS3" s="4"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
       <c r="BT3" s="11"/>
       <c r="BU3" s="11"/>
       <c r="BV3" s="11"/>
       <c r="BW3" s="11"/>
       <c r="BX3" s="11"/>
-      <c r="BY3" s="11"/>
-      <c r="BZ3" s="11"/>
-      <c r="CA3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="7"/>
+      <c r="CA3" s="7"/>
       <c r="CB3" s="7"/>
       <c r="CC3" s="7"/>
       <c r="CD3" s="7"/>
@@ -6901,122 +6885,122 @@
       <c r="CF3" s="7"/>
       <c r="CG3" s="7"/>
       <c r="CH3" s="7"/>
-      <c r="CI3" s="7"/>
+      <c r="CI3" s="8"/>
       <c r="CJ3" s="7"/>
-      <c r="CK3" s="8"/>
-      <c r="CL3" s="7"/>
-      <c r="CM3" s="7"/>
-      <c r="CN3" s="8"/>
-      <c r="CO3" s="4"/>
-      <c r="CP3" s="4"/>
-      <c r="CR3" s="10">
+      <c r="CK3" s="7"/>
+      <c r="CL3" s="8"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CP3" s="10">
         <v>0.15081632495207373</v>
       </c>
-      <c r="CS3" s="10">
+      <c r="CQ3" s="10">
         <v>4.9990174526256528E-3</v>
       </c>
-      <c r="CT3" s="7">
+      <c r="CR3" s="7">
         <v>150</v>
       </c>
+      <c r="CS3" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="CT3" s="8">
+        <v>32.123877214791705</v>
+      </c>
       <c r="CU3" s="8">
-        <v>1.42</v>
-      </c>
-      <c r="CV3" s="8">
-        <v>32.123877214791705</v>
-      </c>
-      <c r="CW3" s="8">
         <v>1.0647907174092814</v>
       </c>
-      <c r="CX3" s="15">
+      <c r="CV3" s="15">
         <v>0.13286446132113922</v>
       </c>
-      <c r="CY3" s="15">
+      <c r="CW3" s="15">
         <v>2.783080022335059E-3</v>
       </c>
-      <c r="CZ3" s="7">
+      <c r="CX3" s="7">
         <v>150</v>
       </c>
+      <c r="CY3" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="CZ3" s="8">
+        <v>34.079734328872213</v>
+      </c>
       <c r="DA3" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="DB3" s="8">
-        <v>34.079734328872213</v>
-      </c>
-      <c r="DC3" s="8">
         <v>0.71386002572888851</v>
       </c>
-      <c r="DD3" s="15">
+      <c r="DB3" s="15">
         <v>0.16095095121191738</v>
       </c>
-      <c r="DE3" s="15">
+      <c r="DC3" s="15">
         <v>5.1704368196360496E-3</v>
       </c>
-      <c r="DF3" s="7">
-        <v>300</v>
+      <c r="DD3" s="7">
+        <v>300</v>
+      </c>
+      <c r="DE3" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="DF3" s="8">
+        <v>75.32504516717735</v>
       </c>
       <c r="DG3" s="8">
+        <v>2.4197644315896523</v>
+      </c>
+      <c r="DH3" s="15">
+        <v>0.1681701692452644</v>
+      </c>
+      <c r="DI3" s="15">
+        <v>7.7530130914163081E-3</v>
+      </c>
+      <c r="DJ3" s="7">
+        <v>300</v>
+      </c>
+      <c r="DK3" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="DL3" s="8">
+        <v>80.721681237726898</v>
+      </c>
+      <c r="DM3" s="8">
+        <v>3.7214462838798901</v>
+      </c>
+      <c r="DN3" s="15">
+        <v>0.16917172645606052</v>
+      </c>
+      <c r="DO3" s="15">
+        <v>6.0071964530646902E-3</v>
+      </c>
+      <c r="DP3" s="7">
+        <v>300</v>
+      </c>
+      <c r="DQ3" s="8">
         <v>1.56</v>
       </c>
-      <c r="DH3" s="8">
-        <v>75.32504516717735</v>
-      </c>
-      <c r="DI3" s="8">
-        <v>2.4197644315896523</v>
-      </c>
-      <c r="DJ3" s="15">
-        <v>0.1681701692452644</v>
-      </c>
-      <c r="DK3" s="15">
-        <v>7.7530130914163081E-3</v>
-      </c>
-      <c r="DL3" s="7">
-        <v>300</v>
-      </c>
-      <c r="DM3" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="DN3" s="8">
-        <v>80.721681237726898</v>
-      </c>
-      <c r="DO3" s="8">
-        <v>3.7214462838798901</v>
-      </c>
-      <c r="DP3" s="15">
-        <v>0.16917172645606052</v>
-      </c>
-      <c r="DQ3" s="15">
-        <v>6.0071964530646902E-3</v>
-      </c>
-      <c r="DR3" s="7">
-        <v>300</v>
+      <c r="DR3" s="8">
+        <v>79.172367981436324</v>
       </c>
       <c r="DS3" s="8">
-        <v>1.56</v>
-      </c>
-      <c r="DT3" s="8">
-        <v>79.172367981436324</v>
-      </c>
-      <c r="DU3" s="8">
         <v>2.8113679400343057</v>
       </c>
-      <c r="DV3" s="15">
+      <c r="DT3" s="15">
         <v>0.15701676444574281</v>
       </c>
-      <c r="DW3" s="15">
+      <c r="DU3" s="15">
         <v>4.680808666592963E-3</v>
       </c>
-      <c r="DX3" s="7">
-        <v>300</v>
+      <c r="DV3" s="7">
+        <v>300</v>
+      </c>
+      <c r="DW3" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="DX3" s="8">
+        <v>70.657544000584267</v>
       </c>
       <c r="DY3" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="DZ3" s="8">
-        <v>70.657544000584267</v>
-      </c>
-      <c r="EA3" s="8">
         <v>2.1063638999668055</v>
       </c>
+      <c r="DZ3" s="8"/>
+      <c r="EA3" s="8"/>
       <c r="EB3" s="8"/>
       <c r="EC3" s="8"/>
       <c r="ED3" s="8"/>
@@ -7034,74 +7018,72 @@
       <c r="EP3" s="8"/>
       <c r="EQ3" s="8"/>
       <c r="ER3" s="8"/>
-      <c r="ES3" s="8"/>
+      <c r="ES3" s="8">
+        <v>3.75</v>
+      </c>
       <c r="ET3" s="8"/>
       <c r="EU3" s="8">
-        <v>3.75</v>
+        <v>6.125</v>
       </c>
       <c r="EV3" s="8"/>
       <c r="EW3" s="8">
-        <v>6.125</v>
+        <v>6.1875</v>
       </c>
       <c r="EX3" s="8"/>
       <c r="EY3" s="8">
-        <v>6.1875</v>
+        <v>3</v>
       </c>
       <c r="EZ3" s="8"/>
       <c r="FA3" s="8">
-        <v>3</v>
+        <v>2.1875</v>
       </c>
       <c r="FB3" s="8"/>
       <c r="FC3" s="8">
-        <v>2.1875</v>
+        <v>1.5</v>
       </c>
       <c r="FD3" s="8"/>
-      <c r="FE3" s="8">
-        <v>1.5</v>
-      </c>
+      <c r="FE3" s="8"/>
       <c r="FF3" s="8"/>
       <c r="FG3" s="8"/>
       <c r="FH3" s="8"/>
       <c r="FI3" s="8"/>
-      <c r="FJ3" s="8"/>
-      <c r="FK3" s="8"/>
+      <c r="FJ3" s="8">
+        <v>5.375</v>
+      </c>
+      <c r="FK3" s="8">
+        <v>6.625</v>
+      </c>
       <c r="FL3" s="8">
+        <v>5.75</v>
+      </c>
+      <c r="FM3" s="8">
+        <v>6.125</v>
+      </c>
+      <c r="FN3" s="8">
         <v>5.375</v>
       </c>
-      <c r="FM3" s="8">
-        <v>6.625</v>
-      </c>
-      <c r="FN3" s="8">
-        <v>5.75</v>
-      </c>
       <c r="FO3" s="8">
-        <v>6.125</v>
-      </c>
-      <c r="FP3" s="8">
-        <v>5.375</v>
-      </c>
-      <c r="FQ3" s="8">
         <v>5.875</v>
       </c>
+      <c r="FP3" s="8"/>
+      <c r="FQ3" s="8"/>
       <c r="FR3" s="8"/>
-      <c r="FS3" s="8"/>
-      <c r="FT3" s="8"/>
-      <c r="FU3" s="8">
+      <c r="FS3" s="8">
         <v>0.495</v>
       </c>
-      <c r="FV3" s="8">
+      <c r="FT3" s="8">
         <v>0.29249999999999998</v>
       </c>
+      <c r="FU3" s="8"/>
+      <c r="FV3" s="8"/>
       <c r="FW3" s="8"/>
       <c r="FX3" s="8"/>
       <c r="FY3" s="8"/>
       <c r="FZ3" s="8"/>
-      <c r="GA3" s="8"/>
-      <c r="GB3" s="8"/>
-    </row>
-    <row r="4" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
@@ -7114,7 +7096,7 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I4" s="6">
         <v>10.5</v>
@@ -7187,16 +7169,16 @@
       <c r="BO4" s="11"/>
       <c r="BP4" s="4"/>
       <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
+      <c r="BR4" s="11"/>
+      <c r="BS4" s="11"/>
       <c r="BT4" s="11"/>
       <c r="BU4" s="11"/>
       <c r="BV4" s="11"/>
       <c r="BW4" s="11"/>
       <c r="BX4" s="11"/>
-      <c r="BY4" s="11"/>
-      <c r="BZ4" s="11"/>
-      <c r="CA4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
       <c r="CD4" s="7"/>
@@ -7204,24 +7186,24 @@
       <c r="CF4" s="7"/>
       <c r="CG4" s="7"/>
       <c r="CH4" s="7"/>
-      <c r="CI4" s="7"/>
+      <c r="CI4" s="8"/>
       <c r="CJ4" s="7"/>
-      <c r="CK4" s="8"/>
-      <c r="CL4" s="7"/>
+      <c r="CK4" s="7"/>
+      <c r="CL4" s="8"/>
       <c r="CM4" s="7"/>
-      <c r="CN4" s="8"/>
-      <c r="CO4" s="7"/>
-      <c r="CP4" s="7"/>
-      <c r="CR4" s="15"/>
-      <c r="CS4" s="10"/>
+      <c r="CN4" s="7"/>
+      <c r="CP4" s="15"/>
+      <c r="CQ4" s="10"/>
+      <c r="CR4" s="8"/>
+      <c r="CS4" s="8"/>
       <c r="CT4" s="8"/>
       <c r="CU4" s="8"/>
-      <c r="CV4" s="8"/>
-      <c r="CW4" s="8"/>
-      <c r="CX4" s="15"/>
-      <c r="CY4" s="15"/>
-      <c r="CZ4" s="7"/>
-      <c r="DA4" s="7"/>
+      <c r="CV4" s="15"/>
+      <c r="CW4" s="15"/>
+      <c r="CX4" s="7"/>
+      <c r="CY4" s="7"/>
+      <c r="CZ4" s="8"/>
+      <c r="DA4" s="8"/>
       <c r="DB4" s="8"/>
       <c r="DC4" s="8"/>
       <c r="DD4" s="8"/>
@@ -7299,12 +7281,10 @@
       <c r="FX4" s="8"/>
       <c r="FY4" s="8"/>
       <c r="FZ4" s="8"/>
-      <c r="GA4" s="8"/>
-      <c r="GB4" s="8"/>
-    </row>
-    <row r="5" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
@@ -7317,7 +7297,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I5" s="6">
         <v>10.5</v>
@@ -7390,16 +7370,16 @@
       <c r="BO5" s="11"/>
       <c r="BP5" s="4"/>
       <c r="BQ5" s="4"/>
-      <c r="BR5" s="4"/>
-      <c r="BS5" s="4"/>
+      <c r="BR5" s="11"/>
+      <c r="BS5" s="11"/>
       <c r="BT5" s="11"/>
       <c r="BU5" s="11"/>
       <c r="BV5" s="11"/>
       <c r="BW5" s="11"/>
       <c r="BX5" s="11"/>
-      <c r="BY5" s="11"/>
-      <c r="BZ5" s="11"/>
-      <c r="CA5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="7"/>
+      <c r="CA5" s="7"/>
       <c r="CB5" s="7"/>
       <c r="CC5" s="7"/>
       <c r="CD5" s="7"/>
@@ -7407,24 +7387,24 @@
       <c r="CF5" s="7"/>
       <c r="CG5" s="7"/>
       <c r="CH5" s="7"/>
-      <c r="CI5" s="7"/>
+      <c r="CI5" s="8"/>
       <c r="CJ5" s="7"/>
-      <c r="CK5" s="8"/>
-      <c r="CL5" s="7"/>
+      <c r="CK5" s="7"/>
+      <c r="CL5" s="8"/>
       <c r="CM5" s="7"/>
-      <c r="CN5" s="8"/>
-      <c r="CO5" s="7"/>
-      <c r="CP5" s="7"/>
-      <c r="CR5" s="15"/>
-      <c r="CS5" s="10"/>
+      <c r="CN5" s="7"/>
+      <c r="CP5" s="15"/>
+      <c r="CQ5" s="10"/>
+      <c r="CR5" s="8"/>
+      <c r="CS5" s="8"/>
       <c r="CT5" s="8"/>
       <c r="CU5" s="8"/>
-      <c r="CV5" s="8"/>
-      <c r="CW5" s="8"/>
-      <c r="CX5" s="15"/>
-      <c r="CY5" s="15"/>
-      <c r="CZ5" s="7"/>
-      <c r="DA5" s="7"/>
+      <c r="CV5" s="15"/>
+      <c r="CW5" s="15"/>
+      <c r="CX5" s="7"/>
+      <c r="CY5" s="7"/>
+      <c r="CZ5" s="8"/>
+      <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
       <c r="DC5" s="8"/>
       <c r="DD5" s="8"/>
@@ -7502,12 +7482,10 @@
       <c r="FX5" s="8"/>
       <c r="FY5" s="8"/>
       <c r="FZ5" s="8"/>
-      <c r="GA5" s="8"/>
-      <c r="GB5" s="8"/>
-    </row>
-    <row r="6" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -7517,16 +7495,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G6" s="2">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I6" s="6">
         <v>10.5</v>
@@ -7597,16 +7575,16 @@
       <c r="BO6" s="11"/>
       <c r="BP6" s="4"/>
       <c r="BQ6" s="4"/>
-      <c r="BR6" s="4"/>
-      <c r="BS6" s="4"/>
+      <c r="BR6" s="11"/>
+      <c r="BS6" s="11"/>
       <c r="BT6" s="11"/>
       <c r="BU6" s="11"/>
       <c r="BV6" s="11"/>
       <c r="BW6" s="11"/>
       <c r="BX6" s="11"/>
-      <c r="BY6" s="11"/>
-      <c r="BZ6" s="11"/>
-      <c r="CA6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="7"/>
+      <c r="CA6" s="7"/>
       <c r="CB6" s="7"/>
       <c r="CC6" s="7"/>
       <c r="CD6" s="7"/>
@@ -7614,122 +7592,122 @@
       <c r="CF6" s="7"/>
       <c r="CG6" s="7"/>
       <c r="CH6" s="7"/>
-      <c r="CI6" s="7"/>
+      <c r="CI6" s="8"/>
       <c r="CJ6" s="7"/>
-      <c r="CK6" s="8"/>
-      <c r="CL6" s="7"/>
-      <c r="CM6" s="7"/>
-      <c r="CN6" s="8"/>
-      <c r="CO6" s="4"/>
-      <c r="CP6" s="4"/>
-      <c r="CR6" s="15">
+      <c r="CK6" s="7"/>
+      <c r="CL6" s="8"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CP6" s="15">
         <v>0.18409592581338935</v>
       </c>
-      <c r="CS6" s="15">
+      <c r="CQ6" s="15">
         <v>6.9690118264466696E-3</v>
       </c>
-      <c r="CT6" s="7">
+      <c r="CR6" s="7">
         <v>150</v>
       </c>
+      <c r="CS6" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="CT6" s="8">
+        <v>39.212432198251925</v>
+      </c>
       <c r="CU6" s="8">
-        <v>1.42</v>
-      </c>
-      <c r="CV6" s="8">
-        <v>39.212432198251925</v>
-      </c>
-      <c r="CW6" s="8">
         <v>1.4843995190331649</v>
       </c>
-      <c r="CX6" s="15">
+      <c r="CV6" s="15">
         <v>0.14544079670778554</v>
       </c>
-      <c r="CY6" s="15">
+      <c r="CW6" s="15">
         <v>3.0069116047958494E-3</v>
       </c>
-      <c r="CZ6" s="7">
+      <c r="CX6" s="7">
         <v>150</v>
       </c>
+      <c r="CY6" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="CZ6" s="8">
+        <v>37.305564355546984</v>
+      </c>
       <c r="DA6" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="DB6" s="8">
-        <v>37.305564355546984</v>
-      </c>
-      <c r="DC6" s="8">
         <v>0.77127282663013985</v>
       </c>
-      <c r="DD6" s="15">
+      <c r="DB6" s="15">
         <v>0.15541824614535771</v>
       </c>
-      <c r="DE6" s="15">
+      <c r="DC6" s="15">
         <v>9.6226620122045331E-3</v>
       </c>
-      <c r="DF6" s="7">
-        <v>300</v>
+      <c r="DD6" s="7">
+        <v>300</v>
+      </c>
+      <c r="DE6" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="DF6" s="8">
+        <v>72.73573919602741</v>
       </c>
       <c r="DG6" s="8">
+        <v>4.5034058217117074</v>
+      </c>
+      <c r="DH6" s="15">
+        <v>0.16444379727609731</v>
+      </c>
+      <c r="DI6" s="15">
+        <v>8.9803650682130972E-3</v>
+      </c>
+      <c r="DJ6" s="7">
+        <v>300</v>
+      </c>
+      <c r="DK6" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="DL6" s="8">
+        <v>78.933022692526706</v>
+      </c>
+      <c r="DM6" s="8">
+        <v>4.3105752327423099</v>
+      </c>
+      <c r="DN6" s="15">
+        <v>0.16927252155649905</v>
+      </c>
+      <c r="DO6" s="15">
+        <v>7.5399910320176015E-3</v>
+      </c>
+      <c r="DP6" s="7">
+        <v>300</v>
+      </c>
+      <c r="DQ6" s="8">
         <v>1.56</v>
       </c>
-      <c r="DH6" s="8">
-        <v>72.73573919602741</v>
-      </c>
-      <c r="DI6" s="8">
-        <v>4.5034058217117074</v>
-      </c>
-      <c r="DJ6" s="15">
-        <v>0.16444379727609731</v>
-      </c>
-      <c r="DK6" s="15">
-        <v>8.9803650682130972E-3</v>
-      </c>
-      <c r="DL6" s="7">
-        <v>300</v>
-      </c>
-      <c r="DM6" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="DN6" s="8">
-        <v>78.933022692526706</v>
-      </c>
-      <c r="DO6" s="8">
-        <v>4.3105752327423099</v>
-      </c>
-      <c r="DP6" s="15">
-        <v>0.16927252155649905</v>
-      </c>
-      <c r="DQ6" s="15">
-        <v>7.5399910320176015E-3</v>
-      </c>
-      <c r="DR6" s="7">
-        <v>300</v>
+      <c r="DR6" s="8">
+        <v>79.219540088441562</v>
       </c>
       <c r="DS6" s="8">
-        <v>1.56</v>
-      </c>
-      <c r="DT6" s="8">
-        <v>79.219540088441562</v>
-      </c>
-      <c r="DU6" s="8">
         <v>3.5287158029842107</v>
       </c>
-      <c r="DV6" s="15">
+      <c r="DT6" s="15">
         <v>0.16465154953726308</v>
       </c>
-      <c r="DW6" s="15">
+      <c r="DU6" s="15">
         <v>5.6601588805110436E-3</v>
       </c>
-      <c r="DX6" s="7">
-        <v>300</v>
+      <c r="DV6" s="7">
+        <v>300</v>
+      </c>
+      <c r="DW6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="DX6" s="8">
+        <v>74.093197291768405</v>
       </c>
       <c r="DY6" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="DZ6" s="8">
-        <v>74.093197291768405</v>
-      </c>
-      <c r="EA6" s="8">
         <v>2.547071496229885</v>
       </c>
+      <c r="DZ6" s="8"/>
+      <c r="EA6" s="8"/>
       <c r="EB6" s="8"/>
       <c r="EC6" s="8"/>
       <c r="ED6" s="8"/>
@@ -7781,12 +7759,10 @@
       <c r="FX6" s="8"/>
       <c r="FY6" s="8"/>
       <c r="FZ6" s="8"/>
-      <c r="GA6" s="8"/>
-      <c r="GB6" s="8"/>
-    </row>
-    <row r="7" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
@@ -7799,7 +7775,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I7" s="6">
         <v>10.5</v>
@@ -7872,16 +7848,16 @@
       <c r="BO7" s="11"/>
       <c r="BP7" s="4"/>
       <c r="BQ7" s="4"/>
-      <c r="BR7" s="4"/>
-      <c r="BS7" s="4"/>
+      <c r="BR7" s="11"/>
+      <c r="BS7" s="11"/>
       <c r="BT7" s="11"/>
       <c r="BU7" s="11"/>
       <c r="BV7" s="11"/>
       <c r="BW7" s="11"/>
       <c r="BX7" s="11"/>
-      <c r="BY7" s="11"/>
-      <c r="BZ7" s="11"/>
-      <c r="CA7" s="4"/>
+      <c r="BY7" s="4"/>
+      <c r="BZ7" s="7"/>
+      <c r="CA7" s="7"/>
       <c r="CB7" s="7"/>
       <c r="CC7" s="7"/>
       <c r="CD7" s="7"/>
@@ -7889,24 +7865,24 @@
       <c r="CF7" s="7"/>
       <c r="CG7" s="7"/>
       <c r="CH7" s="7"/>
-      <c r="CI7" s="7"/>
+      <c r="CI7" s="8"/>
       <c r="CJ7" s="7"/>
-      <c r="CK7" s="8"/>
-      <c r="CL7" s="7"/>
+      <c r="CK7" s="7"/>
+      <c r="CL7" s="8"/>
       <c r="CM7" s="7"/>
-      <c r="CN7" s="8"/>
+      <c r="CN7" s="7"/>
       <c r="CO7" s="7"/>
-      <c r="CP7" s="7"/>
-      <c r="CQ7" s="7"/>
-      <c r="CS7" s="10"/>
+      <c r="CQ7" s="10"/>
+      <c r="CR7" s="8"/>
+      <c r="CS7" s="8"/>
       <c r="CT7" s="8"/>
       <c r="CU7" s="8"/>
-      <c r="CV7" s="8"/>
-      <c r="CW7" s="8"/>
-      <c r="CX7" s="15"/>
-      <c r="CY7" s="15"/>
-      <c r="CZ7" s="7"/>
-      <c r="DA7" s="7"/>
+      <c r="CV7" s="15"/>
+      <c r="CW7" s="15"/>
+      <c r="CX7" s="7"/>
+      <c r="CY7" s="7"/>
+      <c r="CZ7" s="8"/>
+      <c r="DA7" s="8"/>
       <c r="DB7" s="8"/>
       <c r="DC7" s="8"/>
       <c r="DD7" s="8"/>
@@ -7984,12 +7960,10 @@
       <c r="FX7" s="8"/>
       <c r="FY7" s="8"/>
       <c r="FZ7" s="8"/>
-      <c r="GA7" s="8"/>
-      <c r="GB7" s="8"/>
-    </row>
-    <row r="8" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
@@ -8002,7 +7976,7 @@
         <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I8" s="6">
         <v>10.5</v>
@@ -8091,60 +8065,60 @@
       <c r="BO8" s="11"/>
       <c r="BP8" s="4"/>
       <c r="BQ8" s="4"/>
-      <c r="BR8" s="4"/>
-      <c r="BS8" s="4"/>
+      <c r="BR8" s="11"/>
+      <c r="BS8" s="11"/>
       <c r="BT8" s="11"/>
       <c r="BU8" s="11"/>
-      <c r="BV8" s="11"/>
-      <c r="BW8" s="11"/>
+      <c r="BV8" s="9">
+        <v>0.46177657118209731</v>
+      </c>
+      <c r="BW8" s="9">
+        <v>0.51886433410296096</v>
+      </c>
       <c r="BX8" s="9">
-        <v>0.46177657118209731</v>
-      </c>
-      <c r="BY8" s="9">
-        <v>0.51886433410296096</v>
-      </c>
-      <c r="BZ8" s="9">
         <v>1.9359094714941769E-2</v>
       </c>
-      <c r="CA8" s="4">
+      <c r="BY8" s="4">
         <v>60.25</v>
       </c>
-      <c r="CB8" s="7">
+      <c r="BZ8" s="7">
         <v>60.25</v>
       </c>
+      <c r="CA8" s="7"/>
+      <c r="CB8" s="7"/>
       <c r="CC8" s="7"/>
       <c r="CD8" s="7"/>
       <c r="CE8" s="7"/>
-      <c r="CF8" s="7"/>
+      <c r="CF8" s="10">
+        <v>1.8714701244813278E-2</v>
+      </c>
       <c r="CG8" s="7"/>
-      <c r="CH8" s="10">
-        <v>1.8714701244813278E-2</v>
-      </c>
-      <c r="CI8" s="7"/>
+      <c r="CH8" s="7"/>
+      <c r="CI8" s="8"/>
       <c r="CJ8" s="7"/>
-      <c r="CK8" s="8"/>
-      <c r="CL8" s="7"/>
+      <c r="CK8" s="7"/>
+      <c r="CL8" s="8"/>
       <c r="CM8" s="7"/>
-      <c r="CN8" s="8"/>
+      <c r="CN8" s="7"/>
       <c r="CO8" s="7"/>
-      <c r="CP8" s="7"/>
-      <c r="CQ8" s="7"/>
-      <c r="CS8" s="10"/>
+      <c r="CQ8" s="10"/>
+      <c r="CR8" s="8"/>
+      <c r="CS8" s="8"/>
       <c r="CT8" s="8"/>
       <c r="CU8" s="8"/>
-      <c r="CV8" s="8"/>
-      <c r="CW8" s="8"/>
-      <c r="CX8" s="10"/>
-      <c r="CY8" s="10"/>
-      <c r="CZ8" s="8"/>
-      <c r="DA8" s="8"/>
-      <c r="DF8" s="8"/>
-      <c r="DG8" s="8"/>
-      <c r="DL8" s="8"/>
-      <c r="DM8" s="8"/>
-      <c r="DR8" s="8"/>
-      <c r="DS8" s="8"/>
-      <c r="DV8" s="8"/>
+      <c r="CV8" s="10"/>
+      <c r="CW8" s="10"/>
+      <c r="CX8" s="8"/>
+      <c r="CY8" s="8"/>
+      <c r="DD8" s="8"/>
+      <c r="DE8" s="8"/>
+      <c r="DJ8" s="8"/>
+      <c r="DK8" s="8"/>
+      <c r="DP8" s="8"/>
+      <c r="DQ8" s="8"/>
+      <c r="DT8" s="8"/>
+      <c r="DX8" s="8"/>
+      <c r="DY8" s="8"/>
       <c r="DZ8" s="8"/>
       <c r="EA8" s="8"/>
       <c r="EB8" s="8"/>
@@ -8198,12 +8172,10 @@
       <c r="FX8" s="8"/>
       <c r="FY8" s="8"/>
       <c r="FZ8" s="8"/>
-      <c r="GA8" s="8"/>
-      <c r="GB8" s="8"/>
-    </row>
-    <row r="9" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -8213,16 +8185,16 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="2">
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I9" s="6">
         <v>10.5</v>
@@ -8297,16 +8269,16 @@
       <c r="BO9" s="11"/>
       <c r="BP9" s="4"/>
       <c r="BQ9" s="4"/>
-      <c r="BR9" s="4"/>
-      <c r="BS9" s="4"/>
+      <c r="BR9" s="11"/>
+      <c r="BS9" s="11"/>
       <c r="BT9" s="11"/>
       <c r="BU9" s="11"/>
       <c r="BV9" s="11"/>
       <c r="BW9" s="11"/>
       <c r="BX9" s="11"/>
-      <c r="BY9" s="11"/>
-      <c r="BZ9" s="11"/>
-      <c r="CA9" s="4"/>
+      <c r="BY9" s="4"/>
+      <c r="BZ9" s="7"/>
+      <c r="CA9" s="7"/>
       <c r="CB9" s="7"/>
       <c r="CC9" s="7"/>
       <c r="CD9" s="7"/>
@@ -8314,30 +8286,30 @@
       <c r="CF9" s="7"/>
       <c r="CG9" s="7"/>
       <c r="CH9" s="7"/>
-      <c r="CI9" s="7"/>
+      <c r="CI9" s="8"/>
       <c r="CJ9" s="7"/>
-      <c r="CK9" s="8"/>
-      <c r="CL9" s="7"/>
+      <c r="CK9" s="7"/>
+      <c r="CL9" s="8"/>
       <c r="CM9" s="7"/>
-      <c r="CN9" s="8"/>
+      <c r="CN9" s="7"/>
       <c r="CO9" s="7"/>
-      <c r="CP9" s="7"/>
-      <c r="CQ9" s="7"/>
-      <c r="CR9" s="15"/>
-      <c r="CS9" s="15"/>
-      <c r="CT9" s="8"/>
-      <c r="CW9" s="8"/>
-      <c r="CX9" s="10"/>
-      <c r="CY9" s="10"/>
-      <c r="CZ9" s="8"/>
-      <c r="DA9" s="8"/>
-      <c r="DF9" s="8"/>
-      <c r="DG9" s="8"/>
-      <c r="DL9" s="8"/>
-      <c r="DM9" s="8"/>
-      <c r="DR9" s="8"/>
-      <c r="DS9" s="8"/>
-      <c r="DV9" s="8"/>
+      <c r="CP9" s="15"/>
+      <c r="CQ9" s="15"/>
+      <c r="CR9" s="8"/>
+      <c r="CU9" s="8"/>
+      <c r="CV9" s="10"/>
+      <c r="CW9" s="10"/>
+      <c r="CX9" s="8"/>
+      <c r="CY9" s="8"/>
+      <c r="DD9" s="8"/>
+      <c r="DE9" s="8"/>
+      <c r="DJ9" s="8"/>
+      <c r="DK9" s="8"/>
+      <c r="DP9" s="8"/>
+      <c r="DQ9" s="8"/>
+      <c r="DT9" s="8"/>
+      <c r="DZ9" s="8"/>
+      <c r="EA9" s="8"/>
       <c r="EB9" s="8"/>
       <c r="EC9" s="8"/>
       <c r="ED9" s="8"/>
@@ -8389,12 +8361,10 @@
       <c r="FX9" s="8"/>
       <c r="FY9" s="8"/>
       <c r="FZ9" s="8"/>
-      <c r="GA9" s="8"/>
-      <c r="GB9" s="8"/>
-    </row>
-    <row r="10" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -8407,7 +8377,7 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I10" s="6">
         <v>10.5</v>
@@ -8498,63 +8468,63 @@
       <c r="BO10" s="11"/>
       <c r="BP10" s="4"/>
       <c r="BQ10" s="4"/>
-      <c r="BR10" s="4"/>
-      <c r="BS10" s="4"/>
+      <c r="BR10" s="11"/>
+      <c r="BS10" s="11"/>
       <c r="BT10" s="11"/>
       <c r="BU10" s="11"/>
-      <c r="BV10" s="11"/>
-      <c r="BW10" s="11"/>
+      <c r="BV10" s="9">
+        <v>0.5485802290650581</v>
+      </c>
+      <c r="BW10" s="9">
+        <v>0.41197423481272799</v>
+      </c>
       <c r="BX10" s="9">
-        <v>0.5485802290650581</v>
-      </c>
-      <c r="BY10" s="9">
-        <v>0.41197423481272799</v>
-      </c>
-      <c r="BZ10" s="9">
         <v>3.9445536122213923E-2</v>
       </c>
-      <c r="CA10" s="4">
+      <c r="BY10" s="4">
         <v>166.93027210884355</v>
       </c>
-      <c r="CB10" s="7">
+      <c r="BZ10" s="7">
         <v>155.90459183673471</v>
       </c>
-      <c r="CC10" s="7">
+      <c r="CA10" s="7">
         <v>1.8670068027210884</v>
       </c>
+      <c r="CB10" s="7"/>
+      <c r="CC10" s="7"/>
       <c r="CD10" s="7"/>
-      <c r="CE10" s="7"/>
-      <c r="CF10" s="7"/>
-      <c r="CG10" s="7">
+      <c r="CE10" s="7">
         <v>9.1586734693877556</v>
       </c>
-      <c r="CH10" s="10">
+      <c r="CF10" s="10">
         <v>1.617763024603943E-2</v>
       </c>
-      <c r="CI10" s="7"/>
+      <c r="CG10" s="7"/>
+      <c r="CH10" s="7"/>
+      <c r="CI10" s="8"/>
       <c r="CJ10" s="7"/>
-      <c r="CK10" s="8"/>
-      <c r="CL10" s="7"/>
+      <c r="CK10" s="7"/>
+      <c r="CL10" s="8"/>
       <c r="CM10" s="7"/>
-      <c r="CN10" s="8"/>
+      <c r="CN10" s="7"/>
       <c r="CO10" s="7"/>
-      <c r="CP10" s="7"/>
-      <c r="CQ10" s="7"/>
-      <c r="CR10" s="15"/>
-      <c r="CS10" s="15"/>
-      <c r="CT10" s="8"/>
-      <c r="CW10" s="8"/>
-      <c r="CX10" s="10"/>
-      <c r="CY10" s="10"/>
-      <c r="CZ10" s="8"/>
-      <c r="DA10" s="8"/>
-      <c r="DF10" s="8"/>
-      <c r="DG10" s="8"/>
-      <c r="DL10" s="8"/>
-      <c r="DM10" s="8"/>
-      <c r="DR10" s="8"/>
-      <c r="DS10" s="8"/>
-      <c r="DV10" s="8"/>
+      <c r="CP10" s="15"/>
+      <c r="CQ10" s="15"/>
+      <c r="CR10" s="8"/>
+      <c r="CU10" s="8"/>
+      <c r="CV10" s="10"/>
+      <c r="CW10" s="10"/>
+      <c r="CX10" s="8"/>
+      <c r="CY10" s="8"/>
+      <c r="DD10" s="8"/>
+      <c r="DE10" s="8"/>
+      <c r="DJ10" s="8"/>
+      <c r="DK10" s="8"/>
+      <c r="DP10" s="8"/>
+      <c r="DQ10" s="8"/>
+      <c r="DT10" s="8"/>
+      <c r="DZ10" s="8"/>
+      <c r="EA10" s="8"/>
       <c r="EB10" s="8"/>
       <c r="EC10" s="8"/>
       <c r="ED10" s="8"/>
@@ -8606,12 +8576,10 @@
       <c r="FX10" s="8"/>
       <c r="FY10" s="8"/>
       <c r="FZ10" s="8"/>
-      <c r="GA10" s="8"/>
-      <c r="GB10" s="8"/>
-    </row>
-    <row r="11" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -8624,7 +8592,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I11" s="6">
         <v>10.5</v>
@@ -8697,16 +8665,16 @@
       <c r="BO11" s="11"/>
       <c r="BP11" s="4"/>
       <c r="BQ11" s="4"/>
-      <c r="BR11" s="4"/>
-      <c r="BS11" s="4"/>
+      <c r="BR11" s="11"/>
+      <c r="BS11" s="11"/>
       <c r="BT11" s="11"/>
       <c r="BU11" s="11"/>
       <c r="BV11" s="11"/>
       <c r="BW11" s="11"/>
       <c r="BX11" s="11"/>
-      <c r="BY11" s="11"/>
-      <c r="BZ11" s="11"/>
-      <c r="CA11" s="4"/>
+      <c r="BY11" s="4"/>
+      <c r="BZ11" s="7"/>
+      <c r="CA11" s="7"/>
       <c r="CB11" s="7"/>
       <c r="CC11" s="7"/>
       <c r="CD11" s="7"/>
@@ -8714,30 +8682,30 @@
       <c r="CF11" s="7"/>
       <c r="CG11" s="7"/>
       <c r="CH11" s="7"/>
-      <c r="CI11" s="7"/>
+      <c r="CI11" s="8"/>
       <c r="CJ11" s="7"/>
-      <c r="CK11" s="8"/>
-      <c r="CL11" s="7"/>
+      <c r="CK11" s="7"/>
+      <c r="CL11" s="8"/>
       <c r="CM11" s="7"/>
-      <c r="CN11" s="8"/>
+      <c r="CN11" s="7"/>
       <c r="CO11" s="7"/>
-      <c r="CP11" s="7"/>
-      <c r="CQ11" s="7"/>
-      <c r="CR11" s="15"/>
-      <c r="CS11" s="15"/>
-      <c r="CT11" s="8"/>
-      <c r="CW11" s="8"/>
-      <c r="CX11" s="10"/>
-      <c r="CY11" s="10"/>
-      <c r="CZ11" s="8"/>
-      <c r="DA11" s="8"/>
-      <c r="DF11" s="8"/>
-      <c r="DG11" s="8"/>
-      <c r="DL11" s="8"/>
-      <c r="DM11" s="8"/>
-      <c r="DR11" s="8"/>
-      <c r="DS11" s="8"/>
-      <c r="DV11" s="8"/>
+      <c r="CP11" s="15"/>
+      <c r="CQ11" s="15"/>
+      <c r="CR11" s="8"/>
+      <c r="CU11" s="8"/>
+      <c r="CV11" s="10"/>
+      <c r="CW11" s="10"/>
+      <c r="CX11" s="8"/>
+      <c r="CY11" s="8"/>
+      <c r="DD11" s="8"/>
+      <c r="DE11" s="8"/>
+      <c r="DJ11" s="8"/>
+      <c r="DK11" s="8"/>
+      <c r="DP11" s="8"/>
+      <c r="DQ11" s="8"/>
+      <c r="DT11" s="8"/>
+      <c r="DZ11" s="8"/>
+      <c r="EA11" s="8"/>
       <c r="EB11" s="8"/>
       <c r="EC11" s="8"/>
       <c r="ED11" s="8"/>
@@ -8789,12 +8757,10 @@
       <c r="FX11" s="8"/>
       <c r="FY11" s="8"/>
       <c r="FZ11" s="8"/>
-      <c r="GA11" s="8"/>
-      <c r="GB11" s="8"/>
-    </row>
-    <row r="12" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -8807,7 +8773,7 @@
         <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I12" s="6">
         <v>10.5</v>
@@ -8880,16 +8846,16 @@
       <c r="BO12" s="11"/>
       <c r="BP12" s="4"/>
       <c r="BQ12" s="4"/>
-      <c r="BR12" s="4"/>
-      <c r="BS12" s="4"/>
+      <c r="BR12" s="11"/>
+      <c r="BS12" s="11"/>
       <c r="BT12" s="11"/>
       <c r="BU12" s="11"/>
       <c r="BV12" s="11"/>
       <c r="BW12" s="11"/>
       <c r="BX12" s="11"/>
-      <c r="BY12" s="11"/>
-      <c r="BZ12" s="11"/>
-      <c r="CA12" s="4"/>
+      <c r="BY12" s="4"/>
+      <c r="BZ12" s="7"/>
+      <c r="CA12" s="7"/>
       <c r="CB12" s="7"/>
       <c r="CC12" s="7"/>
       <c r="CD12" s="7"/>
@@ -8897,21 +8863,21 @@
       <c r="CF12" s="7"/>
       <c r="CG12" s="7"/>
       <c r="CH12" s="7"/>
-      <c r="CI12" s="7"/>
+      <c r="CI12" s="8"/>
       <c r="CJ12" s="7"/>
-      <c r="CK12" s="8"/>
-      <c r="CL12" s="7"/>
+      <c r="CK12" s="7"/>
+      <c r="CL12" s="8"/>
       <c r="CM12" s="7"/>
-      <c r="CN12" s="8"/>
+      <c r="CN12" s="7"/>
       <c r="CO12" s="7"/>
-      <c r="CP12" s="7"/>
-      <c r="CQ12" s="7"/>
-      <c r="CR12" s="15"/>
-      <c r="CS12" s="15"/>
-      <c r="CT12" s="8"/>
-      <c r="CW12" s="8"/>
-      <c r="CX12" s="15"/>
-      <c r="CY12" s="15"/>
+      <c r="CP12" s="15"/>
+      <c r="CQ12" s="15"/>
+      <c r="CR12" s="8"/>
+      <c r="CU12" s="8"/>
+      <c r="CV12" s="15"/>
+      <c r="CW12" s="15"/>
+      <c r="CX12" s="8"/>
+      <c r="CY12" s="8"/>
       <c r="CZ12" s="8"/>
       <c r="DA12" s="8"/>
       <c r="DB12" s="8"/>
@@ -8936,8 +8902,8 @@
       <c r="DU12" s="8"/>
       <c r="DV12" s="8"/>
       <c r="DW12" s="8"/>
-      <c r="DX12" s="8"/>
-      <c r="DY12" s="8"/>
+      <c r="DZ12" s="8"/>
+      <c r="EA12" s="8"/>
       <c r="EB12" s="8"/>
       <c r="EC12" s="8"/>
       <c r="ED12" s="8"/>
@@ -8989,12 +8955,10 @@
       <c r="FX12" s="8"/>
       <c r="FY12" s="8"/>
       <c r="FZ12" s="8"/>
-      <c r="GA12" s="8"/>
-      <c r="GB12" s="8"/>
-    </row>
-    <row r="13" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -9007,7 +8971,7 @@
         <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I13" s="6">
         <v>10.5</v>
@@ -9080,16 +9044,16 @@
       <c r="BO13" s="11"/>
       <c r="BP13" s="4"/>
       <c r="BQ13" s="4"/>
-      <c r="BR13" s="4"/>
-      <c r="BS13" s="4"/>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="11"/>
       <c r="BT13" s="11"/>
       <c r="BU13" s="11"/>
       <c r="BV13" s="11"/>
       <c r="BW13" s="11"/>
       <c r="BX13" s="11"/>
-      <c r="BY13" s="11"/>
-      <c r="BZ13" s="11"/>
-      <c r="CA13" s="4"/>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="7"/>
+      <c r="CA13" s="7"/>
       <c r="CB13" s="7"/>
       <c r="CC13" s="7"/>
       <c r="CD13" s="7"/>
@@ -9097,23 +9061,23 @@
       <c r="CF13" s="7"/>
       <c r="CG13" s="7"/>
       <c r="CH13" s="7"/>
-      <c r="CI13" s="7"/>
+      <c r="CI13" s="8"/>
       <c r="CJ13" s="7"/>
-      <c r="CK13" s="8"/>
-      <c r="CL13" s="7"/>
+      <c r="CK13" s="7"/>
+      <c r="CL13" s="8"/>
       <c r="CM13" s="7"/>
-      <c r="CN13" s="8"/>
+      <c r="CN13" s="7"/>
       <c r="CO13" s="7"/>
-      <c r="CP13" s="7"/>
-      <c r="CQ13" s="7"/>
-      <c r="CR13" s="15"/>
-      <c r="CS13" s="15"/>
+      <c r="CP13" s="15"/>
+      <c r="CQ13" s="15"/>
+      <c r="CR13" s="8"/>
+      <c r="CS13" s="8"/>
       <c r="CT13" s="8"/>
       <c r="CU13" s="8"/>
-      <c r="CV13" s="8"/>
-      <c r="CW13" s="8"/>
-      <c r="CX13" s="15"/>
-      <c r="CY13" s="15"/>
+      <c r="CV13" s="15"/>
+      <c r="CW13" s="15"/>
+      <c r="CX13" s="8"/>
+      <c r="CY13" s="8"/>
       <c r="CZ13" s="8"/>
       <c r="DA13" s="8"/>
       <c r="DB13" s="8"/>
@@ -9193,12 +9157,10 @@
       <c r="FX13" s="8"/>
       <c r="FY13" s="8"/>
       <c r="FZ13" s="8"/>
-      <c r="GA13" s="8"/>
-      <c r="GB13" s="8"/>
-    </row>
-    <row r="14" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -9208,16 +9170,16 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G14" s="2">
         <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" s="6">
         <v>10.5</v>
@@ -9292,16 +9254,16 @@
       <c r="BO14" s="11"/>
       <c r="BP14" s="4"/>
       <c r="BQ14" s="4"/>
-      <c r="BR14" s="4"/>
-      <c r="BS14" s="4"/>
+      <c r="BR14" s="11"/>
+      <c r="BS14" s="11"/>
       <c r="BT14" s="11"/>
       <c r="BU14" s="11"/>
       <c r="BV14" s="11"/>
       <c r="BW14" s="11"/>
       <c r="BX14" s="11"/>
-      <c r="BY14" s="11"/>
-      <c r="BZ14" s="11"/>
-      <c r="CA14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="7"/>
+      <c r="CA14" s="7"/>
       <c r="CB14" s="7"/>
       <c r="CC14" s="7"/>
       <c r="CD14" s="7"/>
@@ -9309,23 +9271,23 @@
       <c r="CF14" s="7"/>
       <c r="CG14" s="7"/>
       <c r="CH14" s="7"/>
-      <c r="CI14" s="7"/>
+      <c r="CI14" s="8"/>
       <c r="CJ14" s="7"/>
-      <c r="CK14" s="8"/>
-      <c r="CL14" s="7"/>
+      <c r="CK14" s="7"/>
+      <c r="CL14" s="8"/>
       <c r="CM14" s="7"/>
-      <c r="CN14" s="8"/>
+      <c r="CN14" s="7"/>
       <c r="CO14" s="7"/>
-      <c r="CP14" s="7"/>
-      <c r="CQ14" s="7"/>
-      <c r="CR14" s="15"/>
-      <c r="CS14" s="15"/>
+      <c r="CP14" s="15"/>
+      <c r="CQ14" s="15"/>
+      <c r="CR14" s="8"/>
+      <c r="CS14" s="8"/>
       <c r="CT14" s="8"/>
       <c r="CU14" s="8"/>
-      <c r="CV14" s="8"/>
-      <c r="CW14" s="8"/>
-      <c r="CX14" s="15"/>
-      <c r="CY14" s="15"/>
+      <c r="CV14" s="15"/>
+      <c r="CW14" s="15"/>
+      <c r="CX14" s="8"/>
+      <c r="CY14" s="8"/>
       <c r="CZ14" s="8"/>
       <c r="DA14" s="8"/>
       <c r="DB14" s="8"/>
@@ -9405,12 +9367,10 @@
       <c r="FX14" s="8"/>
       <c r="FY14" s="8"/>
       <c r="FZ14" s="8"/>
-      <c r="GA14" s="8"/>
-      <c r="GB14" s="8"/>
-    </row>
-    <row r="15" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -9423,7 +9383,7 @@
         <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I15" s="6">
         <v>10.5</v>
@@ -9496,16 +9456,16 @@
       <c r="BO15" s="11"/>
       <c r="BP15" s="4"/>
       <c r="BQ15" s="4"/>
-      <c r="BR15" s="4"/>
-      <c r="BS15" s="4"/>
+      <c r="BR15" s="11"/>
+      <c r="BS15" s="11"/>
       <c r="BT15" s="11"/>
       <c r="BU15" s="11"/>
       <c r="BV15" s="11"/>
       <c r="BW15" s="11"/>
       <c r="BX15" s="11"/>
-      <c r="BY15" s="11"/>
-      <c r="BZ15" s="11"/>
-      <c r="CA15" s="4"/>
+      <c r="BY15" s="4"/>
+      <c r="BZ15" s="7"/>
+      <c r="CA15" s="7"/>
       <c r="CB15" s="7"/>
       <c r="CC15" s="7"/>
       <c r="CD15" s="7"/>
@@ -9513,23 +9473,23 @@
       <c r="CF15" s="7"/>
       <c r="CG15" s="7"/>
       <c r="CH15" s="7"/>
-      <c r="CI15" s="7"/>
+      <c r="CI15" s="8"/>
       <c r="CJ15" s="7"/>
-      <c r="CK15" s="8"/>
-      <c r="CL15" s="7"/>
+      <c r="CK15" s="7"/>
+      <c r="CL15" s="8"/>
       <c r="CM15" s="7"/>
-      <c r="CN15" s="8"/>
+      <c r="CN15" s="7"/>
       <c r="CO15" s="7"/>
-      <c r="CP15" s="7"/>
-      <c r="CQ15" s="7"/>
-      <c r="CR15" s="15"/>
-      <c r="CS15" s="15"/>
+      <c r="CP15" s="15"/>
+      <c r="CQ15" s="15"/>
+      <c r="CR15" s="8"/>
+      <c r="CS15" s="8"/>
       <c r="CT15" s="8"/>
       <c r="CU15" s="8"/>
-      <c r="CV15" s="8"/>
-      <c r="CW15" s="8"/>
-      <c r="CX15" s="15"/>
-      <c r="CY15" s="15"/>
+      <c r="CV15" s="15"/>
+      <c r="CW15" s="15"/>
+      <c r="CX15" s="8"/>
+      <c r="CY15" s="8"/>
       <c r="CZ15" s="8"/>
       <c r="DA15" s="8"/>
       <c r="DB15" s="8"/>
@@ -9609,12 +9569,10 @@
       <c r="FX15" s="8"/>
       <c r="FY15" s="8"/>
       <c r="FZ15" s="8"/>
-      <c r="GA15" s="8"/>
-      <c r="GB15" s="8"/>
-    </row>
-    <row r="16" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -9627,7 +9585,7 @@
         <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I16" s="6">
         <v>10.5</v>
@@ -9716,58 +9674,58 @@
       <c r="BO16" s="11"/>
       <c r="BP16" s="4"/>
       <c r="BQ16" s="4"/>
-      <c r="BR16" s="4"/>
-      <c r="BS16" s="4"/>
+      <c r="BR16" s="11"/>
+      <c r="BS16" s="11"/>
       <c r="BT16" s="11"/>
       <c r="BU16" s="11"/>
-      <c r="BV16" s="11"/>
-      <c r="BW16" s="11"/>
+      <c r="BV16" s="9">
+        <v>0.37237360816143034</v>
+      </c>
+      <c r="BW16" s="9">
+        <v>0.22786035204141061</v>
+      </c>
       <c r="BX16" s="9">
-        <v>0.37237360816143034</v>
-      </c>
-      <c r="BY16" s="9">
-        <v>0.22786035204141061</v>
-      </c>
-      <c r="BZ16" s="9">
         <v>0.39976603979715908</v>
       </c>
-      <c r="CA16" s="4">
+      <c r="BY16" s="4">
         <v>357.28402255639094</v>
       </c>
-      <c r="CB16" s="7">
+      <c r="BZ16" s="7">
         <v>39.021061273874345</v>
       </c>
+      <c r="CA16" s="7">
+        <v>127.27211887477314</v>
+      </c>
+      <c r="CB16" s="7"/>
       <c r="CC16" s="7">
-        <v>127.27211887477314</v>
+        <v>20.318263330740646</v>
       </c>
       <c r="CD16" s="7"/>
       <c r="CE16" s="7">
-        <v>20.318263330740646</v>
-      </c>
-      <c r="CF16" s="7"/>
-      <c r="CG16" s="7">
         <v>170.67257907700284</v>
       </c>
-      <c r="CH16" s="10">
+      <c r="CF16" s="10">
         <v>1.142333308178727E-2</v>
       </c>
-      <c r="CI16" s="7"/>
+      <c r="CG16" s="7"/>
+      <c r="CH16" s="7"/>
+      <c r="CI16" s="8"/>
       <c r="CJ16" s="7"/>
-      <c r="CK16" s="8"/>
-      <c r="CL16" s="7"/>
+      <c r="CK16" s="7"/>
+      <c r="CL16" s="8"/>
       <c r="CM16" s="7"/>
-      <c r="CN16" s="8"/>
+      <c r="CN16" s="7"/>
       <c r="CO16" s="7"/>
-      <c r="CP16" s="7"/>
-      <c r="CQ16" s="7"/>
-      <c r="CR16" s="15"/>
-      <c r="CS16" s="15"/>
+      <c r="CP16" s="15"/>
+      <c r="CQ16" s="15"/>
+      <c r="CR16" s="8"/>
+      <c r="CS16" s="8"/>
       <c r="CT16" s="8"/>
       <c r="CU16" s="8"/>
-      <c r="CV16" s="8"/>
-      <c r="CW16" s="8"/>
-      <c r="CX16" s="15"/>
-      <c r="CY16" s="15"/>
+      <c r="CV16" s="15"/>
+      <c r="CW16" s="15"/>
+      <c r="CX16" s="8"/>
+      <c r="CY16" s="8"/>
       <c r="CZ16" s="8"/>
       <c r="DA16" s="8"/>
       <c r="DB16" s="8"/>
@@ -9847,12 +9805,10 @@
       <c r="FX16" s="8"/>
       <c r="FY16" s="8"/>
       <c r="FZ16" s="8"/>
-      <c r="GA16" s="8"/>
-      <c r="GB16" s="8"/>
-    </row>
-    <row r="17" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -9865,7 +9821,7 @@
         <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I17" s="6">
         <v>10.5</v>
@@ -9934,16 +9890,16 @@
       <c r="BO17" s="11"/>
       <c r="BP17" s="4"/>
       <c r="BQ17" s="4"/>
-      <c r="BR17" s="4"/>
-      <c r="BS17" s="4"/>
+      <c r="BR17" s="11"/>
+      <c r="BS17" s="11"/>
       <c r="BT17" s="11"/>
       <c r="BU17" s="11"/>
       <c r="BV17" s="11"/>
       <c r="BW17" s="11"/>
       <c r="BX17" s="11"/>
-      <c r="BY17" s="11"/>
-      <c r="BZ17" s="11"/>
-      <c r="CA17" s="4"/>
+      <c r="BY17" s="4"/>
+      <c r="BZ17" s="7"/>
+      <c r="CA17" s="7"/>
       <c r="CB17" s="7"/>
       <c r="CC17" s="7"/>
       <c r="CD17" s="7"/>
@@ -9951,240 +9907,238 @@
       <c r="CF17" s="7"/>
       <c r="CG17" s="7"/>
       <c r="CH17" s="7"/>
-      <c r="CI17" s="7"/>
+      <c r="CI17" s="8"/>
       <c r="CJ17" s="7"/>
-      <c r="CK17" s="8"/>
-      <c r="CL17" s="7"/>
-      <c r="CM17" s="7"/>
-      <c r="CN17" s="8"/>
+      <c r="CK17" s="7"/>
+      <c r="CL17" s="8"/>
+      <c r="CM17" s="4"/>
+      <c r="CN17" s="4"/>
       <c r="CO17" s="4"/>
-      <c r="CP17" s="4"/>
-      <c r="CQ17" s="4"/>
-      <c r="CR17" s="15">
+      <c r="CP17" s="15">
         <v>8.4823865048182887E-2</v>
       </c>
-      <c r="CS17" s="15">
+      <c r="CQ17" s="15">
         <v>4.1650445512734771E-3</v>
       </c>
-      <c r="CT17" s="7">
+      <c r="CR17" s="7">
         <v>150</v>
       </c>
+      <c r="CS17" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="CT17" s="8">
+        <v>18.067483255262957</v>
+      </c>
       <c r="CU17" s="8">
-        <v>1.42</v>
-      </c>
-      <c r="CV17" s="8">
-        <v>18.067483255262957</v>
-      </c>
-      <c r="CW17" s="8">
         <v>0.88715448942124731</v>
       </c>
-      <c r="CX17" s="15">
+      <c r="CV17" s="15">
         <v>6.3830608146798543E-2</v>
       </c>
-      <c r="CY17" s="15">
+      <c r="CW17" s="15">
         <v>4.3196374217017511E-3</v>
       </c>
-      <c r="CZ17" s="7">
+      <c r="CX17" s="7">
         <v>150</v>
       </c>
+      <c r="CY17" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="CZ17" s="8">
+        <v>16.372550989653828</v>
+      </c>
       <c r="DA17" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="DB17" s="8">
-        <v>16.372550989653828</v>
-      </c>
-      <c r="DC17" s="8">
         <v>1.1079869986664943</v>
       </c>
-      <c r="DD17" s="15">
+      <c r="DB17" s="15">
         <v>8.8724949306680831E-2</v>
       </c>
-      <c r="DE17" s="15">
+      <c r="DC17" s="15">
         <v>5.3693746092870745E-3</v>
       </c>
-      <c r="DF17" s="7">
-        <v>300</v>
+      <c r="DD17" s="7">
+        <v>300</v>
+      </c>
+      <c r="DE17" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="DF17" s="8">
+        <v>41.523276275526634</v>
       </c>
       <c r="DG17" s="8">
+        <v>2.5128673171463425</v>
+      </c>
+      <c r="DH17" s="15">
+        <v>0.10921701684751334</v>
+      </c>
+      <c r="DI17" s="15">
+        <v>7.0969905759054319E-3</v>
+      </c>
+      <c r="DJ17" s="7">
+        <v>300</v>
+      </c>
+      <c r="DK17" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="DL17" s="8">
+        <v>52.424168086806397</v>
+      </c>
+      <c r="DM17" s="8">
+        <v>3.4065554764346313</v>
+      </c>
+      <c r="DN17" s="15">
+        <v>0.11525205369556743</v>
+      </c>
+      <c r="DO17" s="15">
+        <v>6.4341033799231962E-3</v>
+      </c>
+      <c r="DP17" s="7">
+        <v>300</v>
+      </c>
+      <c r="DQ17" s="8">
         <v>1.56</v>
       </c>
-      <c r="DH17" s="8">
-        <v>41.523276275526634</v>
-      </c>
-      <c r="DI17" s="8">
-        <v>2.5128673171463425</v>
-      </c>
-      <c r="DJ17" s="15">
-        <v>0.10921701684751334</v>
-      </c>
-      <c r="DK17" s="15">
-        <v>7.0969905759054319E-3</v>
-      </c>
-      <c r="DL17" s="7">
-        <v>300</v>
-      </c>
-      <c r="DM17" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="DN17" s="8">
-        <v>52.424168086806397</v>
-      </c>
-      <c r="DO17" s="8">
-        <v>3.4065554764346313</v>
-      </c>
-      <c r="DP17" s="15">
-        <v>0.11525205369556743</v>
-      </c>
-      <c r="DQ17" s="15">
-        <v>6.4341033799231962E-3</v>
-      </c>
-      <c r="DR17" s="7">
-        <v>300</v>
+      <c r="DR17" s="8">
+        <v>53.937961129525547</v>
       </c>
       <c r="DS17" s="8">
-        <v>1.56</v>
-      </c>
-      <c r="DT17" s="8">
-        <v>53.937961129525547</v>
-      </c>
-      <c r="DU17" s="8">
         <v>3.0111603818040944</v>
       </c>
-      <c r="DV17" s="15">
+      <c r="DT17" s="15">
         <v>0.11889691918428058</v>
       </c>
-      <c r="DW17" s="15">
+      <c r="DU17" s="15">
         <v>6.9892982984628713E-3</v>
       </c>
-      <c r="DX17" s="7">
-        <v>300</v>
+      <c r="DV17" s="7">
+        <v>300</v>
+      </c>
+      <c r="DW17" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="DX17" s="8">
+        <v>53.50361363292626</v>
       </c>
       <c r="DY17" s="8">
+        <v>3.1451842343082994</v>
+      </c>
+      <c r="DZ17" s="15">
+        <v>0.12956493919262749</v>
+      </c>
+      <c r="EA17" s="15">
+        <v>6.0308972384808231E-3</v>
+      </c>
+      <c r="EB17" s="7">
+        <v>300</v>
+      </c>
+      <c r="EC17" s="8">
         <v>1.5</v>
       </c>
-      <c r="DZ17" s="8">
-        <v>53.50361363292626</v>
-      </c>
-      <c r="EA17" s="8">
-        <v>3.1451842343082994</v>
-      </c>
-      <c r="EB17" s="15">
-        <v>0.12956493919262749</v>
-      </c>
-      <c r="EC17" s="15">
-        <v>6.0308972384808231E-3</v>
-      </c>
-      <c r="ED17" s="7">
-        <v>300</v>
+      <c r="ED17" s="8">
+        <v>58.304222636682361</v>
       </c>
       <c r="EE17" s="8">
+        <v>2.7139037573163911</v>
+      </c>
+      <c r="EF17" s="15">
+        <v>0.12626521775660024</v>
+      </c>
+      <c r="EG17" s="15">
+        <v>5.3664340393341061E-3</v>
+      </c>
+      <c r="EH17" s="7">
+        <v>300</v>
+      </c>
+      <c r="EI17" s="8">
         <v>1.5</v>
       </c>
-      <c r="EF17" s="8">
-        <v>58.304222636682361</v>
-      </c>
-      <c r="EG17" s="8">
-        <v>2.7139037573163911</v>
-      </c>
-      <c r="EH17" s="15">
-        <v>0.12626521775660024</v>
-      </c>
-      <c r="EI17" s="15">
-        <v>5.3664340393341061E-3</v>
-      </c>
-      <c r="EJ17" s="7">
-        <v>300</v>
+      <c r="EJ17" s="8">
+        <v>56.819347990470114</v>
       </c>
       <c r="EK17" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="EL17" s="8">
-        <v>56.819347990470114</v>
-      </c>
-      <c r="EM17" s="8">
         <v>2.4148953177003234</v>
       </c>
+      <c r="EL17" s="8"/>
+      <c r="EM17" s="8"/>
       <c r="EN17" s="8"/>
       <c r="EO17" s="8"/>
       <c r="EP17" s="8"/>
       <c r="EQ17" s="8"/>
       <c r="ER17" s="8"/>
-      <c r="ES17" s="8"/>
+      <c r="ES17" s="8">
+        <v>1.3125</v>
+      </c>
       <c r="ET17" s="8"/>
       <c r="EU17" s="8">
-        <v>1.3125</v>
+        <v>0.75</v>
       </c>
       <c r="EV17" s="8"/>
       <c r="EW17" s="8">
-        <v>0.75</v>
+        <v>1.1875</v>
       </c>
       <c r="EX17" s="8"/>
       <c r="EY17" s="8">
-        <v>1.1875</v>
+        <v>2.1875</v>
       </c>
       <c r="EZ17" s="8"/>
       <c r="FA17" s="8">
-        <v>2.1875</v>
+        <v>3.875</v>
       </c>
       <c r="FB17" s="8"/>
       <c r="FC17" s="8">
-        <v>3.875</v>
+        <v>2.8125</v>
       </c>
       <c r="FD17" s="8"/>
       <c r="FE17" s="8">
-        <v>2.8125</v>
+        <v>2.125</v>
       </c>
       <c r="FF17" s="8"/>
       <c r="FG17" s="8">
-        <v>2.125</v>
+        <v>1.25</v>
       </c>
       <c r="FH17" s="8"/>
-      <c r="FI17" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="FJ17" s="8"/>
-      <c r="FK17" s="8"/>
+      <c r="FI17" s="8"/>
+      <c r="FJ17" s="8">
+        <v>17.625</v>
+      </c>
+      <c r="FK17" s="8">
+        <v>25.75</v>
+      </c>
       <c r="FL17" s="8">
-        <v>17.625</v>
+        <v>24.25</v>
       </c>
       <c r="FM17" s="8">
-        <v>25.75</v>
+        <v>27.25</v>
       </c>
       <c r="FN17" s="8">
-        <v>24.25</v>
+        <v>34.375</v>
       </c>
       <c r="FO17" s="8">
-        <v>27.25</v>
+        <v>31.875</v>
       </c>
       <c r="FP17" s="8">
-        <v>34.375</v>
+        <v>32.375</v>
       </c>
       <c r="FQ17" s="8">
-        <v>31.875</v>
-      </c>
-      <c r="FR17" s="8">
-        <v>32.375</v>
-      </c>
+        <v>31.5</v>
+      </c>
+      <c r="FR17" s="8"/>
       <c r="FS17" s="8">
-        <v>31.5</v>
-      </c>
-      <c r="FT17" s="8"/>
-      <c r="FU17" s="8">
         <v>0.56625000000000003</v>
       </c>
-      <c r="FV17" s="8">
+      <c r="FT17" s="8">
         <v>0.34250000000000003</v>
       </c>
+      <c r="FU17" s="8"/>
+      <c r="FV17" s="8"/>
       <c r="FW17" s="8"/>
       <c r="FX17" s="8"/>
       <c r="FY17" s="8"/>
       <c r="FZ17" s="8"/>
-      <c r="GA17" s="8"/>
-      <c r="GB17" s="8"/>
-    </row>
-    <row r="18" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -10194,16 +10148,16 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G18" s="2">
         <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I18" s="6">
         <v>10.5</v>
@@ -10274,16 +10228,16 @@
       <c r="BO18" s="11"/>
       <c r="BP18" s="4"/>
       <c r="BQ18" s="4"/>
-      <c r="BR18" s="4"/>
-      <c r="BS18" s="4"/>
+      <c r="BR18" s="11"/>
+      <c r="BS18" s="11"/>
       <c r="BT18" s="11"/>
       <c r="BU18" s="11"/>
       <c r="BV18" s="11"/>
       <c r="BW18" s="11"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="11"/>
-      <c r="BZ18" s="11"/>
-      <c r="CA18" s="4"/>
+      <c r="BY18" s="4"/>
+      <c r="BZ18" s="7"/>
+      <c r="CA18" s="7"/>
       <c r="CB18" s="7"/>
       <c r="CC18" s="7"/>
       <c r="CD18" s="7"/>
@@ -10291,22 +10245,22 @@
       <c r="CF18" s="7"/>
       <c r="CG18" s="7"/>
       <c r="CH18" s="7"/>
-      <c r="CI18" s="7"/>
+      <c r="CI18" s="8"/>
       <c r="CJ18" s="7"/>
-      <c r="CK18" s="8"/>
-      <c r="CL18" s="7"/>
+      <c r="CK18" s="7"/>
+      <c r="CL18" s="8"/>
       <c r="CM18" s="7"/>
-      <c r="CN18" s="8"/>
+      <c r="CN18" s="7"/>
       <c r="CO18" s="7"/>
-      <c r="CP18" s="7"/>
-      <c r="CQ18" s="7"/>
-      <c r="CS18" s="10"/>
+      <c r="CQ18" s="10"/>
+      <c r="CR18" s="8"/>
+      <c r="CS18" s="8"/>
       <c r="CT18" s="8"/>
       <c r="CU18" s="8"/>
-      <c r="CV18" s="8"/>
-      <c r="CW18" s="8"/>
-      <c r="CX18" s="15"/>
-      <c r="CY18" s="15"/>
+      <c r="CV18" s="15"/>
+      <c r="CW18" s="15"/>
+      <c r="CX18" s="8"/>
+      <c r="CY18" s="8"/>
       <c r="CZ18" s="8"/>
       <c r="DA18" s="8"/>
       <c r="DB18" s="8"/>
@@ -10339,10 +10293,10 @@
       <c r="EC18" s="8"/>
       <c r="ED18" s="8"/>
       <c r="EE18" s="8"/>
-      <c r="EF18" s="8"/>
-      <c r="EG18" s="8"/>
-      <c r="EH18" s="15"/>
-      <c r="EI18" s="15"/>
+      <c r="EF18" s="15"/>
+      <c r="EG18" s="15"/>
+      <c r="EH18" s="8"/>
+      <c r="EI18" s="8"/>
       <c r="EJ18" s="8"/>
       <c r="EK18" s="8"/>
       <c r="EL18" s="8"/>
@@ -10386,12 +10340,10 @@
       <c r="FX18" s="8"/>
       <c r="FY18" s="8"/>
       <c r="FZ18" s="8"/>
-      <c r="GA18" s="8"/>
-      <c r="GB18" s="8"/>
-    </row>
-    <row r="19" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -10404,7 +10356,7 @@
         <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I19" s="6">
         <v>10.5</v>
@@ -10495,56 +10447,56 @@
       <c r="BO19" s="11"/>
       <c r="BP19" s="4"/>
       <c r="BQ19" s="4"/>
-      <c r="BR19" s="4"/>
-      <c r="BS19" s="4"/>
+      <c r="BR19" s="11"/>
+      <c r="BS19" s="11"/>
       <c r="BT19" s="11"/>
       <c r="BU19" s="11"/>
-      <c r="BV19" s="11"/>
-      <c r="BW19" s="11"/>
+      <c r="BV19" s="9">
+        <v>0.31169535570919304</v>
+      </c>
+      <c r="BW19" s="9">
+        <v>8.903102295864454E-2</v>
+      </c>
       <c r="BX19" s="9">
-        <v>0.31169535570919304</v>
-      </c>
-      <c r="BY19" s="9">
-        <v>8.903102295864454E-2</v>
-      </c>
-      <c r="BZ19" s="9">
         <v>0.59927362133216244</v>
       </c>
-      <c r="CA19" s="4">
+      <c r="BY19" s="4">
         <v>356.2587529284649</v>
       </c>
-      <c r="CB19" s="7"/>
-      <c r="CC19" s="7">
+      <c r="BZ19" s="7"/>
+      <c r="CA19" s="7">
         <v>67.843287841481086</v>
       </c>
-      <c r="CD19" s="7">
+      <c r="CB19" s="7">
         <v>53.230245848202919</v>
       </c>
-      <c r="CE19" s="7"/>
-      <c r="CF19" s="7"/>
-      <c r="CG19" s="7">
+      <c r="CC19" s="7"/>
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7">
         <v>235.18521923878089</v>
       </c>
-      <c r="CH19" s="10">
+      <c r="CF19" s="10">
         <v>4.7499954305149378E-3</v>
       </c>
-      <c r="CI19" s="7"/>
+      <c r="CG19" s="7"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="8"/>
       <c r="CJ19" s="7"/>
-      <c r="CK19" s="8"/>
-      <c r="CL19" s="7"/>
+      <c r="CK19" s="7"/>
+      <c r="CL19" s="8"/>
       <c r="CM19" s="7"/>
-      <c r="CN19" s="8"/>
+      <c r="CN19" s="7"/>
       <c r="CO19" s="7"/>
-      <c r="CP19" s="7"/>
-      <c r="CQ19" s="7"/>
-      <c r="CR19" s="15"/>
-      <c r="CS19" s="15"/>
+      <c r="CP19" s="15"/>
+      <c r="CQ19" s="15"/>
+      <c r="CR19" s="8"/>
+      <c r="CS19" s="8"/>
       <c r="CT19" s="8"/>
       <c r="CU19" s="8"/>
-      <c r="CV19" s="8"/>
-      <c r="CW19" s="8"/>
-      <c r="CX19" s="15"/>
-      <c r="CY19" s="15"/>
+      <c r="CV19" s="15"/>
+      <c r="CW19" s="15"/>
+      <c r="CX19" s="8"/>
+      <c r="CY19" s="8"/>
       <c r="CZ19" s="8"/>
       <c r="DA19" s="8"/>
       <c r="DB19" s="8"/>
@@ -10571,14 +10523,14 @@
       <c r="DW19" s="8"/>
       <c r="DX19" s="8"/>
       <c r="DY19" s="8"/>
-      <c r="DZ19" s="8"/>
-      <c r="EA19" s="8"/>
-      <c r="ED19" s="7"/>
-      <c r="EE19" s="7"/>
-      <c r="EH19" s="10"/>
-      <c r="EI19" s="10"/>
-      <c r="EJ19" s="8"/>
-      <c r="EK19" s="8"/>
+      <c r="EB19" s="7"/>
+      <c r="EC19" s="7"/>
+      <c r="EF19" s="10"/>
+      <c r="EG19" s="10"/>
+      <c r="EH19" s="8"/>
+      <c r="EI19" s="8"/>
+      <c r="EL19" s="8"/>
+      <c r="EM19" s="8"/>
       <c r="EN19" s="8"/>
       <c r="EO19" s="8"/>
       <c r="EP19" s="8"/>
@@ -10618,12 +10570,10 @@
       <c r="FX19" s="8"/>
       <c r="FY19" s="8"/>
       <c r="FZ19" s="8"/>
-      <c r="GA19" s="8"/>
-      <c r="GB19" s="8"/>
-    </row>
-    <row r="20" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -10633,16 +10583,16 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G20" s="2">
         <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I20" s="6">
         <v>10.5</v>
@@ -10713,16 +10663,16 @@
       <c r="BO20" s="11"/>
       <c r="BP20" s="4"/>
       <c r="BQ20" s="4"/>
-      <c r="BR20" s="4"/>
-      <c r="BS20" s="4"/>
+      <c r="BR20" s="11"/>
+      <c r="BS20" s="11"/>
       <c r="BT20" s="11"/>
       <c r="BU20" s="11"/>
       <c r="BV20" s="11"/>
       <c r="BW20" s="11"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="11"/>
-      <c r="BZ20" s="11"/>
-      <c r="CA20" s="4"/>
+      <c r="BY20" s="4"/>
+      <c r="BZ20" s="7"/>
+      <c r="CA20" s="7"/>
       <c r="CB20" s="7"/>
       <c r="CC20" s="7"/>
       <c r="CD20" s="7"/>
@@ -10730,23 +10680,23 @@
       <c r="CF20" s="7"/>
       <c r="CG20" s="7"/>
       <c r="CH20" s="7"/>
-      <c r="CI20" s="7"/>
+      <c r="CI20" s="8"/>
       <c r="CJ20" s="7"/>
-      <c r="CK20" s="8"/>
-      <c r="CL20" s="7"/>
+      <c r="CK20" s="7"/>
+      <c r="CL20" s="8"/>
       <c r="CM20" s="7"/>
-      <c r="CN20" s="8"/>
+      <c r="CN20" s="7"/>
       <c r="CO20" s="7"/>
-      <c r="CP20" s="7"/>
-      <c r="CQ20" s="7"/>
-      <c r="CR20" s="15"/>
-      <c r="CS20" s="15"/>
+      <c r="CP20" s="15"/>
+      <c r="CQ20" s="15"/>
+      <c r="CR20" s="8"/>
+      <c r="CS20" s="8"/>
       <c r="CT20" s="8"/>
       <c r="CU20" s="8"/>
-      <c r="CV20" s="8"/>
-      <c r="CW20" s="8"/>
-      <c r="CX20" s="15"/>
-      <c r="CY20" s="15"/>
+      <c r="CV20" s="15"/>
+      <c r="CW20" s="15"/>
+      <c r="CX20" s="8"/>
+      <c r="CY20" s="8"/>
       <c r="CZ20" s="8"/>
       <c r="DA20" s="8"/>
       <c r="DB20" s="8"/>
@@ -10773,14 +10723,14 @@
       <c r="DW20" s="8"/>
       <c r="DX20" s="8"/>
       <c r="DY20" s="8"/>
-      <c r="DZ20" s="8"/>
-      <c r="EA20" s="8"/>
-      <c r="ED20" s="8"/>
-      <c r="EE20" s="8"/>
-      <c r="EH20" s="10"/>
-      <c r="EI20" s="10"/>
-      <c r="EJ20" s="8"/>
-      <c r="EK20" s="8"/>
+      <c r="EB20" s="8"/>
+      <c r="EC20" s="8"/>
+      <c r="EF20" s="10"/>
+      <c r="EG20" s="10"/>
+      <c r="EH20" s="8"/>
+      <c r="EI20" s="8"/>
+      <c r="EL20" s="8"/>
+      <c r="EM20" s="8"/>
       <c r="EN20" s="8"/>
       <c r="EO20" s="8"/>
       <c r="EP20" s="8"/>
@@ -10820,12 +10770,10 @@
       <c r="FX20" s="8"/>
       <c r="FY20" s="8"/>
       <c r="FZ20" s="8"/>
-      <c r="GA20" s="8"/>
-      <c r="GB20" s="8"/>
-    </row>
-    <row r="21" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -10835,16 +10783,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G21" s="2">
         <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I21" s="6">
         <v>10.5</v>
@@ -10923,18 +10871,18 @@
       <c r="BQ21" s="4">
         <v>264.33749999999998</v>
       </c>
-      <c r="BR21" s="4"/>
-      <c r="BS21" s="4"/>
-      <c r="BT21" s="6">
+      <c r="BR21" s="6">
         <v>8.7846916299559474</v>
       </c>
+      <c r="BS21" s="6"/>
+      <c r="BT21" s="6"/>
       <c r="BU21" s="6"/>
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BX21" s="6"/>
-      <c r="BY21" s="6"/>
-      <c r="BZ21" s="6"/>
-      <c r="CA21" s="4"/>
+      <c r="BY21" s="4"/>
+      <c r="BZ21" s="7"/>
+      <c r="CA21" s="7"/>
       <c r="CB21" s="7"/>
       <c r="CC21" s="7"/>
       <c r="CD21" s="7"/>
@@ -10942,23 +10890,23 @@
       <c r="CF21" s="7"/>
       <c r="CG21" s="7"/>
       <c r="CH21" s="7"/>
-      <c r="CI21" s="7"/>
+      <c r="CI21" s="8"/>
       <c r="CJ21" s="7"/>
-      <c r="CK21" s="8"/>
-      <c r="CL21" s="7"/>
+      <c r="CK21" s="7"/>
+      <c r="CL21" s="8"/>
       <c r="CM21" s="7"/>
-      <c r="CN21" s="8"/>
+      <c r="CN21" s="7"/>
       <c r="CO21" s="7"/>
-      <c r="CP21" s="7"/>
-      <c r="CQ21" s="7"/>
-      <c r="CR21" s="15"/>
-      <c r="CS21" s="15"/>
+      <c r="CP21" s="15"/>
+      <c r="CQ21" s="15"/>
+      <c r="CR21" s="8"/>
+      <c r="CS21" s="8"/>
       <c r="CT21" s="8"/>
       <c r="CU21" s="8"/>
-      <c r="CV21" s="8"/>
-      <c r="CW21" s="8"/>
-      <c r="CX21" s="15"/>
-      <c r="CY21" s="15"/>
+      <c r="CV21" s="15"/>
+      <c r="CW21" s="15"/>
+      <c r="CX21" s="8"/>
+      <c r="CY21" s="8"/>
       <c r="CZ21" s="8"/>
       <c r="DA21" s="8"/>
       <c r="DB21" s="8"/>
@@ -10991,10 +10939,10 @@
       <c r="EC21" s="8"/>
       <c r="ED21" s="8"/>
       <c r="EE21" s="8"/>
-      <c r="EF21" s="8"/>
-      <c r="EG21" s="8"/>
-      <c r="EH21" s="15"/>
-      <c r="EI21" s="15"/>
+      <c r="EF21" s="15"/>
+      <c r="EG21" s="15"/>
+      <c r="EH21" s="8"/>
+      <c r="EI21" s="8"/>
       <c r="EJ21" s="8"/>
       <c r="EK21" s="8"/>
       <c r="EL21" s="8"/>
@@ -11038,12 +10986,10 @@
       <c r="FX21" s="8"/>
       <c r="FY21" s="8"/>
       <c r="FZ21" s="8"/>
-      <c r="GA21" s="8"/>
-      <c r="GB21" s="8"/>
-    </row>
-    <row r="22" spans="1:184" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -11056,7 +11002,7 @@
         <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I22" s="6">
         <v>10.5</v>
@@ -11125,16 +11071,16 @@
       <c r="BO22" s="11"/>
       <c r="BP22" s="4"/>
       <c r="BQ22" s="4"/>
-      <c r="BR22" s="4"/>
-      <c r="BS22" s="4"/>
+      <c r="BR22" s="11"/>
+      <c r="BS22" s="11"/>
       <c r="BT22" s="11"/>
       <c r="BU22" s="11"/>
       <c r="BV22" s="11"/>
       <c r="BW22" s="11"/>
       <c r="BX22" s="11"/>
-      <c r="BY22" s="11"/>
-      <c r="BZ22" s="11"/>
-      <c r="CA22" s="4"/>
+      <c r="BY22" s="4"/>
+      <c r="BZ22" s="7"/>
+      <c r="CA22" s="7"/>
       <c r="CB22" s="7"/>
       <c r="CC22" s="7"/>
       <c r="CD22" s="7"/>
@@ -11142,248 +11088,246 @@
       <c r="CF22" s="7"/>
       <c r="CG22" s="7"/>
       <c r="CH22" s="7"/>
-      <c r="CI22" s="7"/>
+      <c r="CI22" s="8"/>
       <c r="CJ22" s="7"/>
-      <c r="CK22" s="8"/>
-      <c r="CL22" s="7"/>
-      <c r="CM22" s="7"/>
-      <c r="CN22" s="8"/>
+      <c r="CK22" s="7"/>
+      <c r="CL22" s="8"/>
+      <c r="CM22" s="4"/>
+      <c r="CN22" s="4"/>
       <c r="CO22" s="4"/>
-      <c r="CP22" s="4"/>
-      <c r="CQ22" s="4"/>
-      <c r="CR22" s="10">
+      <c r="CP22" s="10">
         <v>2.8597346951017094E-2</v>
       </c>
-      <c r="CS22" s="10">
+      <c r="CQ22" s="10">
         <v>1.6178557593196513E-3</v>
       </c>
-      <c r="CT22" s="7">
+      <c r="CR22" s="7">
         <v>150</v>
       </c>
+      <c r="CS22" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="CT22" s="8">
+        <v>6.0912349005666409</v>
+      </c>
       <c r="CU22" s="8">
-        <v>1.42</v>
-      </c>
-      <c r="CV22" s="8">
-        <v>6.0912349005666409</v>
-      </c>
-      <c r="CW22" s="8">
         <v>0.34460327673508545</v>
       </c>
-      <c r="CX22" s="15">
+      <c r="CV22" s="15">
         <v>4.7991018969127927E-2</v>
       </c>
-      <c r="CY22" s="15">
+      <c r="CW22" s="15">
         <v>2.6039133346128012E-3</v>
       </c>
-      <c r="CZ22" s="7">
+      <c r="CX22" s="7">
         <v>150</v>
       </c>
+      <c r="CY22" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="CZ22" s="8">
+        <v>12.309696365581313</v>
+      </c>
       <c r="DA22" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="DB22" s="8">
-        <v>12.309696365581313</v>
-      </c>
-      <c r="DC22" s="8">
         <v>0.66790377032818293</v>
       </c>
-      <c r="DD22" s="15">
+      <c r="DB22" s="15">
         <v>7.2730102782139761E-2</v>
       </c>
-      <c r="DE22" s="15">
+      <c r="DC22" s="15">
         <v>6.6092008907040027E-3</v>
       </c>
-      <c r="DF22" s="7">
-        <v>300</v>
+      <c r="DD22" s="7">
+        <v>300</v>
+      </c>
+      <c r="DE22" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="DF22" s="8">
+        <v>34.037688102041407</v>
       </c>
       <c r="DG22" s="8">
+        <v>3.0931060168494766</v>
+      </c>
+      <c r="DH22" s="15">
+        <v>9.0894054897093277E-2</v>
+      </c>
+      <c r="DI22" s="15">
+        <v>8.6218720130539911E-3</v>
+      </c>
+      <c r="DJ22" s="7">
+        <v>300</v>
+      </c>
+      <c r="DK22" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="DL22" s="8">
+        <v>43.629146350604771</v>
+      </c>
+      <c r="DM22" s="8">
+        <v>4.1384985662659126</v>
+      </c>
+      <c r="DN22" s="15">
+        <v>8.9245931278024077E-2</v>
+      </c>
+      <c r="DO22" s="15">
+        <v>7.2958249151860817E-3</v>
+      </c>
+      <c r="DP22" s="7">
+        <v>300</v>
+      </c>
+      <c r="DQ22" s="8">
         <v>1.56</v>
       </c>
-      <c r="DH22" s="8">
-        <v>34.037688102041407</v>
-      </c>
-      <c r="DI22" s="8">
-        <v>3.0931060168494766</v>
-      </c>
-      <c r="DJ22" s="15">
-        <v>9.0894054897093277E-2</v>
-      </c>
-      <c r="DK22" s="15">
-        <v>8.6218720130539911E-3</v>
-      </c>
-      <c r="DL22" s="7">
-        <v>300</v>
-      </c>
-      <c r="DM22" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="DN22" s="8">
-        <v>43.629146350604771</v>
-      </c>
-      <c r="DO22" s="8">
-        <v>4.1384985662659126</v>
-      </c>
-      <c r="DP22" s="15">
-        <v>8.9245931278024077E-2</v>
-      </c>
-      <c r="DQ22" s="15">
-        <v>7.2958249151860817E-3</v>
-      </c>
-      <c r="DR22" s="7">
-        <v>300</v>
+      <c r="DR22" s="8">
+        <v>41.767095838115267</v>
       </c>
       <c r="DS22" s="8">
-        <v>1.56</v>
-      </c>
-      <c r="DT22" s="8">
-        <v>41.767095838115267</v>
-      </c>
-      <c r="DU22" s="8">
         <v>3.4144460603070823</v>
       </c>
-      <c r="DV22" s="15">
+      <c r="DT22" s="15">
         <v>8.1509088442297969E-2</v>
       </c>
-      <c r="DW22" s="15">
+      <c r="DU22" s="15">
         <v>4.968139081756944E-3</v>
       </c>
-      <c r="DX22" s="7">
-        <v>300</v>
+      <c r="DV22" s="7">
+        <v>300</v>
+      </c>
+      <c r="DW22" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="DX22" s="8">
+        <v>36.679089799034088</v>
       </c>
       <c r="DY22" s="8">
+        <v>2.235662586790629</v>
+      </c>
+      <c r="DZ22" s="15">
+        <v>8.9214506168087765E-2</v>
+      </c>
+      <c r="EA22" s="15">
+        <v>5.6813067769719283E-3</v>
+      </c>
+      <c r="EB22" s="7">
+        <v>300</v>
+      </c>
+      <c r="EC22" s="8">
         <v>1.5</v>
       </c>
-      <c r="DZ22" s="8">
-        <v>36.679089799034088</v>
-      </c>
-      <c r="EA22" s="8">
-        <v>2.235662586790629</v>
-      </c>
-      <c r="EB22" s="15">
-        <v>8.9214506168087765E-2</v>
-      </c>
-      <c r="EC22" s="15">
-        <v>5.6813067769719283E-3</v>
-      </c>
-      <c r="ED22" s="7">
-        <v>300</v>
+      <c r="ED22" s="8">
+        <v>40.146527775639498</v>
       </c>
       <c r="EE22" s="8">
+        <v>2.556588049637369</v>
+      </c>
+      <c r="EF22" s="15">
+        <v>8.646017412026516E-2</v>
+      </c>
+      <c r="EG22" s="15">
+        <v>6.1039236958586969E-3</v>
+      </c>
+      <c r="EH22" s="7">
+        <v>300</v>
+      </c>
+      <c r="EI22" s="8">
         <v>1.5</v>
       </c>
-      <c r="EF22" s="8">
-        <v>40.146527775639498</v>
-      </c>
-      <c r="EG22" s="8">
-        <v>2.556588049637369</v>
-      </c>
-      <c r="EH22" s="15">
-        <v>8.646017412026516E-2</v>
-      </c>
-      <c r="EI22" s="15">
-        <v>6.1039236958586969E-3</v>
-      </c>
-      <c r="EJ22" s="7">
-        <v>300</v>
+      <c r="EJ22" s="8">
+        <v>38.907078354119321</v>
       </c>
       <c r="EK22" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="EL22" s="8">
-        <v>38.907078354119321</v>
-      </c>
-      <c r="EM22" s="8">
         <v>2.7467656631364146</v>
       </c>
-      <c r="EN22" s="15">
+      <c r="EL22" s="15">
         <v>8.6810076206478501E-2</v>
       </c>
-      <c r="EO22" s="15">
+      <c r="EM22" s="15">
         <v>5.8535277282977735E-3</v>
       </c>
+      <c r="EN22" s="8">
+        <v>300</v>
+      </c>
+      <c r="EO22" s="8">
+        <v>1.53</v>
+      </c>
       <c r="EP22" s="8">
-        <v>300</v>
+        <v>36.106517443132077</v>
       </c>
       <c r="EQ22" s="8">
-        <v>1.53</v>
-      </c>
-      <c r="ER22" s="8">
-        <v>36.106517443132077</v>
-      </c>
+        <v>5.6401735252428447</v>
+      </c>
+      <c r="ER22" s="8"/>
       <c r="ES22" s="8">
-        <v>5.6401735252428447</v>
+        <v>1.625</v>
       </c>
       <c r="ET22" s="8"/>
       <c r="EU22" s="8">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="EV22" s="8"/>
       <c r="EW22" s="8">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="EX22" s="8"/>
       <c r="EY22" s="8">
-        <v>1</v>
+        <v>3.6875</v>
       </c>
       <c r="EZ22" s="8"/>
       <c r="FA22" s="8">
-        <v>3.6875</v>
+        <v>3.8125</v>
       </c>
       <c r="FB22" s="8"/>
       <c r="FC22" s="8">
-        <v>3.8125</v>
+        <v>3.4375</v>
       </c>
       <c r="FD22" s="8"/>
       <c r="FE22" s="8">
-        <v>3.4375</v>
+        <v>2.0625</v>
       </c>
       <c r="FF22" s="8"/>
       <c r="FG22" s="8">
-        <v>2.0625</v>
+        <v>1.1875</v>
       </c>
       <c r="FH22" s="8"/>
-      <c r="FI22" s="8">
-        <v>1.1875</v>
-      </c>
-      <c r="FJ22" s="8"/>
-      <c r="FK22" s="8"/>
+      <c r="FI22" s="8"/>
+      <c r="FJ22" s="8">
+        <v>7</v>
+      </c>
+      <c r="FK22" s="8">
+        <v>7</v>
+      </c>
       <c r="FL22" s="8">
-        <v>7</v>
+        <v>5.375</v>
       </c>
       <c r="FM22" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FN22" s="8">
-        <v>5.375</v>
+        <v>5</v>
       </c>
       <c r="FO22" s="8">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="FP22" s="8">
-        <v>5</v>
+        <v>6.375</v>
       </c>
       <c r="FQ22" s="8">
         <v>5.625</v>
       </c>
-      <c r="FR22" s="8">
-        <v>6.375</v>
-      </c>
+      <c r="FR22" s="8"/>
       <c r="FS22" s="8">
-        <v>5.625</v>
-      </c>
-      <c r="FT22" s="8"/>
-      <c r="FU22" s="8">
         <v>0.42</v>
       </c>
-      <c r="FV22" s="8">
+      <c r="FT22" s="8">
         <v>0.31375000000000003</v>
       </c>
+      <c r="FU22" s="8"/>
+      <c r="FV22" s="8"/>
       <c r="FW22" s="8"/>
       <c r="FX22" s="8"/>
       <c r="FY22" s="8"/>
       <c r="FZ22" s="8"/>
-      <c r="GA22" s="8"/>
-      <c r="GB22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11433,40 +11377,40 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" t="s">
         <v>157</v>
       </c>
-      <c r="F1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>182</v>
-      </c>
-      <c r="J1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.45">
@@ -11474,16 +11418,16 @@
         <v>43872</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -11509,46 +11453,46 @@
         <v>27.815742397137726</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q2" t="s">
         <v>168</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>169</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>183</v>
+      </c>
+      <c r="T2" t="s">
+        <v>184</v>
+      </c>
+      <c r="U2" t="s">
+        <v>185</v>
+      </c>
+      <c r="X2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="R2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S2" t="s">
-        <v>185</v>
-      </c>
-      <c r="T2" t="s">
-        <v>186</v>
-      </c>
-      <c r="U2" t="s">
-        <v>187</v>
-      </c>
-      <c r="X2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
@@ -11556,16 +11500,16 @@
         <v>43872</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -11639,16 +11583,16 @@
         <v>43872</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -11717,16 +11661,16 @@
         <v>43872</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -11795,16 +11739,16 @@
         <v>43872</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -11873,16 +11817,16 @@
         <v>43872</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -11951,16 +11895,16 @@
         <v>43872</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -12029,16 +11973,16 @@
         <v>43872</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -12112,16 +12056,16 @@
         <v>43899</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -12190,16 +12134,16 @@
         <v>43899</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -12268,16 +12212,16 @@
         <v>43899</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -12346,16 +12290,16 @@
         <v>43899</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -12424,16 +12368,16 @@
         <v>43899</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -12502,16 +12446,16 @@
         <v>43899</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -12585,16 +12529,16 @@
         <v>43899</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -12663,16 +12607,16 @@
         <v>43899</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -12741,16 +12685,16 @@
         <v>43965</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -12819,16 +12763,16 @@
         <v>43965</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -12897,16 +12841,16 @@
         <v>43965</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -12975,16 +12919,16 @@
         <v>43965</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21">
         <v>15</v>
@@ -13053,16 +12997,16 @@
         <v>43965</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -13131,16 +13075,16 @@
         <v>43965</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -13214,16 +13158,16 @@
         <v>43965</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24">
         <v>15</v>
@@ -13292,16 +13236,16 @@
         <v>43965</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F25">
         <v>15</v>
@@ -13370,16 +13314,16 @@
         <v>44040</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F26">
         <v>15</v>
@@ -13448,16 +13392,16 @@
         <v>44040</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -13526,16 +13470,16 @@
         <v>44040</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F28">
         <v>15</v>
@@ -13604,16 +13548,16 @@
         <v>44040</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F29">
         <v>15</v>
@@ -13682,16 +13626,16 @@
         <v>44040</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -13760,16 +13704,16 @@
         <v>44040</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -13838,16 +13782,16 @@
         <v>44040</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -13900,16 +13844,16 @@
         <v>44040</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F33">
         <v>15</v>
@@ -13962,16 +13906,16 @@
         <v>43872</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F34">
         <v>30</v>
@@ -14024,16 +13968,16 @@
         <v>43872</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F35">
         <v>30</v>
@@ -14086,16 +14030,16 @@
         <v>43872</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F36">
         <v>30</v>
@@ -14148,16 +14092,16 @@
         <v>43872</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F37">
         <v>30</v>
@@ -14188,16 +14132,16 @@
         <v>43872</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F38">
         <v>30</v>
@@ -14228,16 +14172,16 @@
         <v>43872</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F39">
         <v>30</v>
@@ -14268,16 +14212,16 @@
         <v>43872</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F40">
         <v>30</v>
@@ -14308,16 +14252,16 @@
         <v>43872</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F41">
         <v>30</v>
@@ -14348,16 +14292,16 @@
         <v>43899</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F42">
         <v>30</v>
@@ -14388,16 +14332,16 @@
         <v>43899</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F43">
         <v>30</v>
@@ -14428,16 +14372,16 @@
         <v>43899</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F44">
         <v>30</v>
@@ -14468,16 +14412,16 @@
         <v>43899</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F45">
         <v>30</v>
@@ -14508,16 +14452,16 @@
         <v>43899</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -14548,16 +14492,16 @@
         <v>43899</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F47">
         <v>30</v>
@@ -14588,16 +14532,16 @@
         <v>43899</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F48">
         <v>30</v>
@@ -14628,16 +14572,16 @@
         <v>43899</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F49">
         <v>30</v>
@@ -14668,16 +14612,16 @@
         <v>43965</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F50">
         <v>30</v>
@@ -14708,16 +14652,16 @@
         <v>43965</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -14748,16 +14692,16 @@
         <v>43965</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F52">
         <v>30</v>
@@ -14788,16 +14732,16 @@
         <v>43965</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F53">
         <v>30</v>
@@ -14828,16 +14772,16 @@
         <v>43965</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F54">
         <v>30</v>
@@ -14868,16 +14812,16 @@
         <v>43965</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F55">
         <v>30</v>
@@ -14908,16 +14852,16 @@
         <v>43965</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F56">
         <v>30</v>
@@ -14948,16 +14892,16 @@
         <v>43965</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F57">
         <v>30</v>
@@ -14988,16 +14932,16 @@
         <v>44040</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F58">
         <v>30</v>
@@ -15028,16 +14972,16 @@
         <v>44040</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F59">
         <v>30</v>
@@ -15068,16 +15012,16 @@
         <v>44040</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F60">
         <v>30</v>
@@ -15108,16 +15052,16 @@
         <v>44040</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F61">
         <v>30</v>
@@ -15148,16 +15092,16 @@
         <v>44040</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F62">
         <v>30</v>
@@ -15188,16 +15132,16 @@
         <v>44040</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F63">
         <v>30</v>
@@ -15228,16 +15172,16 @@
         <v>44040</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F64">
         <v>30</v>
@@ -15268,16 +15212,16 @@
         <v>44040</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F65">
         <v>30</v>
@@ -15308,16 +15252,16 @@
         <v>43872</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F66">
         <v>60</v>
@@ -15348,16 +15292,16 @@
         <v>43872</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F67">
         <v>60</v>
@@ -15388,16 +15332,16 @@
         <v>43872</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F68">
         <v>60</v>
@@ -15428,16 +15372,16 @@
         <v>43872</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F69">
         <v>60</v>
@@ -15468,16 +15412,16 @@
         <v>43872</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F70">
         <v>60</v>
@@ -15508,16 +15452,16 @@
         <v>43872</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F71">
         <v>60</v>
@@ -15548,16 +15492,16 @@
         <v>43872</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F72">
         <v>60</v>
@@ -15588,16 +15532,16 @@
         <v>43872</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D73">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F73">
         <v>60</v>
@@ -15628,16 +15572,16 @@
         <v>43899</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F74">
         <v>60</v>
@@ -15668,16 +15612,16 @@
         <v>43899</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F75">
         <v>60</v>
@@ -15708,16 +15652,16 @@
         <v>43899</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F76">
         <v>60</v>
@@ -15748,16 +15692,16 @@
         <v>43899</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F77">
         <v>60</v>
@@ -15788,16 +15732,16 @@
         <v>43899</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F78">
         <v>60</v>
@@ -15828,16 +15772,16 @@
         <v>43899</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F79">
         <v>60</v>
@@ -15868,16 +15812,16 @@
         <v>43899</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F80">
         <v>60</v>
@@ -15908,16 +15852,16 @@
         <v>43899</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F81">
         <v>60</v>
@@ -15948,16 +15892,16 @@
         <v>43965</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82">
         <v>60</v>
@@ -15988,16 +15932,16 @@
         <v>43965</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F83">
         <v>60</v>
@@ -16028,16 +15972,16 @@
         <v>43965</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84">
         <v>60</v>
@@ -16068,16 +16012,16 @@
         <v>43965</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F85">
         <v>60</v>
@@ -16108,16 +16052,16 @@
         <v>43965</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86">
         <v>60</v>
@@ -16148,16 +16092,16 @@
         <v>43965</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F87">
         <v>60</v>
@@ -16188,16 +16132,16 @@
         <v>43965</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D88">
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F88">
         <v>60</v>
@@ -16228,16 +16172,16 @@
         <v>43965</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F89">
         <v>60</v>
@@ -16268,16 +16212,16 @@
         <v>44040</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F90">
         <v>60</v>
@@ -16308,16 +16252,16 @@
         <v>44040</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F91">
         <v>60</v>
@@ -16348,16 +16292,16 @@
         <v>44040</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F92">
         <v>60</v>
@@ -16388,16 +16332,16 @@
         <v>44040</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F93">
         <v>60</v>
@@ -16428,16 +16372,16 @@
         <v>44040</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F94">
         <v>60</v>
@@ -16468,16 +16412,16 @@
         <v>44040</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F95">
         <v>60</v>
@@ -16508,16 +16452,16 @@
         <v>44040</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F96">
         <v>60</v>
@@ -16548,16 +16492,16 @@
         <v>44040</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F97">
         <v>60</v>
@@ -16588,16 +16532,16 @@
         <v>43872</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F98">
         <v>90</v>
@@ -16628,16 +16572,16 @@
         <v>43872</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C99" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F99">
         <v>90</v>
@@ -16668,16 +16612,16 @@
         <v>43872</v>
       </c>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F100">
         <v>90</v>
@@ -16708,16 +16652,16 @@
         <v>43872</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F101">
         <v>90</v>
@@ -16748,16 +16692,16 @@
         <v>43872</v>
       </c>
       <c r="B102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F102">
         <v>90</v>
@@ -16788,16 +16732,16 @@
         <v>43872</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F103">
         <v>90</v>
@@ -16828,16 +16772,16 @@
         <v>43872</v>
       </c>
       <c r="B104" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D104">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F104">
         <v>90</v>
@@ -16868,16 +16812,16 @@
         <v>43872</v>
       </c>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F105">
         <v>90</v>
@@ -16908,16 +16852,16 @@
         <v>43899</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F106">
         <v>90</v>
@@ -16948,16 +16892,16 @@
         <v>43899</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F107">
         <v>90</v>
@@ -16988,16 +16932,16 @@
         <v>43899</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F108">
         <v>90</v>
@@ -17028,16 +16972,16 @@
         <v>43899</v>
       </c>
       <c r="B109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C109" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F109">
         <v>90</v>
@@ -17068,16 +17012,16 @@
         <v>43899</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F110">
         <v>90</v>
@@ -17108,16 +17052,16 @@
         <v>43899</v>
       </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F111">
         <v>90</v>
@@ -17148,16 +17092,16 @@
         <v>43899</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F112">
         <v>90</v>
@@ -17188,16 +17132,16 @@
         <v>43899</v>
       </c>
       <c r="B113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C113" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F113">
         <v>90</v>
@@ -17228,16 +17172,16 @@
         <v>43965</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F114">
         <v>90</v>
@@ -17268,16 +17212,16 @@
         <v>43965</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F115">
         <v>90</v>
@@ -17308,16 +17252,16 @@
         <v>43965</v>
       </c>
       <c r="B116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C116" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F116">
         <v>90</v>
@@ -17348,16 +17292,16 @@
         <v>43965</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F117">
         <v>90</v>
@@ -17388,16 +17332,16 @@
         <v>43965</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F118">
         <v>90</v>
@@ -17428,16 +17372,16 @@
         <v>43965</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F119">
         <v>90</v>
@@ -17468,16 +17412,16 @@
         <v>43965</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D120">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F120">
         <v>90</v>
@@ -17508,16 +17452,16 @@
         <v>43965</v>
       </c>
       <c r="B121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D121">
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F121">
         <v>90</v>
@@ -17548,16 +17492,16 @@
         <v>44040</v>
       </c>
       <c r="B122" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F122">
         <v>90</v>
@@ -17588,16 +17532,16 @@
         <v>44040</v>
       </c>
       <c r="B123" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F123">
         <v>90</v>
@@ -17628,16 +17572,16 @@
         <v>44040</v>
       </c>
       <c r="B124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C124" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F124">
         <v>90</v>
@@ -17668,16 +17612,16 @@
         <v>44040</v>
       </c>
       <c r="B125" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C125" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F125">
         <v>90</v>
@@ -17708,16 +17652,16 @@
         <v>44040</v>
       </c>
       <c r="B126" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C126" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D126">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F126">
         <v>90</v>
@@ -17748,16 +17692,16 @@
         <v>44040</v>
       </c>
       <c r="B127" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F127">
         <v>90</v>
@@ -17788,16 +17732,16 @@
         <v>44040</v>
       </c>
       <c r="B128" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C128" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D128">
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F128">
         <v>90</v>
@@ -17828,16 +17772,16 @@
         <v>44040</v>
       </c>
       <c r="B129" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D129">
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F129">
         <v>90</v>
@@ -17868,16 +17812,16 @@
         <v>43872</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F130">
         <v>120</v>
@@ -17908,16 +17852,16 @@
         <v>43872</v>
       </c>
       <c r="B131" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C131" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F131">
         <v>120</v>
@@ -17948,16 +17892,16 @@
         <v>43872</v>
       </c>
       <c r="B132" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F132">
         <v>120</v>
@@ -17988,16 +17932,16 @@
         <v>43872</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C133" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D133">
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F133">
         <v>120</v>
@@ -18028,16 +17972,16 @@
         <v>43872</v>
       </c>
       <c r="B134" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D134">
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F134">
         <v>120</v>
@@ -18068,16 +18012,16 @@
         <v>43872</v>
       </c>
       <c r="B135" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F135">
         <v>120</v>
@@ -18108,16 +18052,16 @@
         <v>43872</v>
       </c>
       <c r="B136" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C136" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D136">
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F136">
         <v>120</v>
@@ -18148,16 +18092,16 @@
         <v>43872</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C137" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D137">
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F137">
         <v>120</v>
@@ -18188,16 +18132,16 @@
         <v>43899</v>
       </c>
       <c r="B138" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C138" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F138">
         <v>120</v>
@@ -18228,16 +18172,16 @@
         <v>43899</v>
       </c>
       <c r="B139" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F139">
         <v>120</v>
@@ -18268,16 +18212,16 @@
         <v>43899</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C140" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D140">
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F140">
         <v>120</v>
@@ -18308,16 +18252,16 @@
         <v>43899</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C141" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F141">
         <v>120</v>
@@ -18348,16 +18292,16 @@
         <v>43899</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C142" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D142">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F142">
         <v>120</v>
@@ -18388,16 +18332,16 @@
         <v>43899</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C143" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D143">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F143">
         <v>120</v>
@@ -18428,16 +18372,16 @@
         <v>43899</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C144" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D144">
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F144">
         <v>120</v>
@@ -18468,16 +18412,16 @@
         <v>43899</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C145" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D145">
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F145">
         <v>120</v>
@@ -18508,16 +18452,16 @@
         <v>43965</v>
       </c>
       <c r="B146" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C146" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F146">
         <v>120</v>
@@ -18548,16 +18492,16 @@
         <v>43965</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C147" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F147">
         <v>120</v>
@@ -18588,16 +18532,16 @@
         <v>43965</v>
       </c>
       <c r="B148" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C148" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D148">
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F148">
         <v>120</v>
@@ -18628,16 +18572,16 @@
         <v>43965</v>
       </c>
       <c r="B149" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D149">
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F149">
         <v>120</v>
@@ -18668,16 +18612,16 @@
         <v>43965</v>
       </c>
       <c r="B150" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C150" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F150">
         <v>120</v>
@@ -18708,16 +18652,16 @@
         <v>43965</v>
       </c>
       <c r="B151" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C151" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D151">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F151">
         <v>120</v>
@@ -18748,16 +18692,16 @@
         <v>43965</v>
       </c>
       <c r="B152" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C152" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D152">
         <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F152">
         <v>120</v>
@@ -18788,16 +18732,16 @@
         <v>43965</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C153" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D153">
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F153">
         <v>120</v>
@@ -18828,16 +18772,16 @@
         <v>44040</v>
       </c>
       <c r="B154" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C154" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F154">
         <v>120</v>
@@ -18868,16 +18812,16 @@
         <v>44040</v>
       </c>
       <c r="B155" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C155" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F155">
         <v>120</v>
@@ -18908,16 +18852,16 @@
         <v>44040</v>
       </c>
       <c r="B156" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C156" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F156">
         <v>120</v>
@@ -18948,16 +18892,16 @@
         <v>44040</v>
       </c>
       <c r="B157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C157" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F157">
         <v>120</v>
@@ -18988,16 +18932,16 @@
         <v>44040</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C158" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F158">
         <v>120</v>
@@ -19028,16 +18972,16 @@
         <v>44040</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D159">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F159">
         <v>120</v>
@@ -19068,16 +19012,16 @@
         <v>44040</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D160">
         <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F160">
         <v>120</v>
@@ -19108,16 +19052,16 @@
         <v>44040</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D161">
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F161">
         <v>120</v>
@@ -19148,16 +19092,16 @@
         <v>43872</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C162" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F162">
         <v>150</v>
@@ -19188,16 +19132,16 @@
         <v>43872</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C163" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F163">
         <v>150</v>
@@ -19228,16 +19172,16 @@
         <v>43872</v>
       </c>
       <c r="B164" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C164" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F164">
         <v>150</v>
@@ -19268,16 +19212,16 @@
         <v>43872</v>
       </c>
       <c r="B165" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C165" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D165">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F165">
         <v>150</v>
@@ -19308,16 +19252,16 @@
         <v>43872</v>
       </c>
       <c r="B166" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C166" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D166">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F166">
         <v>150</v>
@@ -19348,16 +19292,16 @@
         <v>43872</v>
       </c>
       <c r="B167" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C167" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D167">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F167">
         <v>150</v>
@@ -19388,16 +19332,16 @@
         <v>43872</v>
       </c>
       <c r="B168" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C168" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D168">
         <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F168">
         <v>150</v>
@@ -19428,16 +19372,16 @@
         <v>43872</v>
       </c>
       <c r="B169" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C169" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D169">
         <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F169">
         <v>150</v>
@@ -19468,16 +19412,16 @@
         <v>43899</v>
       </c>
       <c r="B170" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C170" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F170">
         <v>150</v>
@@ -19508,16 +19452,16 @@
         <v>43899</v>
       </c>
       <c r="B171" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C171" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F171">
         <v>150</v>
@@ -19548,16 +19492,16 @@
         <v>43899</v>
       </c>
       <c r="B172" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C172" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F172">
         <v>150</v>
@@ -19588,16 +19532,16 @@
         <v>43899</v>
       </c>
       <c r="B173" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C173" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F173">
         <v>150</v>
@@ -19628,16 +19572,16 @@
         <v>43899</v>
       </c>
       <c r="B174" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C174" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F174">
         <v>150</v>
@@ -19668,16 +19612,16 @@
         <v>43899</v>
       </c>
       <c r="B175" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C175" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F175">
         <v>150</v>
@@ -19708,16 +19652,16 @@
         <v>43899</v>
       </c>
       <c r="B176" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C176" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D176">
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F176">
         <v>150</v>
@@ -19748,16 +19692,16 @@
         <v>43899</v>
       </c>
       <c r="B177" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C177" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D177">
         <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F177">
         <v>150</v>
@@ -19788,16 +19732,16 @@
         <v>43965</v>
       </c>
       <c r="B178" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C178" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F178">
         <v>150</v>
@@ -19828,16 +19772,16 @@
         <v>43965</v>
       </c>
       <c r="B179" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C179" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F179">
         <v>150</v>
@@ -19868,16 +19812,16 @@
         <v>43965</v>
       </c>
       <c r="B180" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C180" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D180">
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F180">
         <v>150</v>
@@ -19908,16 +19852,16 @@
         <v>43965</v>
       </c>
       <c r="B181" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C181" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D181">
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F181">
         <v>150</v>
@@ -19948,16 +19892,16 @@
         <v>43965</v>
       </c>
       <c r="B182" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C182" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F182">
         <v>150</v>
@@ -19988,16 +19932,16 @@
         <v>43965</v>
       </c>
       <c r="B183" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C183" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F183">
         <v>150</v>
@@ -20028,16 +19972,16 @@
         <v>43965</v>
       </c>
       <c r="B184" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C184" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D184">
         <v>4</v>
       </c>
       <c r="E184" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F184">
         <v>150</v>
@@ -20068,16 +20012,16 @@
         <v>43965</v>
       </c>
       <c r="B185" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C185" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D185">
         <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F185">
         <v>150</v>
@@ -20108,16 +20052,16 @@
         <v>44040</v>
       </c>
       <c r="B186" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C186" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F186">
         <v>150</v>
@@ -20148,16 +20092,16 @@
         <v>44040</v>
       </c>
       <c r="B187" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C187" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F187">
         <v>150</v>
@@ -20188,16 +20132,16 @@
         <v>44040</v>
       </c>
       <c r="B188" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C188" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D188">
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F188">
         <v>150</v>
@@ -20228,16 +20172,16 @@
         <v>44040</v>
       </c>
       <c r="B189" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C189" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F189">
         <v>150</v>
@@ -20268,16 +20212,16 @@
         <v>44040</v>
       </c>
       <c r="B190" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C190" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F190">
         <v>150</v>
@@ -20308,16 +20252,16 @@
         <v>44040</v>
       </c>
       <c r="B191" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C191" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D191">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F191">
         <v>150</v>
@@ -20348,16 +20292,16 @@
         <v>44040</v>
       </c>
       <c r="B192" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C192" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D192">
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F192">
         <v>150</v>
@@ -20388,16 +20332,16 @@
         <v>44040</v>
       </c>
       <c r="B193" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C193" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D193">
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F193">
         <v>150</v>
@@ -20428,16 +20372,16 @@
         <v>43965</v>
       </c>
       <c r="B194" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C194" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F194">
         <v>180</v>
@@ -20468,16 +20412,16 @@
         <v>43965</v>
       </c>
       <c r="B195" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C195" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F195">
         <v>180</v>
@@ -20508,16 +20452,16 @@
         <v>43965</v>
       </c>
       <c r="B196" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C196" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D196">
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F196">
         <v>180</v>
@@ -20548,16 +20492,16 @@
         <v>43965</v>
       </c>
       <c r="B197" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C197" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D197">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F197">
         <v>180</v>
@@ -20588,16 +20532,16 @@
         <v>43965</v>
       </c>
       <c r="B198" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C198" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D198">
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F198">
         <v>180</v>
@@ -20628,16 +20572,16 @@
         <v>43965</v>
       </c>
       <c r="B199" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C199" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D199">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F199">
         <v>180</v>
@@ -20668,16 +20612,16 @@
         <v>43965</v>
       </c>
       <c r="B200" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C200" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D200">
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F200">
         <v>180</v>
@@ -20708,16 +20652,16 @@
         <v>43965</v>
       </c>
       <c r="B201" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C201" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D201">
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F201">
         <v>180</v>
@@ -20748,16 +20692,16 @@
         <v>44040</v>
       </c>
       <c r="B202" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C202" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F202">
         <v>180</v>
@@ -20788,16 +20732,16 @@
         <v>44040</v>
       </c>
       <c r="B203" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C203" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F203">
         <v>180</v>
@@ -20828,16 +20772,16 @@
         <v>44040</v>
       </c>
       <c r="B204" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C204" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F204">
         <v>180</v>
@@ -20868,16 +20812,16 @@
         <v>44040</v>
       </c>
       <c r="B205" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C205" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F205">
         <v>180</v>
@@ -20908,16 +20852,16 @@
         <v>44040</v>
       </c>
       <c r="B206" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C206" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D206">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F206">
         <v>180</v>
@@ -20948,16 +20892,16 @@
         <v>44040</v>
       </c>
       <c r="B207" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C207" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D207">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F207">
         <v>180</v>
@@ -20988,16 +20932,16 @@
         <v>44040</v>
       </c>
       <c r="B208" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C208" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D208">
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F208">
         <v>180</v>
@@ -21028,16 +20972,16 @@
         <v>44040</v>
       </c>
       <c r="B209" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C209" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D209">
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F209">
         <v>180</v>
@@ -21068,16 +21012,16 @@
         <v>43965</v>
       </c>
       <c r="B210" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C210" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D210">
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F210">
         <v>210</v>
@@ -21108,16 +21052,16 @@
         <v>43965</v>
       </c>
       <c r="B211" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C211" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D211">
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F211">
         <v>210</v>
@@ -21148,16 +21092,16 @@
         <v>43965</v>
       </c>
       <c r="B212" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C212" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F212">
         <v>210</v>
@@ -21188,16 +21132,16 @@
         <v>43965</v>
       </c>
       <c r="B213" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C213" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F213">
         <v>210</v>
@@ -21228,16 +21172,16 @@
         <v>43965</v>
       </c>
       <c r="B214" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C214" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D214">
         <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F214">
         <v>210</v>
@@ -21268,16 +21212,16 @@
         <v>43965</v>
       </c>
       <c r="B215" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C215" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D215">
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F215">
         <v>210</v>
@@ -21308,16 +21252,16 @@
         <v>43965</v>
       </c>
       <c r="B216" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C216" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D216">
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F216">
         <v>210</v>
@@ -21348,16 +21292,16 @@
         <v>43965</v>
       </c>
       <c r="B217" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C217" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D217">
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F217">
         <v>210</v>
@@ -21388,16 +21332,16 @@
         <v>44040</v>
       </c>
       <c r="B218" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C218" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D218">
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F218">
         <v>210</v>
@@ -21428,16 +21372,16 @@
         <v>44040</v>
       </c>
       <c r="B219" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C219" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D219">
         <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F219">
         <v>210</v>
@@ -21468,16 +21412,16 @@
         <v>44040</v>
       </c>
       <c r="B220" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C220" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D220">
         <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F220">
         <v>210</v>
@@ -21508,16 +21452,16 @@
         <v>44040</v>
       </c>
       <c r="B221" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C221" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D221">
         <v>2</v>
       </c>
       <c r="E221" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F221">
         <v>210</v>
@@ -21548,16 +21492,16 @@
         <v>44040</v>
       </c>
       <c r="B222" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C222" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D222">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F222">
         <v>210</v>
@@ -21588,16 +21532,16 @@
         <v>44040</v>
       </c>
       <c r="B223" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C223" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D223">
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F223">
         <v>210</v>
@@ -21628,16 +21572,16 @@
         <v>44040</v>
       </c>
       <c r="B224" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C224" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D224">
         <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F224">
         <v>210</v>
@@ -21668,16 +21612,16 @@
         <v>44040</v>
       </c>
       <c r="B225" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C225" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D225">
         <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F225">
         <v>210</v>
@@ -21708,16 +21652,16 @@
         <v>44040</v>
       </c>
       <c r="B226" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C226" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D226">
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F226">
         <v>240</v>
@@ -21748,16 +21692,16 @@
         <v>44040</v>
       </c>
       <c r="B227" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C227" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D227">
         <v>2</v>
       </c>
       <c r="E227" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F227">
         <v>240</v>
@@ -21788,16 +21732,16 @@
         <v>44040</v>
       </c>
       <c r="B228" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C228" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D228">
         <v>2</v>
       </c>
       <c r="E228" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F228">
         <v>240</v>
@@ -21828,16 +21772,16 @@
         <v>44040</v>
       </c>
       <c r="B229" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C229" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D229">
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F229">
         <v>240</v>
@@ -21868,16 +21812,16 @@
         <v>44040</v>
       </c>
       <c r="B230" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C230" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D230">
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F230">
         <v>240</v>
@@ -21908,16 +21852,16 @@
         <v>44040</v>
       </c>
       <c r="B231" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C231" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D231">
         <v>4</v>
       </c>
       <c r="E231" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F231">
         <v>240</v>
@@ -21948,16 +21892,16 @@
         <v>44040</v>
       </c>
       <c r="B232" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C232" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D232">
         <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F232">
         <v>240</v>
@@ -21988,16 +21932,16 @@
         <v>44040</v>
       </c>
       <c r="B233" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C233" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D233">
         <v>1</v>
       </c>
       <c r="E233" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F233">
         <v>240</v>
@@ -22026,16 +21970,16 @@
         <v>44040</v>
       </c>
       <c r="B234" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C234" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F234">
         <v>270</v>
@@ -22064,16 +22008,16 @@
         <v>44040</v>
       </c>
       <c r="B235" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C235" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F235">
         <v>270</v>
@@ -22102,16 +22046,16 @@
         <v>44040</v>
       </c>
       <c r="B236" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C236" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D236">
         <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F236">
         <v>270</v>
@@ -22140,16 +22084,16 @@
         <v>44040</v>
       </c>
       <c r="B237" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C237" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D237">
         <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F237">
         <v>270</v>
@@ -22178,16 +22122,16 @@
         <v>44040</v>
       </c>
       <c r="B238" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C238" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D238">
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F238">
         <v>270</v>
@@ -22216,16 +22160,16 @@
         <v>44040</v>
       </c>
       <c r="B239" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C239" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D239">
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F239">
         <v>270</v>
@@ -22254,16 +22198,16 @@
         <v>44040</v>
       </c>
       <c r="B240" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C240" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D240">
         <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F240">
         <v>270</v>
@@ -22292,16 +22236,16 @@
         <v>44040</v>
       </c>
       <c r="B241" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C241" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D241">
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F241">
         <v>270</v>
@@ -22330,16 +22274,16 @@
         <v>44040</v>
       </c>
       <c r="B242" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C242" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D242">
         <v>1</v>
       </c>
       <c r="E242" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F242">
         <v>300</v>
@@ -22368,16 +22312,16 @@
         <v>44040</v>
       </c>
       <c r="B243" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C243" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D243">
         <v>1</v>
       </c>
       <c r="E243" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F243">
         <v>300</v>
@@ -22406,16 +22350,16 @@
         <v>44040</v>
       </c>
       <c r="B244" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C244" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D244">
         <v>2</v>
       </c>
       <c r="E244" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F244">
         <v>300</v>
@@ -22444,16 +22388,16 @@
         <v>44040</v>
       </c>
       <c r="B245" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C245" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D245">
         <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F245">
         <v>300</v>
@@ -22482,16 +22426,16 @@
         <v>44040</v>
       </c>
       <c r="B246" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C246" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D246">
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F246">
         <v>300</v>
@@ -22520,16 +22464,16 @@
         <v>44040</v>
       </c>
       <c r="B247" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C247" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D247">
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F247">
         <v>300</v>
@@ -22558,16 +22502,16 @@
         <v>44040</v>
       </c>
       <c r="B248" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C248" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D248">
         <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F248">
         <v>300</v>
@@ -22596,16 +22540,16 @@
         <v>44040</v>
       </c>
       <c r="B249" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C249" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D249">
         <v>4</v>
       </c>
       <c r="E249" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F249">
         <v>300</v>
@@ -22634,16 +22578,16 @@
         <v>44040</v>
       </c>
       <c r="B250" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C250" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D250">
         <v>1</v>
       </c>
       <c r="E250" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F250">
         <v>330</v>
@@ -22672,16 +22616,16 @@
         <v>44040</v>
       </c>
       <c r="B251" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C251" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D251">
         <v>1</v>
       </c>
       <c r="E251" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F251">
         <v>330</v>
@@ -22710,16 +22654,16 @@
         <v>44040</v>
       </c>
       <c r="B252" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C252" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D252">
         <v>2</v>
       </c>
       <c r="E252" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F252">
         <v>330</v>
@@ -22748,16 +22692,16 @@
         <v>44040</v>
       </c>
       <c r="B253" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C253" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D253">
         <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F253">
         <v>330</v>
@@ -22786,16 +22730,16 @@
         <v>44040</v>
       </c>
       <c r="B254" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C254" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D254">
         <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F254">
         <v>330</v>
@@ -22824,16 +22768,16 @@
         <v>44040</v>
       </c>
       <c r="B255" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C255" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D255">
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F255">
         <v>330</v>
@@ -22862,16 +22806,16 @@
         <v>44040</v>
       </c>
       <c r="B256" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C256" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D256">
         <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F256">
         <v>330</v>
@@ -22900,16 +22844,16 @@
         <v>44040</v>
       </c>
       <c r="B257" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C257" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D257">
         <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F257">
         <v>360</v>
@@ -22938,16 +22882,16 @@
         <v>44040</v>
       </c>
       <c r="B258" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C258" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D258">
         <v>2</v>
       </c>
       <c r="E258" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F258">
         <v>360</v>
@@ -22976,16 +22920,16 @@
         <v>44040</v>
       </c>
       <c r="B259" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C259" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D259">
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F259">
         <v>360</v>
@@ -23014,16 +22958,16 @@
         <v>44040</v>
       </c>
       <c r="B260" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C260" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D260">
         <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F260">
         <v>360</v>
@@ -23052,16 +22996,16 @@
         <v>44040</v>
       </c>
       <c r="B261" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C261" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D261">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F261">
         <v>360</v>
@@ -23090,16 +23034,16 @@
         <v>44040</v>
       </c>
       <c r="B262" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C262" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D262">
         <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F262">
         <v>360</v>
@@ -23128,16 +23072,16 @@
         <v>44040</v>
       </c>
       <c r="B263" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C263" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D263">
         <v>4</v>
       </c>
       <c r="E263" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F263">
         <v>360</v>
@@ -23166,16 +23110,16 @@
         <v>44040</v>
       </c>
       <c r="B264" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C264" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D264">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F264">
         <v>390</v>

--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD6192C-AC8A-44AC-90B6-CD5C10B4757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF94681-7F75-4E3B-B0AD-FB19C7CDA591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{DC1A8874-CF5D-4DF3-B66F-7CA3C73D11F3}"/>
   </bookViews>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>dw_OB</t>
-  </si>
-  <si>
-    <t>Cotton.Fruit.Wt</t>
   </si>
   <si>
     <t>Cotton.Fruit.Nconc</t>
@@ -712,6 +709,9 @@
   </si>
   <si>
     <t>Soil.Water.MM(3)Error</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.Wt</t>
   </si>
 </sst>
 </file>
@@ -5859,8 +5859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BBC4D-1054-4A81-B133-16FD0890ACC7}">
   <dimension ref="A1:FZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BR1" sqref="BR1:BS1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BG21" sqref="BG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6212,378 +6212,378 @@
         <v>58</v>
       </c>
       <c r="BH1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CR1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ1" t="s">
         <v>192</v>
       </c>
-      <c r="CR1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CX1" t="s">
+      <c r="DA1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DD1" t="s">
         <v>94</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DE1" t="s">
         <v>172</v>
       </c>
-      <c r="CZ1" t="s">
-        <v>193</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>194</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>195</v>
-      </c>
-      <c r="DC1" t="s">
+      <c r="DF1" t="s">
+        <v>220</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DH1" t="s">
         <v>196</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DI1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DJ1" t="s">
         <v>95</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DK1" t="s">
         <v>173</v>
       </c>
-      <c r="DF1" t="s">
-        <v>221</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>197</v>
-      </c>
-      <c r="DI1" t="s">
+      <c r="DL1" t="s">
+        <v>208</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DN1" t="s">
         <v>198</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DO1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DP1" t="s">
         <v>96</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DQ1" t="s">
         <v>174</v>
       </c>
-      <c r="DL1" t="s">
-        <v>209</v>
-      </c>
-      <c r="DM1" t="s">
+      <c r="DR1" t="s">
         <v>210</v>
       </c>
-      <c r="DN1" t="s">
-        <v>199</v>
-      </c>
-      <c r="DO1" t="s">
+      <c r="DS1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DT1" t="s">
         <v>200</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DU1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DV1" t="s">
         <v>97</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DW1" t="s">
         <v>175</v>
       </c>
-      <c r="DR1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DS1" t="s">
+      <c r="DX1" t="s">
         <v>212</v>
       </c>
-      <c r="DT1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DU1" t="s">
+      <c r="DY1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DZ1" t="s">
         <v>202</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="EA1" t="s">
+        <v>203</v>
+      </c>
+      <c r="EB1" t="s">
         <v>98</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="EC1" t="s">
         <v>176</v>
       </c>
-      <c r="DX1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DY1" t="s">
+      <c r="ED1" t="s">
         <v>214</v>
       </c>
-      <c r="DZ1" t="s">
-        <v>203</v>
-      </c>
-      <c r="EA1" t="s">
+      <c r="EE1" t="s">
+        <v>215</v>
+      </c>
+      <c r="EF1" t="s">
         <v>204</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EG1" t="s">
+        <v>205</v>
+      </c>
+      <c r="EH1" t="s">
         <v>99</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EI1" t="s">
         <v>177</v>
       </c>
-      <c r="ED1" t="s">
-        <v>215</v>
-      </c>
-      <c r="EE1" t="s">
+      <c r="EJ1" t="s">
         <v>216</v>
       </c>
-      <c r="EF1" t="s">
-        <v>205</v>
-      </c>
-      <c r="EG1" t="s">
+      <c r="EK1" t="s">
+        <v>217</v>
+      </c>
+      <c r="EL1" t="s">
         <v>206</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EM1" t="s">
+        <v>207</v>
+      </c>
+      <c r="EN1" t="s">
         <v>100</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EO1" t="s">
         <v>178</v>
       </c>
-      <c r="EJ1" t="s">
-        <v>217</v>
-      </c>
-      <c r="EK1" t="s">
+      <c r="EP1" t="s">
         <v>218</v>
       </c>
-      <c r="EL1" t="s">
-        <v>207</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>208</v>
-      </c>
-      <c r="EN1" t="s">
+      <c r="EQ1" t="s">
+        <v>219</v>
+      </c>
+      <c r="ER1" t="s">
         <v>101</v>
       </c>
-      <c r="EO1" t="s">
-        <v>179</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>219</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>220</v>
-      </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>102</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>103</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>104</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>105</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>106</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>107</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>108</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>109</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>110</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>111</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>112</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>113</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>114</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>115</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>116</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>117</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>118</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>119</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>120</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>121</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>122</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>123</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FO1" t="s">
         <v>124</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>125</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>126</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>127</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>128</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>129</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FU1" t="s">
         <v>130</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FV1" t="s">
         <v>131</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FW1" t="s">
         <v>132</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FX1" t="s">
         <v>133</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FY1" t="s">
         <v>134</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FZ1" t="s">
         <v>135</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
@@ -6593,16 +6593,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I2" s="6">
         <v>10.5</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="3" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
@@ -6799,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" s="6">
         <v>10.5</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="4" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
@@ -7096,7 +7096,7 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I4" s="6">
         <v>10.5</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="5" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
@@ -7297,7 +7297,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I5" s="6">
         <v>10.5</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="6" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -7495,16 +7495,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G6" s="2">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" s="6">
         <v>10.5</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="7" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
@@ -7775,7 +7775,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I7" s="6">
         <v>10.5</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="8" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
@@ -7976,7 +7976,7 @@
         <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8" s="6">
         <v>10.5</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="9" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -8185,16 +8185,16 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="G9" s="2">
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I9" s="6">
         <v>10.5</v>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="10" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -8377,7 +8377,7 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I10" s="6">
         <v>10.5</v>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="11" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -8592,7 +8592,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I11" s="6">
         <v>10.5</v>
@@ -8760,7 +8760,7 @@
     </row>
     <row r="12" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -8773,7 +8773,7 @@
         <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I12" s="6">
         <v>10.5</v>
@@ -8958,7 +8958,7 @@
     </row>
     <row r="13" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -8971,7 +8971,7 @@
         <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" s="6">
         <v>10.5</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="14" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -9170,16 +9170,16 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
         <v>144</v>
-      </c>
-      <c r="F14" t="s">
-        <v>145</v>
       </c>
       <c r="G14" s="2">
         <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I14" s="6">
         <v>10.5</v>
@@ -9370,7 +9370,7 @@
     </row>
     <row r="15" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -9383,7 +9383,7 @@
         <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I15" s="6">
         <v>10.5</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="16" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -9585,7 +9585,7 @@
         <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I16" s="6">
         <v>10.5</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="17" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -9821,7 +9821,7 @@
         <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I17" s="6">
         <v>10.5</v>
@@ -10138,7 +10138,7 @@
     </row>
     <row r="18" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -10148,16 +10148,16 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G18" s="2">
         <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I18" s="6">
         <v>10.5</v>
@@ -10343,7 +10343,7 @@
     </row>
     <row r="19" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -10356,7 +10356,7 @@
         <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I19" s="6">
         <v>10.5</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="20" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -10583,16 +10583,16 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="G20" s="2">
         <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I20" s="6">
         <v>10.5</v>
@@ -10773,7 +10773,7 @@
     </row>
     <row r="21" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -10783,16 +10783,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G21" s="2">
         <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I21" s="6">
         <v>10.5</v>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="22" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -11002,7 +11002,7 @@
         <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I22" s="6">
         <v>10.5</v>
@@ -11377,40 +11377,40 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
         <v>152</v>
       </c>
-      <c r="B1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" t="s">
         <v>156</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" t="s">
         <v>181</v>
-      </c>
-      <c r="I1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.45">
@@ -11418,16 +11418,16 @@
         <v>43872</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -11453,46 +11453,46 @@
         <v>27.815742397137726</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" t="s">
         <v>166</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>167</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>168</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>182</v>
+      </c>
+      <c r="T2" t="s">
+        <v>183</v>
+      </c>
+      <c r="U2" t="s">
+        <v>184</v>
+      </c>
+      <c r="X2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="S2" t="s">
-        <v>183</v>
-      </c>
-      <c r="T2" t="s">
-        <v>184</v>
-      </c>
-      <c r="U2" t="s">
-        <v>185</v>
-      </c>
-      <c r="X2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
@@ -11500,16 +11500,16 @@
         <v>43872</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -11583,16 +11583,16 @@
         <v>43872</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -11661,16 +11661,16 @@
         <v>43872</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -11739,16 +11739,16 @@
         <v>43872</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -11817,16 +11817,16 @@
         <v>43872</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -11895,16 +11895,16 @@
         <v>43872</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -11973,16 +11973,16 @@
         <v>43872</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -12056,16 +12056,16 @@
         <v>43899</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -12134,16 +12134,16 @@
         <v>43899</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -12212,16 +12212,16 @@
         <v>43899</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -12290,16 +12290,16 @@
         <v>43899</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -12368,16 +12368,16 @@
         <v>43899</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -12446,16 +12446,16 @@
         <v>43899</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -12529,16 +12529,16 @@
         <v>43899</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -12607,16 +12607,16 @@
         <v>43899</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -12685,16 +12685,16 @@
         <v>43965</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -12763,16 +12763,16 @@
         <v>43965</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -12841,16 +12841,16 @@
         <v>43965</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -12919,16 +12919,16 @@
         <v>43965</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21">
         <v>15</v>
@@ -12997,16 +12997,16 @@
         <v>43965</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -13075,16 +13075,16 @@
         <v>43965</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -13158,16 +13158,16 @@
         <v>43965</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F24">
         <v>15</v>
@@ -13236,16 +13236,16 @@
         <v>43965</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25">
         <v>15</v>
@@ -13314,16 +13314,16 @@
         <v>44040</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26">
         <v>15</v>
@@ -13392,16 +13392,16 @@
         <v>44040</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -13470,16 +13470,16 @@
         <v>44040</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28">
         <v>15</v>
@@ -13548,16 +13548,16 @@
         <v>44040</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29">
         <v>15</v>
@@ -13626,16 +13626,16 @@
         <v>44040</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -13704,16 +13704,16 @@
         <v>44040</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -13782,16 +13782,16 @@
         <v>44040</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -13844,16 +13844,16 @@
         <v>44040</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33">
         <v>15</v>
@@ -13906,16 +13906,16 @@
         <v>43872</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F34">
         <v>30</v>
@@ -13968,16 +13968,16 @@
         <v>43872</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35">
         <v>30</v>
@@ -14030,16 +14030,16 @@
         <v>43872</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F36">
         <v>30</v>
@@ -14092,16 +14092,16 @@
         <v>43872</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37">
         <v>30</v>
@@ -14132,16 +14132,16 @@
         <v>43872</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F38">
         <v>30</v>
@@ -14172,16 +14172,16 @@
         <v>43872</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F39">
         <v>30</v>
@@ -14212,16 +14212,16 @@
         <v>43872</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F40">
         <v>30</v>
@@ -14252,16 +14252,16 @@
         <v>43872</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F41">
         <v>30</v>
@@ -14292,16 +14292,16 @@
         <v>43899</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F42">
         <v>30</v>
@@ -14332,16 +14332,16 @@
         <v>43899</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F43">
         <v>30</v>
@@ -14372,16 +14372,16 @@
         <v>43899</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F44">
         <v>30</v>
@@ -14412,16 +14412,16 @@
         <v>43899</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F45">
         <v>30</v>
@@ -14452,16 +14452,16 @@
         <v>43899</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -14492,16 +14492,16 @@
         <v>43899</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F47">
         <v>30</v>
@@ -14532,16 +14532,16 @@
         <v>43899</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F48">
         <v>30</v>
@@ -14572,16 +14572,16 @@
         <v>43899</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F49">
         <v>30</v>
@@ -14612,16 +14612,16 @@
         <v>43965</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F50">
         <v>30</v>
@@ -14652,16 +14652,16 @@
         <v>43965</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -14692,16 +14692,16 @@
         <v>43965</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F52">
         <v>30</v>
@@ -14732,16 +14732,16 @@
         <v>43965</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F53">
         <v>30</v>
@@ -14772,16 +14772,16 @@
         <v>43965</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F54">
         <v>30</v>
@@ -14812,16 +14812,16 @@
         <v>43965</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F55">
         <v>30</v>
@@ -14852,16 +14852,16 @@
         <v>43965</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F56">
         <v>30</v>
@@ -14892,16 +14892,16 @@
         <v>43965</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F57">
         <v>30</v>
@@ -14932,16 +14932,16 @@
         <v>44040</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F58">
         <v>30</v>
@@ -14972,16 +14972,16 @@
         <v>44040</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F59">
         <v>30</v>
@@ -15012,16 +15012,16 @@
         <v>44040</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F60">
         <v>30</v>
@@ -15052,16 +15052,16 @@
         <v>44040</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F61">
         <v>30</v>
@@ -15092,16 +15092,16 @@
         <v>44040</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F62">
         <v>30</v>
@@ -15132,16 +15132,16 @@
         <v>44040</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F63">
         <v>30</v>
@@ -15172,16 +15172,16 @@
         <v>44040</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F64">
         <v>30</v>
@@ -15212,16 +15212,16 @@
         <v>44040</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F65">
         <v>30</v>
@@ -15252,16 +15252,16 @@
         <v>43872</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F66">
         <v>60</v>
@@ -15292,16 +15292,16 @@
         <v>43872</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F67">
         <v>60</v>
@@ -15332,16 +15332,16 @@
         <v>43872</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F68">
         <v>60</v>
@@ -15372,16 +15372,16 @@
         <v>43872</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F69">
         <v>60</v>
@@ -15412,16 +15412,16 @@
         <v>43872</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F70">
         <v>60</v>
@@ -15452,16 +15452,16 @@
         <v>43872</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F71">
         <v>60</v>
@@ -15492,16 +15492,16 @@
         <v>43872</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F72">
         <v>60</v>
@@ -15532,16 +15532,16 @@
         <v>43872</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D73">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F73">
         <v>60</v>
@@ -15572,16 +15572,16 @@
         <v>43899</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F74">
         <v>60</v>
@@ -15612,16 +15612,16 @@
         <v>43899</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F75">
         <v>60</v>
@@ -15652,16 +15652,16 @@
         <v>43899</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F76">
         <v>60</v>
@@ -15692,16 +15692,16 @@
         <v>43899</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F77">
         <v>60</v>
@@ -15732,16 +15732,16 @@
         <v>43899</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F78">
         <v>60</v>
@@ -15772,16 +15772,16 @@
         <v>43899</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F79">
         <v>60</v>
@@ -15812,16 +15812,16 @@
         <v>43899</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F80">
         <v>60</v>
@@ -15852,16 +15852,16 @@
         <v>43899</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F81">
         <v>60</v>
@@ -15892,16 +15892,16 @@
         <v>43965</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F82">
         <v>60</v>
@@ -15932,16 +15932,16 @@
         <v>43965</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F83">
         <v>60</v>
@@ -15972,16 +15972,16 @@
         <v>43965</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F84">
         <v>60</v>
@@ -16012,16 +16012,16 @@
         <v>43965</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F85">
         <v>60</v>
@@ -16052,16 +16052,16 @@
         <v>43965</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F86">
         <v>60</v>
@@ -16092,16 +16092,16 @@
         <v>43965</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F87">
         <v>60</v>
@@ -16132,16 +16132,16 @@
         <v>43965</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D88">
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F88">
         <v>60</v>
@@ -16172,16 +16172,16 @@
         <v>43965</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F89">
         <v>60</v>
@@ -16212,16 +16212,16 @@
         <v>44040</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F90">
         <v>60</v>
@@ -16252,16 +16252,16 @@
         <v>44040</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F91">
         <v>60</v>
@@ -16292,16 +16292,16 @@
         <v>44040</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F92">
         <v>60</v>
@@ -16332,16 +16332,16 @@
         <v>44040</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F93">
         <v>60</v>
@@ -16372,16 +16372,16 @@
         <v>44040</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F94">
         <v>60</v>
@@ -16412,16 +16412,16 @@
         <v>44040</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F95">
         <v>60</v>
@@ -16452,16 +16452,16 @@
         <v>44040</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F96">
         <v>60</v>
@@ -16492,16 +16492,16 @@
         <v>44040</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F97">
         <v>60</v>
@@ -16532,16 +16532,16 @@
         <v>43872</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F98">
         <v>90</v>
@@ -16572,16 +16572,16 @@
         <v>43872</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F99">
         <v>90</v>
@@ -16612,16 +16612,16 @@
         <v>43872</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F100">
         <v>90</v>
@@ -16652,16 +16652,16 @@
         <v>43872</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F101">
         <v>90</v>
@@ -16692,16 +16692,16 @@
         <v>43872</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F102">
         <v>90</v>
@@ -16732,16 +16732,16 @@
         <v>43872</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F103">
         <v>90</v>
@@ -16772,16 +16772,16 @@
         <v>43872</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D104">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F104">
         <v>90</v>
@@ -16812,16 +16812,16 @@
         <v>43872</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F105">
         <v>90</v>
@@ -16852,16 +16852,16 @@
         <v>43899</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F106">
         <v>90</v>
@@ -16892,16 +16892,16 @@
         <v>43899</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F107">
         <v>90</v>
@@ -16932,16 +16932,16 @@
         <v>43899</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F108">
         <v>90</v>
@@ -16972,16 +16972,16 @@
         <v>43899</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F109">
         <v>90</v>
@@ -17012,16 +17012,16 @@
         <v>43899</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F110">
         <v>90</v>
@@ -17052,16 +17052,16 @@
         <v>43899</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F111">
         <v>90</v>
@@ -17092,16 +17092,16 @@
         <v>43899</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F112">
         <v>90</v>
@@ -17132,16 +17132,16 @@
         <v>43899</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F113">
         <v>90</v>
@@ -17172,16 +17172,16 @@
         <v>43965</v>
       </c>
       <c r="B114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F114">
         <v>90</v>
@@ -17212,16 +17212,16 @@
         <v>43965</v>
       </c>
       <c r="B115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F115">
         <v>90</v>
@@ -17252,16 +17252,16 @@
         <v>43965</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F116">
         <v>90</v>
@@ -17292,16 +17292,16 @@
         <v>43965</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F117">
         <v>90</v>
@@ -17332,16 +17332,16 @@
         <v>43965</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F118">
         <v>90</v>
@@ -17372,16 +17372,16 @@
         <v>43965</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F119">
         <v>90</v>
@@ -17412,16 +17412,16 @@
         <v>43965</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D120">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F120">
         <v>90</v>
@@ -17452,16 +17452,16 @@
         <v>43965</v>
       </c>
       <c r="B121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D121">
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F121">
         <v>90</v>
@@ -17492,16 +17492,16 @@
         <v>44040</v>
       </c>
       <c r="B122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F122">
         <v>90</v>
@@ -17532,16 +17532,16 @@
         <v>44040</v>
       </c>
       <c r="B123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F123">
         <v>90</v>
@@ -17572,16 +17572,16 @@
         <v>44040</v>
       </c>
       <c r="B124" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F124">
         <v>90</v>
@@ -17612,16 +17612,16 @@
         <v>44040</v>
       </c>
       <c r="B125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F125">
         <v>90</v>
@@ -17652,16 +17652,16 @@
         <v>44040</v>
       </c>
       <c r="B126" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D126">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F126">
         <v>90</v>
@@ -17692,16 +17692,16 @@
         <v>44040</v>
       </c>
       <c r="B127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F127">
         <v>90</v>
@@ -17732,16 +17732,16 @@
         <v>44040</v>
       </c>
       <c r="B128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D128">
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F128">
         <v>90</v>
@@ -17772,16 +17772,16 @@
         <v>44040</v>
       </c>
       <c r="B129" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D129">
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F129">
         <v>90</v>
@@ -17812,16 +17812,16 @@
         <v>43872</v>
       </c>
       <c r="B130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C130" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F130">
         <v>120</v>
@@ -17852,16 +17852,16 @@
         <v>43872</v>
       </c>
       <c r="B131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F131">
         <v>120</v>
@@ -17892,16 +17892,16 @@
         <v>43872</v>
       </c>
       <c r="B132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F132">
         <v>120</v>
@@ -17932,16 +17932,16 @@
         <v>43872</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D133">
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F133">
         <v>120</v>
@@ -17972,16 +17972,16 @@
         <v>43872</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D134">
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F134">
         <v>120</v>
@@ -18012,16 +18012,16 @@
         <v>43872</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F135">
         <v>120</v>
@@ -18052,16 +18052,16 @@
         <v>43872</v>
       </c>
       <c r="B136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D136">
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F136">
         <v>120</v>
@@ -18092,16 +18092,16 @@
         <v>43872</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D137">
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F137">
         <v>120</v>
@@ -18132,16 +18132,16 @@
         <v>43899</v>
       </c>
       <c r="B138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F138">
         <v>120</v>
@@ -18172,16 +18172,16 @@
         <v>43899</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F139">
         <v>120</v>
@@ -18212,16 +18212,16 @@
         <v>43899</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D140">
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F140">
         <v>120</v>
@@ -18252,16 +18252,16 @@
         <v>43899</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F141">
         <v>120</v>
@@ -18292,16 +18292,16 @@
         <v>43899</v>
       </c>
       <c r="B142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C142" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D142">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F142">
         <v>120</v>
@@ -18332,16 +18332,16 @@
         <v>43899</v>
       </c>
       <c r="B143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D143">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F143">
         <v>120</v>
@@ -18372,16 +18372,16 @@
         <v>43899</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D144">
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F144">
         <v>120</v>
@@ -18412,16 +18412,16 @@
         <v>43899</v>
       </c>
       <c r="B145" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D145">
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F145">
         <v>120</v>
@@ -18452,16 +18452,16 @@
         <v>43965</v>
       </c>
       <c r="B146" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F146">
         <v>120</v>
@@ -18492,16 +18492,16 @@
         <v>43965</v>
       </c>
       <c r="B147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F147">
         <v>120</v>
@@ -18532,16 +18532,16 @@
         <v>43965</v>
       </c>
       <c r="B148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D148">
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F148">
         <v>120</v>
@@ -18572,16 +18572,16 @@
         <v>43965</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C149" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D149">
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F149">
         <v>120</v>
@@ -18612,16 +18612,16 @@
         <v>43965</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F150">
         <v>120</v>
@@ -18652,16 +18652,16 @@
         <v>43965</v>
       </c>
       <c r="B151" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C151" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D151">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F151">
         <v>120</v>
@@ -18692,16 +18692,16 @@
         <v>43965</v>
       </c>
       <c r="B152" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D152">
         <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F152">
         <v>120</v>
@@ -18732,16 +18732,16 @@
         <v>43965</v>
       </c>
       <c r="B153" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D153">
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F153">
         <v>120</v>
@@ -18772,16 +18772,16 @@
         <v>44040</v>
       </c>
       <c r="B154" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F154">
         <v>120</v>
@@ -18812,16 +18812,16 @@
         <v>44040</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F155">
         <v>120</v>
@@ -18852,16 +18852,16 @@
         <v>44040</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F156">
         <v>120</v>
@@ -18892,16 +18892,16 @@
         <v>44040</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F157">
         <v>120</v>
@@ -18932,16 +18932,16 @@
         <v>44040</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F158">
         <v>120</v>
@@ -18972,16 +18972,16 @@
         <v>44040</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D159">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F159">
         <v>120</v>
@@ -19012,16 +19012,16 @@
         <v>44040</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D160">
         <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F160">
         <v>120</v>
@@ -19052,16 +19052,16 @@
         <v>44040</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D161">
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F161">
         <v>120</v>
@@ -19092,16 +19092,16 @@
         <v>43872</v>
       </c>
       <c r="B162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F162">
         <v>150</v>
@@ -19132,16 +19132,16 @@
         <v>43872</v>
       </c>
       <c r="B163" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F163">
         <v>150</v>
@@ -19172,16 +19172,16 @@
         <v>43872</v>
       </c>
       <c r="B164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C164" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F164">
         <v>150</v>
@@ -19212,16 +19212,16 @@
         <v>43872</v>
       </c>
       <c r="B165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C165" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D165">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F165">
         <v>150</v>
@@ -19252,16 +19252,16 @@
         <v>43872</v>
       </c>
       <c r="B166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C166" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D166">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F166">
         <v>150</v>
@@ -19292,16 +19292,16 @@
         <v>43872</v>
       </c>
       <c r="B167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D167">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F167">
         <v>150</v>
@@ -19332,16 +19332,16 @@
         <v>43872</v>
       </c>
       <c r="B168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C168" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D168">
         <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F168">
         <v>150</v>
@@ -19372,16 +19372,16 @@
         <v>43872</v>
       </c>
       <c r="B169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C169" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D169">
         <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F169">
         <v>150</v>
@@ -19412,16 +19412,16 @@
         <v>43899</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C170" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F170">
         <v>150</v>
@@ -19452,16 +19452,16 @@
         <v>43899</v>
       </c>
       <c r="B171" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F171">
         <v>150</v>
@@ -19492,16 +19492,16 @@
         <v>43899</v>
       </c>
       <c r="B172" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F172">
         <v>150</v>
@@ -19532,16 +19532,16 @@
         <v>43899</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C173" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F173">
         <v>150</v>
@@ -19572,16 +19572,16 @@
         <v>43899</v>
       </c>
       <c r="B174" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C174" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F174">
         <v>150</v>
@@ -19612,16 +19612,16 @@
         <v>43899</v>
       </c>
       <c r="B175" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C175" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F175">
         <v>150</v>
@@ -19652,16 +19652,16 @@
         <v>43899</v>
       </c>
       <c r="B176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D176">
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F176">
         <v>150</v>
@@ -19692,16 +19692,16 @@
         <v>43899</v>
       </c>
       <c r="B177" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C177" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D177">
         <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F177">
         <v>150</v>
@@ -19732,16 +19732,16 @@
         <v>43965</v>
       </c>
       <c r="B178" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C178" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F178">
         <v>150</v>
@@ -19772,16 +19772,16 @@
         <v>43965</v>
       </c>
       <c r="B179" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C179" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F179">
         <v>150</v>
@@ -19812,16 +19812,16 @@
         <v>43965</v>
       </c>
       <c r="B180" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C180" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D180">
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F180">
         <v>150</v>
@@ -19852,16 +19852,16 @@
         <v>43965</v>
       </c>
       <c r="B181" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C181" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D181">
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F181">
         <v>150</v>
@@ -19892,16 +19892,16 @@
         <v>43965</v>
       </c>
       <c r="B182" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C182" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F182">
         <v>150</v>
@@ -19932,16 +19932,16 @@
         <v>43965</v>
       </c>
       <c r="B183" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F183">
         <v>150</v>
@@ -19972,16 +19972,16 @@
         <v>43965</v>
       </c>
       <c r="B184" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C184" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D184">
         <v>4</v>
       </c>
       <c r="E184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F184">
         <v>150</v>
@@ -20012,16 +20012,16 @@
         <v>43965</v>
       </c>
       <c r="B185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D185">
         <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F185">
         <v>150</v>
@@ -20052,16 +20052,16 @@
         <v>44040</v>
       </c>
       <c r="B186" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C186" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F186">
         <v>150</v>
@@ -20092,16 +20092,16 @@
         <v>44040</v>
       </c>
       <c r="B187" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C187" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F187">
         <v>150</v>
@@ -20132,16 +20132,16 @@
         <v>44040</v>
       </c>
       <c r="B188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C188" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D188">
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F188">
         <v>150</v>
@@ -20172,16 +20172,16 @@
         <v>44040</v>
       </c>
       <c r="B189" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C189" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F189">
         <v>150</v>
@@ -20212,16 +20212,16 @@
         <v>44040</v>
       </c>
       <c r="B190" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C190" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F190">
         <v>150</v>
@@ -20252,16 +20252,16 @@
         <v>44040</v>
       </c>
       <c r="B191" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C191" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D191">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F191">
         <v>150</v>
@@ -20292,16 +20292,16 @@
         <v>44040</v>
       </c>
       <c r="B192" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C192" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D192">
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F192">
         <v>150</v>
@@ -20332,16 +20332,16 @@
         <v>44040</v>
       </c>
       <c r="B193" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C193" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D193">
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F193">
         <v>150</v>
@@ -20372,16 +20372,16 @@
         <v>43965</v>
       </c>
       <c r="B194" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C194" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F194">
         <v>180</v>
@@ -20412,16 +20412,16 @@
         <v>43965</v>
       </c>
       <c r="B195" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C195" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F195">
         <v>180</v>
@@ -20452,16 +20452,16 @@
         <v>43965</v>
       </c>
       <c r="B196" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C196" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D196">
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F196">
         <v>180</v>
@@ -20492,16 +20492,16 @@
         <v>43965</v>
       </c>
       <c r="B197" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C197" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D197">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F197">
         <v>180</v>
@@ -20532,16 +20532,16 @@
         <v>43965</v>
       </c>
       <c r="B198" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C198" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D198">
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F198">
         <v>180</v>
@@ -20572,16 +20572,16 @@
         <v>43965</v>
       </c>
       <c r="B199" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D199">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F199">
         <v>180</v>
@@ -20612,16 +20612,16 @@
         <v>43965</v>
       </c>
       <c r="B200" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C200" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D200">
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F200">
         <v>180</v>
@@ -20652,16 +20652,16 @@
         <v>43965</v>
       </c>
       <c r="B201" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C201" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D201">
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F201">
         <v>180</v>
@@ -20692,16 +20692,16 @@
         <v>44040</v>
       </c>
       <c r="B202" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C202" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F202">
         <v>180</v>
@@ -20732,16 +20732,16 @@
         <v>44040</v>
       </c>
       <c r="B203" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F203">
         <v>180</v>
@@ -20772,16 +20772,16 @@
         <v>44040</v>
       </c>
       <c r="B204" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C204" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F204">
         <v>180</v>
@@ -20812,16 +20812,16 @@
         <v>44040</v>
       </c>
       <c r="B205" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C205" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F205">
         <v>180</v>
@@ -20852,16 +20852,16 @@
         <v>44040</v>
       </c>
       <c r="B206" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C206" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D206">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F206">
         <v>180</v>
@@ -20892,16 +20892,16 @@
         <v>44040</v>
       </c>
       <c r="B207" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C207" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D207">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F207">
         <v>180</v>
@@ -20932,16 +20932,16 @@
         <v>44040</v>
       </c>
       <c r="B208" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C208" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D208">
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F208">
         <v>180</v>
@@ -20972,16 +20972,16 @@
         <v>44040</v>
       </c>
       <c r="B209" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C209" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D209">
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F209">
         <v>180</v>
@@ -21012,16 +21012,16 @@
         <v>43965</v>
       </c>
       <c r="B210" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C210" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D210">
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F210">
         <v>210</v>
@@ -21052,16 +21052,16 @@
         <v>43965</v>
       </c>
       <c r="B211" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C211" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D211">
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F211">
         <v>210</v>
@@ -21092,16 +21092,16 @@
         <v>43965</v>
       </c>
       <c r="B212" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C212" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F212">
         <v>210</v>
@@ -21132,16 +21132,16 @@
         <v>43965</v>
       </c>
       <c r="B213" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C213" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F213">
         <v>210</v>
@@ -21172,16 +21172,16 @@
         <v>43965</v>
       </c>
       <c r="B214" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C214" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D214">
         <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F214">
         <v>210</v>
@@ -21212,16 +21212,16 @@
         <v>43965</v>
       </c>
       <c r="B215" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C215" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D215">
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F215">
         <v>210</v>
@@ -21252,16 +21252,16 @@
         <v>43965</v>
       </c>
       <c r="B216" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C216" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D216">
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F216">
         <v>210</v>
@@ -21292,16 +21292,16 @@
         <v>43965</v>
       </c>
       <c r="B217" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C217" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D217">
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F217">
         <v>210</v>
@@ -21332,16 +21332,16 @@
         <v>44040</v>
       </c>
       <c r="B218" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C218" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D218">
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F218">
         <v>210</v>
@@ -21372,16 +21372,16 @@
         <v>44040</v>
       </c>
       <c r="B219" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C219" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D219">
         <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F219">
         <v>210</v>
@@ -21412,16 +21412,16 @@
         <v>44040</v>
       </c>
       <c r="B220" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C220" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D220">
         <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F220">
         <v>210</v>
@@ -21452,16 +21452,16 @@
         <v>44040</v>
       </c>
       <c r="B221" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C221" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D221">
         <v>2</v>
       </c>
       <c r="E221" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F221">
         <v>210</v>
@@ -21492,16 +21492,16 @@
         <v>44040</v>
       </c>
       <c r="B222" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C222" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D222">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F222">
         <v>210</v>
@@ -21532,16 +21532,16 @@
         <v>44040</v>
       </c>
       <c r="B223" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C223" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D223">
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F223">
         <v>210</v>
@@ -21572,16 +21572,16 @@
         <v>44040</v>
       </c>
       <c r="B224" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C224" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D224">
         <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F224">
         <v>210</v>
@@ -21612,16 +21612,16 @@
         <v>44040</v>
       </c>
       <c r="B225" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C225" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D225">
         <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F225">
         <v>210</v>
@@ -21652,16 +21652,16 @@
         <v>44040</v>
       </c>
       <c r="B226" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C226" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D226">
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F226">
         <v>240</v>
@@ -21692,16 +21692,16 @@
         <v>44040</v>
       </c>
       <c r="B227" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C227" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D227">
         <v>2</v>
       </c>
       <c r="E227" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F227">
         <v>240</v>
@@ -21732,16 +21732,16 @@
         <v>44040</v>
       </c>
       <c r="B228" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C228" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D228">
         <v>2</v>
       </c>
       <c r="E228" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F228">
         <v>240</v>
@@ -21772,16 +21772,16 @@
         <v>44040</v>
       </c>
       <c r="B229" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C229" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D229">
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F229">
         <v>240</v>
@@ -21812,16 +21812,16 @@
         <v>44040</v>
       </c>
       <c r="B230" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C230" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D230">
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F230">
         <v>240</v>
@@ -21852,16 +21852,16 @@
         <v>44040</v>
       </c>
       <c r="B231" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C231" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D231">
         <v>4</v>
       </c>
       <c r="E231" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F231">
         <v>240</v>
@@ -21892,16 +21892,16 @@
         <v>44040</v>
       </c>
       <c r="B232" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C232" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D232">
         <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F232">
         <v>240</v>
@@ -21932,16 +21932,16 @@
         <v>44040</v>
       </c>
       <c r="B233" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C233" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D233">
         <v>1</v>
       </c>
       <c r="E233" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F233">
         <v>240</v>
@@ -21970,16 +21970,16 @@
         <v>44040</v>
       </c>
       <c r="B234" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C234" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F234">
         <v>270</v>
@@ -22008,16 +22008,16 @@
         <v>44040</v>
       </c>
       <c r="B235" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C235" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F235">
         <v>270</v>
@@ -22046,16 +22046,16 @@
         <v>44040</v>
       </c>
       <c r="B236" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C236" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D236">
         <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F236">
         <v>270</v>
@@ -22084,16 +22084,16 @@
         <v>44040</v>
       </c>
       <c r="B237" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C237" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D237">
         <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F237">
         <v>270</v>
@@ -22122,16 +22122,16 @@
         <v>44040</v>
       </c>
       <c r="B238" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C238" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D238">
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F238">
         <v>270</v>
@@ -22160,16 +22160,16 @@
         <v>44040</v>
       </c>
       <c r="B239" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C239" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D239">
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F239">
         <v>270</v>
@@ -22198,16 +22198,16 @@
         <v>44040</v>
       </c>
       <c r="B240" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C240" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D240">
         <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F240">
         <v>270</v>
@@ -22236,16 +22236,16 @@
         <v>44040</v>
       </c>
       <c r="B241" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C241" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D241">
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F241">
         <v>270</v>
@@ -22274,16 +22274,16 @@
         <v>44040</v>
       </c>
       <c r="B242" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C242" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D242">
         <v>1</v>
       </c>
       <c r="E242" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F242">
         <v>300</v>
@@ -22312,16 +22312,16 @@
         <v>44040</v>
       </c>
       <c r="B243" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C243" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D243">
         <v>1</v>
       </c>
       <c r="E243" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F243">
         <v>300</v>
@@ -22350,16 +22350,16 @@
         <v>44040</v>
       </c>
       <c r="B244" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C244" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D244">
         <v>2</v>
       </c>
       <c r="E244" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F244">
         <v>300</v>
@@ -22388,16 +22388,16 @@
         <v>44040</v>
       </c>
       <c r="B245" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C245" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D245">
         <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F245">
         <v>300</v>
@@ -22426,16 +22426,16 @@
         <v>44040</v>
       </c>
       <c r="B246" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C246" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D246">
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F246">
         <v>300</v>
@@ -22464,16 +22464,16 @@
         <v>44040</v>
       </c>
       <c r="B247" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C247" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D247">
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F247">
         <v>300</v>
@@ -22502,16 +22502,16 @@
         <v>44040</v>
       </c>
       <c r="B248" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C248" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D248">
         <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F248">
         <v>300</v>
@@ -22540,16 +22540,16 @@
         <v>44040</v>
       </c>
       <c r="B249" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C249" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D249">
         <v>4</v>
       </c>
       <c r="E249" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F249">
         <v>300</v>
@@ -22578,16 +22578,16 @@
         <v>44040</v>
       </c>
       <c r="B250" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C250" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D250">
         <v>1</v>
       </c>
       <c r="E250" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F250">
         <v>330</v>
@@ -22616,16 +22616,16 @@
         <v>44040</v>
       </c>
       <c r="B251" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C251" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D251">
         <v>1</v>
       </c>
       <c r="E251" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F251">
         <v>330</v>
@@ -22654,16 +22654,16 @@
         <v>44040</v>
       </c>
       <c r="B252" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C252" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D252">
         <v>2</v>
       </c>
       <c r="E252" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F252">
         <v>330</v>
@@ -22692,16 +22692,16 @@
         <v>44040</v>
       </c>
       <c r="B253" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C253" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D253">
         <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F253">
         <v>330</v>
@@ -22730,16 +22730,16 @@
         <v>44040</v>
       </c>
       <c r="B254" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C254" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D254">
         <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F254">
         <v>330</v>
@@ -22768,16 +22768,16 @@
         <v>44040</v>
       </c>
       <c r="B255" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C255" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D255">
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F255">
         <v>330</v>
@@ -22806,16 +22806,16 @@
         <v>44040</v>
       </c>
       <c r="B256" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C256" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D256">
         <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F256">
         <v>330</v>
@@ -22844,16 +22844,16 @@
         <v>44040</v>
       </c>
       <c r="B257" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C257" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D257">
         <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F257">
         <v>360</v>
@@ -22882,16 +22882,16 @@
         <v>44040</v>
       </c>
       <c r="B258" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C258" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D258">
         <v>2</v>
       </c>
       <c r="E258" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F258">
         <v>360</v>
@@ -22920,16 +22920,16 @@
         <v>44040</v>
       </c>
       <c r="B259" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C259" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D259">
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F259">
         <v>360</v>
@@ -22958,16 +22958,16 @@
         <v>44040</v>
       </c>
       <c r="B260" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C260" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D260">
         <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F260">
         <v>360</v>
@@ -22996,16 +22996,16 @@
         <v>44040</v>
       </c>
       <c r="B261" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C261" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D261">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F261">
         <v>360</v>
@@ -23034,16 +23034,16 @@
         <v>44040</v>
       </c>
       <c r="B262" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C262" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D262">
         <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F262">
         <v>360</v>
@@ -23072,16 +23072,16 @@
         <v>44040</v>
       </c>
       <c r="B263" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C263" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D263">
         <v>4</v>
       </c>
       <c r="E263" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F263">
         <v>360</v>
@@ -23110,16 +23110,16 @@
         <v>44040</v>
       </c>
       <c r="B264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C264" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D264">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F264">
         <v>390</v>

--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF94681-7F75-4E3B-B0AD-FB19C7CDA591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A44D7B-4C1E-46B4-9FAF-B22C98B5DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{DC1A8874-CF5D-4DF3-B66F-7CA3C73D11F3}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DC1A8874-CF5D-4DF3-B66F-7CA3C73D11F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Cotton.Leaf.Areacm_m</t>
-  </si>
-  <si>
-    <t>Cotton.Leaf.SpecificArea</t>
   </si>
   <si>
     <t>Cotton.Leaf.Live.NConc</t>
@@ -712,6 +709,9 @@
   </si>
   <si>
     <t>Cotton.Boll.Wt</t>
+  </si>
+  <si>
+    <t>Cotton.Leaf.SpecificAreaCanopy</t>
   </si>
 </sst>
 </file>
@@ -5859,8 +5859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BBC4D-1054-4A81-B133-16FD0890ACC7}">
   <dimension ref="A1:FZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BG21" sqref="BG21"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6161,429 +6161,429 @@
         <v>41</v>
       </c>
       <c r="AQ1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CR1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CZ1" t="s">
         <v>191</v>
       </c>
-      <c r="CR1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CX1" t="s">
+      <c r="DA1" t="s">
+        <v>192</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DD1" t="s">
         <v>93</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DE1" t="s">
         <v>171</v>
       </c>
-      <c r="CZ1" t="s">
-        <v>192</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>193</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>194</v>
-      </c>
-      <c r="DC1" t="s">
+      <c r="DF1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>220</v>
+      </c>
+      <c r="DH1" t="s">
         <v>195</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DI1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DJ1" t="s">
         <v>94</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DK1" t="s">
         <v>172</v>
       </c>
-      <c r="DF1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>221</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>196</v>
-      </c>
-      <c r="DI1" t="s">
+      <c r="DL1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>208</v>
+      </c>
+      <c r="DN1" t="s">
         <v>197</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DO1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DP1" t="s">
         <v>95</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DQ1" t="s">
         <v>173</v>
       </c>
-      <c r="DL1" t="s">
-        <v>208</v>
-      </c>
-      <c r="DM1" t="s">
+      <c r="DR1" t="s">
         <v>209</v>
       </c>
-      <c r="DN1" t="s">
-        <v>198</v>
-      </c>
-      <c r="DO1" t="s">
+      <c r="DS1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DT1" t="s">
         <v>199</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DU1" t="s">
+        <v>200</v>
+      </c>
+      <c r="DV1" t="s">
         <v>96</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DW1" t="s">
         <v>174</v>
       </c>
-      <c r="DR1" t="s">
-        <v>210</v>
-      </c>
-      <c r="DS1" t="s">
+      <c r="DX1" t="s">
         <v>211</v>
       </c>
-      <c r="DT1" t="s">
-        <v>200</v>
-      </c>
-      <c r="DU1" t="s">
+      <c r="DY1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DZ1" t="s">
         <v>201</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="EA1" t="s">
+        <v>202</v>
+      </c>
+      <c r="EB1" t="s">
         <v>97</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="EC1" t="s">
         <v>175</v>
       </c>
-      <c r="DX1" t="s">
-        <v>212</v>
-      </c>
-      <c r="DY1" t="s">
+      <c r="ED1" t="s">
         <v>213</v>
       </c>
-      <c r="DZ1" t="s">
-        <v>202</v>
-      </c>
-      <c r="EA1" t="s">
+      <c r="EE1" t="s">
+        <v>214</v>
+      </c>
+      <c r="EF1" t="s">
         <v>203</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EG1" t="s">
+        <v>204</v>
+      </c>
+      <c r="EH1" t="s">
         <v>98</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EI1" t="s">
         <v>176</v>
       </c>
-      <c r="ED1" t="s">
-        <v>214</v>
-      </c>
-      <c r="EE1" t="s">
+      <c r="EJ1" t="s">
         <v>215</v>
       </c>
-      <c r="EF1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EG1" t="s">
+      <c r="EK1" t="s">
+        <v>216</v>
+      </c>
+      <c r="EL1" t="s">
         <v>205</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EM1" t="s">
+        <v>206</v>
+      </c>
+      <c r="EN1" t="s">
         <v>99</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EO1" t="s">
         <v>177</v>
       </c>
-      <c r="EJ1" t="s">
-        <v>216</v>
-      </c>
-      <c r="EK1" t="s">
+      <c r="EP1" t="s">
         <v>217</v>
       </c>
-      <c r="EL1" t="s">
-        <v>206</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>207</v>
-      </c>
-      <c r="EN1" t="s">
+      <c r="EQ1" t="s">
+        <v>218</v>
+      </c>
+      <c r="ER1" t="s">
         <v>100</v>
       </c>
-      <c r="EO1" t="s">
-        <v>178</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>218</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>219</v>
-      </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>101</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>102</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>103</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>104</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>105</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>106</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>107</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>108</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>109</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>110</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>111</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>112</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>113</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>114</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>115</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>116</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>117</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>118</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>119</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>120</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>121</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>122</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FO1" t="s">
         <v>123</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>124</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>125</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>126</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>127</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>128</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FU1" t="s">
         <v>129</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FV1" t="s">
         <v>130</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FW1" t="s">
         <v>131</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FX1" t="s">
         <v>132</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FY1" t="s">
         <v>133</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FZ1" t="s">
         <v>134</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
@@ -6593,16 +6593,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="6">
         <v>10.5</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="3" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
@@ -6799,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" s="6">
         <v>10.5</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="4" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
@@ -7096,7 +7096,7 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I4" s="6">
         <v>10.5</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="5" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
@@ -7297,7 +7297,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5" s="6">
         <v>10.5</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="6" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -7495,16 +7495,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="G6" s="2">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I6" s="6">
         <v>10.5</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="7" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
@@ -7775,7 +7775,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7" s="6">
         <v>10.5</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="8" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
@@ -7976,7 +7976,7 @@
         <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="6">
         <v>10.5</v>
@@ -8029,6 +8029,7 @@
       <c r="AO8" s="8"/>
       <c r="AP8" s="8"/>
       <c r="AQ8" s="10">
+        <f>AK8/AJ8</f>
         <v>2.2054977995110026E-2</v>
       </c>
       <c r="AR8" s="8"/>
@@ -8175,7 +8176,7 @@
     </row>
     <row r="9" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -8185,16 +8186,16 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G9" s="2">
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I9" s="6">
         <v>10.5</v>
@@ -8364,7 +8365,7 @@
     </row>
     <row r="10" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -8377,7 +8378,7 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" s="6">
         <v>10.5</v>
@@ -8430,6 +8431,7 @@
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
       <c r="AQ10" s="10">
+        <f>AK10/AJ10</f>
         <v>2.6321670235531846E-2</v>
       </c>
       <c r="AR10" s="8"/>
@@ -8579,7 +8581,7 @@
     </row>
     <row r="11" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -8592,7 +8594,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="6">
         <v>10.5</v>
@@ -8760,7 +8762,7 @@
     </row>
     <row r="12" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -8773,7 +8775,7 @@
         <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" s="6">
         <v>10.5</v>
@@ -8958,7 +8960,7 @@
     </row>
     <row r="13" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -8971,7 +8973,7 @@
         <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I13" s="6">
         <v>10.5</v>
@@ -9160,7 +9162,7 @@
     </row>
     <row r="14" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -9170,16 +9172,16 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
         <v>143</v>
-      </c>
-      <c r="F14" t="s">
-        <v>144</v>
       </c>
       <c r="G14" s="2">
         <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I14" s="6">
         <v>10.5</v>
@@ -9370,7 +9372,7 @@
     </row>
     <row r="15" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -9383,7 +9385,7 @@
         <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" s="6">
         <v>10.5</v>
@@ -9572,7 +9574,7 @@
     </row>
     <row r="16" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -9585,7 +9587,7 @@
         <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="6">
         <v>10.5</v>
@@ -9634,6 +9636,7 @@
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="10">
+        <f>AK16/AJ16</f>
         <v>2.061007540862898E-2</v>
       </c>
       <c r="AR16" s="8"/>
@@ -9808,7 +9811,7 @@
     </row>
     <row r="17" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -9821,7 +9824,7 @@
         <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="6">
         <v>10.5</v>
@@ -10138,7 +10141,7 @@
     </row>
     <row r="18" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -10148,16 +10151,16 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G18" s="2">
         <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" s="6">
         <v>10.5</v>
@@ -10343,7 +10346,7 @@
     </row>
     <row r="19" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -10356,7 +10359,7 @@
         <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I19" s="6">
         <v>10.5</v>
@@ -10405,6 +10408,7 @@
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
       <c r="AQ19" s="10">
+        <f>AK19/AJ19</f>
         <v>1.6445413283908802E-2</v>
       </c>
       <c r="AR19" s="8"/>
@@ -10573,7 +10577,7 @@
     </row>
     <row r="20" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -10583,16 +10587,16 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="G20" s="2">
         <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I20" s="6">
         <v>10.5</v>
@@ -10773,7 +10777,7 @@
     </row>
     <row r="21" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -10783,16 +10787,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="G21" s="2">
         <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I21" s="6">
         <v>10.5</v>
@@ -10989,7 +10993,7 @@
     </row>
     <row r="22" spans="1:182" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -11002,7 +11006,7 @@
         <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I22" s="6">
         <v>10.5</v>
@@ -11377,40 +11381,40 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>153</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
         <v>155</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" t="s">
         <v>180</v>
-      </c>
-      <c r="I1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.45">
@@ -11418,16 +11422,16 @@
         <v>43872</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -11453,46 +11457,46 @@
         <v>27.815742397137726</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" t="s">
         <v>165</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>166</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>167</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" t="s">
+        <v>182</v>
+      </c>
+      <c r="U2" t="s">
+        <v>183</v>
+      </c>
+      <c r="X2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="S2" t="s">
-        <v>182</v>
-      </c>
-      <c r="T2" t="s">
-        <v>183</v>
-      </c>
-      <c r="U2" t="s">
-        <v>184</v>
-      </c>
-      <c r="X2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
@@ -11500,16 +11504,16 @@
         <v>43872</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -11583,16 +11587,16 @@
         <v>43872</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -11661,16 +11665,16 @@
         <v>43872</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -11739,16 +11743,16 @@
         <v>43872</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -11817,16 +11821,16 @@
         <v>43872</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -11895,16 +11899,16 @@
         <v>43872</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -11973,16 +11977,16 @@
         <v>43872</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -12056,16 +12060,16 @@
         <v>43899</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -12134,16 +12138,16 @@
         <v>43899</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -12212,16 +12216,16 @@
         <v>43899</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -12290,16 +12294,16 @@
         <v>43899</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -12368,16 +12372,16 @@
         <v>43899</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -12446,16 +12450,16 @@
         <v>43899</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -12529,16 +12533,16 @@
         <v>43899</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -12607,16 +12611,16 @@
         <v>43899</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -12685,16 +12689,16 @@
         <v>43965</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -12763,16 +12767,16 @@
         <v>43965</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -12841,16 +12845,16 @@
         <v>43965</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -12919,16 +12923,16 @@
         <v>43965</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F21">
         <v>15</v>
@@ -12997,16 +13001,16 @@
         <v>43965</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -13075,16 +13079,16 @@
         <v>43965</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -13158,16 +13162,16 @@
         <v>43965</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24">
         <v>15</v>
@@ -13236,16 +13240,16 @@
         <v>43965</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25">
         <v>15</v>
@@ -13314,16 +13318,16 @@
         <v>44040</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F26">
         <v>15</v>
@@ -13392,16 +13396,16 @@
         <v>44040</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -13470,16 +13474,16 @@
         <v>44040</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28">
         <v>15</v>
@@ -13548,16 +13552,16 @@
         <v>44040</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F29">
         <v>15</v>
@@ -13626,16 +13630,16 @@
         <v>44040</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -13704,16 +13708,16 @@
         <v>44040</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -13782,16 +13786,16 @@
         <v>44040</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -13844,16 +13848,16 @@
         <v>44040</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F33">
         <v>15</v>
@@ -13906,16 +13910,16 @@
         <v>43872</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34">
         <v>30</v>
@@ -13968,16 +13972,16 @@
         <v>43872</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35">
         <v>30</v>
@@ -14030,16 +14034,16 @@
         <v>43872</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36">
         <v>30</v>
@@ -14092,16 +14096,16 @@
         <v>43872</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F37">
         <v>30</v>
@@ -14132,16 +14136,16 @@
         <v>43872</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38">
         <v>30</v>
@@ -14172,16 +14176,16 @@
         <v>43872</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F39">
         <v>30</v>
@@ -14212,16 +14216,16 @@
         <v>43872</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40">
         <v>30</v>
@@ -14252,16 +14256,16 @@
         <v>43872</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F41">
         <v>30</v>
@@ -14292,16 +14296,16 @@
         <v>43899</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F42">
         <v>30</v>
@@ -14332,16 +14336,16 @@
         <v>43899</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F43">
         <v>30</v>
@@ -14372,16 +14376,16 @@
         <v>43899</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F44">
         <v>30</v>
@@ -14412,16 +14416,16 @@
         <v>43899</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45">
         <v>30</v>
@@ -14452,16 +14456,16 @@
         <v>43899</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -14492,16 +14496,16 @@
         <v>43899</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F47">
         <v>30</v>
@@ -14532,16 +14536,16 @@
         <v>43899</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48">
         <v>30</v>
@@ -14572,16 +14576,16 @@
         <v>43899</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F49">
         <v>30</v>
@@ -14612,16 +14616,16 @@
         <v>43965</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F50">
         <v>30</v>
@@ -14652,16 +14656,16 @@
         <v>43965</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -14692,16 +14696,16 @@
         <v>43965</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F52">
         <v>30</v>
@@ -14732,16 +14736,16 @@
         <v>43965</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F53">
         <v>30</v>
@@ -14772,16 +14776,16 @@
         <v>43965</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54">
         <v>30</v>
@@ -14812,16 +14816,16 @@
         <v>43965</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F55">
         <v>30</v>
@@ -14852,16 +14856,16 @@
         <v>43965</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F56">
         <v>30</v>
@@ -14892,16 +14896,16 @@
         <v>43965</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F57">
         <v>30</v>
@@ -14932,16 +14936,16 @@
         <v>44040</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F58">
         <v>30</v>
@@ -14972,16 +14976,16 @@
         <v>44040</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F59">
         <v>30</v>
@@ -15012,16 +15016,16 @@
         <v>44040</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F60">
         <v>30</v>
@@ -15052,16 +15056,16 @@
         <v>44040</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F61">
         <v>30</v>
@@ -15092,16 +15096,16 @@
         <v>44040</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F62">
         <v>30</v>
@@ -15132,16 +15136,16 @@
         <v>44040</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F63">
         <v>30</v>
@@ -15172,16 +15176,16 @@
         <v>44040</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F64">
         <v>30</v>
@@ -15212,16 +15216,16 @@
         <v>44040</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F65">
         <v>30</v>
@@ -15252,16 +15256,16 @@
         <v>43872</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F66">
         <v>60</v>
@@ -15292,16 +15296,16 @@
         <v>43872</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F67">
         <v>60</v>
@@ -15332,16 +15336,16 @@
         <v>43872</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F68">
         <v>60</v>
@@ -15372,16 +15376,16 @@
         <v>43872</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F69">
         <v>60</v>
@@ -15412,16 +15416,16 @@
         <v>43872</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F70">
         <v>60</v>
@@ -15452,16 +15456,16 @@
         <v>43872</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F71">
         <v>60</v>
@@ -15492,16 +15496,16 @@
         <v>43872</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F72">
         <v>60</v>
@@ -15532,16 +15536,16 @@
         <v>43872</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F73">
         <v>60</v>
@@ -15572,16 +15576,16 @@
         <v>43899</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F74">
         <v>60</v>
@@ -15612,16 +15616,16 @@
         <v>43899</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F75">
         <v>60</v>
@@ -15652,16 +15656,16 @@
         <v>43899</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F76">
         <v>60</v>
@@ -15692,16 +15696,16 @@
         <v>43899</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F77">
         <v>60</v>
@@ -15732,16 +15736,16 @@
         <v>43899</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F78">
         <v>60</v>
@@ -15772,16 +15776,16 @@
         <v>43899</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F79">
         <v>60</v>
@@ -15812,16 +15816,16 @@
         <v>43899</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F80">
         <v>60</v>
@@ -15852,16 +15856,16 @@
         <v>43899</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F81">
         <v>60</v>
@@ -15892,16 +15896,16 @@
         <v>43965</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F82">
         <v>60</v>
@@ -15932,16 +15936,16 @@
         <v>43965</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F83">
         <v>60</v>
@@ -15972,16 +15976,16 @@
         <v>43965</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F84">
         <v>60</v>
@@ -16012,16 +16016,16 @@
         <v>43965</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F85">
         <v>60</v>
@@ -16052,16 +16056,16 @@
         <v>43965</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F86">
         <v>60</v>
@@ -16092,16 +16096,16 @@
         <v>43965</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F87">
         <v>60</v>
@@ -16132,16 +16136,16 @@
         <v>43965</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D88">
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F88">
         <v>60</v>
@@ -16172,16 +16176,16 @@
         <v>43965</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F89">
         <v>60</v>
@@ -16212,16 +16216,16 @@
         <v>44040</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F90">
         <v>60</v>
@@ -16252,16 +16256,16 @@
         <v>44040</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F91">
         <v>60</v>
@@ -16292,16 +16296,16 @@
         <v>44040</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F92">
         <v>60</v>
@@ -16332,16 +16336,16 @@
         <v>44040</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F93">
         <v>60</v>
@@ -16372,16 +16376,16 @@
         <v>44040</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F94">
         <v>60</v>
@@ -16412,16 +16416,16 @@
         <v>44040</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F95">
         <v>60</v>
@@ -16452,16 +16456,16 @@
         <v>44040</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F96">
         <v>60</v>
@@ -16492,16 +16496,16 @@
         <v>44040</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F97">
         <v>60</v>
@@ -16532,16 +16536,16 @@
         <v>43872</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F98">
         <v>90</v>
@@ -16572,16 +16576,16 @@
         <v>43872</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F99">
         <v>90</v>
@@ -16612,16 +16616,16 @@
         <v>43872</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F100">
         <v>90</v>
@@ -16652,16 +16656,16 @@
         <v>43872</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F101">
         <v>90</v>
@@ -16692,16 +16696,16 @@
         <v>43872</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F102">
         <v>90</v>
@@ -16732,16 +16736,16 @@
         <v>43872</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F103">
         <v>90</v>
@@ -16772,16 +16776,16 @@
         <v>43872</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D104">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F104">
         <v>90</v>
@@ -16812,16 +16816,16 @@
         <v>43872</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F105">
         <v>90</v>
@@ -16852,16 +16856,16 @@
         <v>43899</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F106">
         <v>90</v>
@@ -16892,16 +16896,16 @@
         <v>43899</v>
       </c>
       <c r="B107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F107">
         <v>90</v>
@@ -16932,16 +16936,16 @@
         <v>43899</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F108">
         <v>90</v>
@@ -16972,16 +16976,16 @@
         <v>43899</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F109">
         <v>90</v>
@@ -17012,16 +17016,16 @@
         <v>43899</v>
       </c>
       <c r="B110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F110">
         <v>90</v>
@@ -17052,16 +17056,16 @@
         <v>43899</v>
       </c>
       <c r="B111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F111">
         <v>90</v>
@@ -17092,16 +17096,16 @@
         <v>43899</v>
       </c>
       <c r="B112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F112">
         <v>90</v>
@@ -17132,16 +17136,16 @@
         <v>43899</v>
       </c>
       <c r="B113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F113">
         <v>90</v>
@@ -17172,16 +17176,16 @@
         <v>43965</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F114">
         <v>90</v>
@@ -17212,16 +17216,16 @@
         <v>43965</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F115">
         <v>90</v>
@@ -17252,16 +17256,16 @@
         <v>43965</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F116">
         <v>90</v>
@@ -17292,16 +17296,16 @@
         <v>43965</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F117">
         <v>90</v>
@@ -17332,16 +17336,16 @@
         <v>43965</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F118">
         <v>90</v>
@@ -17372,16 +17376,16 @@
         <v>43965</v>
       </c>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F119">
         <v>90</v>
@@ -17412,16 +17416,16 @@
         <v>43965</v>
       </c>
       <c r="B120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D120">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F120">
         <v>90</v>
@@ -17452,16 +17456,16 @@
         <v>43965</v>
       </c>
       <c r="B121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D121">
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F121">
         <v>90</v>
@@ -17492,16 +17496,16 @@
         <v>44040</v>
       </c>
       <c r="B122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F122">
         <v>90</v>
@@ -17532,16 +17536,16 @@
         <v>44040</v>
       </c>
       <c r="B123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F123">
         <v>90</v>
@@ -17572,16 +17576,16 @@
         <v>44040</v>
       </c>
       <c r="B124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F124">
         <v>90</v>
@@ -17612,16 +17616,16 @@
         <v>44040</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F125">
         <v>90</v>
@@ -17652,16 +17656,16 @@
         <v>44040</v>
       </c>
       <c r="B126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D126">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F126">
         <v>90</v>
@@ -17692,16 +17696,16 @@
         <v>44040</v>
       </c>
       <c r="B127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F127">
         <v>90</v>
@@ -17732,16 +17736,16 @@
         <v>44040</v>
       </c>
       <c r="B128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D128">
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F128">
         <v>90</v>
@@ -17772,16 +17776,16 @@
         <v>44040</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D129">
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F129">
         <v>90</v>
@@ -17812,16 +17816,16 @@
         <v>43872</v>
       </c>
       <c r="B130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F130">
         <v>120</v>
@@ -17852,16 +17856,16 @@
         <v>43872</v>
       </c>
       <c r="B131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F131">
         <v>120</v>
@@ -17892,16 +17896,16 @@
         <v>43872</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F132">
         <v>120</v>
@@ -17932,16 +17936,16 @@
         <v>43872</v>
       </c>
       <c r="B133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D133">
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F133">
         <v>120</v>
@@ -17972,16 +17976,16 @@
         <v>43872</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D134">
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F134">
         <v>120</v>
@@ -18012,16 +18016,16 @@
         <v>43872</v>
       </c>
       <c r="B135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F135">
         <v>120</v>
@@ -18052,16 +18056,16 @@
         <v>43872</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D136">
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F136">
         <v>120</v>
@@ -18092,16 +18096,16 @@
         <v>43872</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D137">
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F137">
         <v>120</v>
@@ -18132,16 +18136,16 @@
         <v>43899</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F138">
         <v>120</v>
@@ -18172,16 +18176,16 @@
         <v>43899</v>
       </c>
       <c r="B139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F139">
         <v>120</v>
@@ -18212,16 +18216,16 @@
         <v>43899</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D140">
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F140">
         <v>120</v>
@@ -18252,16 +18256,16 @@
         <v>43899</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F141">
         <v>120</v>
@@ -18292,16 +18296,16 @@
         <v>43899</v>
       </c>
       <c r="B142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D142">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F142">
         <v>120</v>
@@ -18332,16 +18336,16 @@
         <v>43899</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D143">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F143">
         <v>120</v>
@@ -18372,16 +18376,16 @@
         <v>43899</v>
       </c>
       <c r="B144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D144">
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F144">
         <v>120</v>
@@ -18412,16 +18416,16 @@
         <v>43899</v>
       </c>
       <c r="B145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D145">
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F145">
         <v>120</v>
@@ -18452,16 +18456,16 @@
         <v>43965</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F146">
         <v>120</v>
@@ -18492,16 +18496,16 @@
         <v>43965</v>
       </c>
       <c r="B147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F147">
         <v>120</v>
@@ -18532,16 +18536,16 @@
         <v>43965</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C148" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D148">
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F148">
         <v>120</v>
@@ -18572,16 +18576,16 @@
         <v>43965</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D149">
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F149">
         <v>120</v>
@@ -18612,16 +18616,16 @@
         <v>43965</v>
       </c>
       <c r="B150" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F150">
         <v>120</v>
@@ -18652,16 +18656,16 @@
         <v>43965</v>
       </c>
       <c r="B151" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C151" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D151">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F151">
         <v>120</v>
@@ -18692,16 +18696,16 @@
         <v>43965</v>
       </c>
       <c r="B152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D152">
         <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F152">
         <v>120</v>
@@ -18732,16 +18736,16 @@
         <v>43965</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D153">
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F153">
         <v>120</v>
@@ -18772,16 +18776,16 @@
         <v>44040</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F154">
         <v>120</v>
@@ -18812,16 +18816,16 @@
         <v>44040</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F155">
         <v>120</v>
@@ -18852,16 +18856,16 @@
         <v>44040</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F156">
         <v>120</v>
@@ -18892,16 +18896,16 @@
         <v>44040</v>
       </c>
       <c r="B157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F157">
         <v>120</v>
@@ -18932,16 +18936,16 @@
         <v>44040</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F158">
         <v>120</v>
@@ -18972,16 +18976,16 @@
         <v>44040</v>
       </c>
       <c r="B159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D159">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F159">
         <v>120</v>
@@ -19012,16 +19016,16 @@
         <v>44040</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D160">
         <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F160">
         <v>120</v>
@@ -19052,16 +19056,16 @@
         <v>44040</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161">
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F161">
         <v>120</v>
@@ -19092,16 +19096,16 @@
         <v>43872</v>
       </c>
       <c r="B162" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F162">
         <v>150</v>
@@ -19132,16 +19136,16 @@
         <v>43872</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C163" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F163">
         <v>150</v>
@@ -19172,16 +19176,16 @@
         <v>43872</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F164">
         <v>150</v>
@@ -19212,16 +19216,16 @@
         <v>43872</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D165">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F165">
         <v>150</v>
@@ -19252,16 +19256,16 @@
         <v>43872</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D166">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F166">
         <v>150</v>
@@ -19292,16 +19296,16 @@
         <v>43872</v>
       </c>
       <c r="B167" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D167">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F167">
         <v>150</v>
@@ -19332,16 +19336,16 @@
         <v>43872</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D168">
         <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F168">
         <v>150</v>
@@ -19372,16 +19376,16 @@
         <v>43872</v>
       </c>
       <c r="B169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D169">
         <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F169">
         <v>150</v>
@@ -19412,16 +19416,16 @@
         <v>43899</v>
       </c>
       <c r="B170" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F170">
         <v>150</v>
@@ -19452,16 +19456,16 @@
         <v>43899</v>
       </c>
       <c r="B171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C171" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F171">
         <v>150</v>
@@ -19492,16 +19496,16 @@
         <v>43899</v>
       </c>
       <c r="B172" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F172">
         <v>150</v>
@@ -19532,16 +19536,16 @@
         <v>43899</v>
       </c>
       <c r="B173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C173" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F173">
         <v>150</v>
@@ -19572,16 +19576,16 @@
         <v>43899</v>
       </c>
       <c r="B174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C174" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F174">
         <v>150</v>
@@ -19612,16 +19616,16 @@
         <v>43899</v>
       </c>
       <c r="B175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C175" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F175">
         <v>150</v>
@@ -19652,16 +19656,16 @@
         <v>43899</v>
       </c>
       <c r="B176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C176" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D176">
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F176">
         <v>150</v>
@@ -19692,16 +19696,16 @@
         <v>43899</v>
       </c>
       <c r="B177" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C177" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D177">
         <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F177">
         <v>150</v>
@@ -19732,16 +19736,16 @@
         <v>43965</v>
       </c>
       <c r="B178" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C178" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F178">
         <v>150</v>
@@ -19772,16 +19776,16 @@
         <v>43965</v>
       </c>
       <c r="B179" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C179" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F179">
         <v>150</v>
@@ -19812,16 +19816,16 @@
         <v>43965</v>
       </c>
       <c r="B180" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C180" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D180">
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F180">
         <v>150</v>
@@ -19852,16 +19856,16 @@
         <v>43965</v>
       </c>
       <c r="B181" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C181" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D181">
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F181">
         <v>150</v>
@@ -19892,16 +19896,16 @@
         <v>43965</v>
       </c>
       <c r="B182" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C182" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F182">
         <v>150</v>
@@ -19932,16 +19936,16 @@
         <v>43965</v>
       </c>
       <c r="B183" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C183" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F183">
         <v>150</v>
@@ -19972,16 +19976,16 @@
         <v>43965</v>
       </c>
       <c r="B184" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C184" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D184">
         <v>4</v>
       </c>
       <c r="E184" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F184">
         <v>150</v>
@@ -20012,16 +20016,16 @@
         <v>43965</v>
       </c>
       <c r="B185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D185">
         <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F185">
         <v>150</v>
@@ -20052,16 +20056,16 @@
         <v>44040</v>
       </c>
       <c r="B186" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C186" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F186">
         <v>150</v>
@@ -20092,16 +20096,16 @@
         <v>44040</v>
       </c>
       <c r="B187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F187">
         <v>150</v>
@@ -20132,16 +20136,16 @@
         <v>44040</v>
       </c>
       <c r="B188" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C188" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D188">
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F188">
         <v>150</v>
@@ -20172,16 +20176,16 @@
         <v>44040</v>
       </c>
       <c r="B189" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C189" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F189">
         <v>150</v>
@@ -20212,16 +20216,16 @@
         <v>44040</v>
       </c>
       <c r="B190" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C190" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F190">
         <v>150</v>
@@ -20252,16 +20256,16 @@
         <v>44040</v>
       </c>
       <c r="B191" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D191">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F191">
         <v>150</v>
@@ -20292,16 +20296,16 @@
         <v>44040</v>
       </c>
       <c r="B192" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C192" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D192">
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F192">
         <v>150</v>
@@ -20332,16 +20336,16 @@
         <v>44040</v>
       </c>
       <c r="B193" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C193" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D193">
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F193">
         <v>150</v>
@@ -20372,16 +20376,16 @@
         <v>43965</v>
       </c>
       <c r="B194" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C194" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F194">
         <v>180</v>
@@ -20412,16 +20416,16 @@
         <v>43965</v>
       </c>
       <c r="B195" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C195" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F195">
         <v>180</v>
@@ -20452,16 +20456,16 @@
         <v>43965</v>
       </c>
       <c r="B196" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C196" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D196">
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F196">
         <v>180</v>
@@ -20492,16 +20496,16 @@
         <v>43965</v>
       </c>
       <c r="B197" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C197" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D197">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F197">
         <v>180</v>
@@ -20532,16 +20536,16 @@
         <v>43965</v>
       </c>
       <c r="B198" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C198" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D198">
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F198">
         <v>180</v>
@@ -20572,16 +20576,16 @@
         <v>43965</v>
       </c>
       <c r="B199" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D199">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F199">
         <v>180</v>
@@ -20612,16 +20616,16 @@
         <v>43965</v>
       </c>
       <c r="B200" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C200" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D200">
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F200">
         <v>180</v>
@@ -20652,16 +20656,16 @@
         <v>43965</v>
       </c>
       <c r="B201" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C201" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D201">
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F201">
         <v>180</v>
@@ -20692,16 +20696,16 @@
         <v>44040</v>
       </c>
       <c r="B202" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C202" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F202">
         <v>180</v>
@@ -20732,16 +20736,16 @@
         <v>44040</v>
       </c>
       <c r="B203" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C203" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F203">
         <v>180</v>
@@ -20772,16 +20776,16 @@
         <v>44040</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F204">
         <v>180</v>
@@ -20812,16 +20816,16 @@
         <v>44040</v>
       </c>
       <c r="B205" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C205" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F205">
         <v>180</v>
@@ -20852,16 +20856,16 @@
         <v>44040</v>
       </c>
       <c r="B206" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C206" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D206">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F206">
         <v>180</v>
@@ -20892,16 +20896,16 @@
         <v>44040</v>
       </c>
       <c r="B207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C207" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D207">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F207">
         <v>180</v>
@@ -20932,16 +20936,16 @@
         <v>44040</v>
       </c>
       <c r="B208" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C208" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D208">
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F208">
         <v>180</v>
@@ -20972,16 +20976,16 @@
         <v>44040</v>
       </c>
       <c r="B209" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C209" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D209">
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F209">
         <v>180</v>
@@ -21012,16 +21016,16 @@
         <v>43965</v>
       </c>
       <c r="B210" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C210" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D210">
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F210">
         <v>210</v>
@@ -21052,16 +21056,16 @@
         <v>43965</v>
       </c>
       <c r="B211" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C211" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D211">
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F211">
         <v>210</v>
@@ -21092,16 +21096,16 @@
         <v>43965</v>
       </c>
       <c r="B212" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C212" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F212">
         <v>210</v>
@@ -21132,16 +21136,16 @@
         <v>43965</v>
       </c>
       <c r="B213" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C213" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F213">
         <v>210</v>
@@ -21172,16 +21176,16 @@
         <v>43965</v>
       </c>
       <c r="B214" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C214" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D214">
         <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F214">
         <v>210</v>
@@ -21212,16 +21216,16 @@
         <v>43965</v>
       </c>
       <c r="B215" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C215" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D215">
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F215">
         <v>210</v>
@@ -21252,16 +21256,16 @@
         <v>43965</v>
       </c>
       <c r="B216" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C216" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D216">
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F216">
         <v>210</v>
@@ -21292,16 +21296,16 @@
         <v>43965</v>
       </c>
       <c r="B217" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C217" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D217">
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F217">
         <v>210</v>
@@ -21332,16 +21336,16 @@
         <v>44040</v>
       </c>
       <c r="B218" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C218" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D218">
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F218">
         <v>210</v>
@@ -21372,16 +21376,16 @@
         <v>44040</v>
       </c>
       <c r="B219" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C219" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D219">
         <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F219">
         <v>210</v>
@@ -21412,16 +21416,16 @@
         <v>44040</v>
       </c>
       <c r="B220" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C220" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D220">
         <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F220">
         <v>210</v>
@@ -21452,16 +21456,16 @@
         <v>44040</v>
       </c>
       <c r="B221" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C221" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D221">
         <v>2</v>
       </c>
       <c r="E221" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F221">
         <v>210</v>
@@ -21492,16 +21496,16 @@
         <v>44040</v>
       </c>
       <c r="B222" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C222" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D222">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F222">
         <v>210</v>
@@ -21532,16 +21536,16 @@
         <v>44040</v>
       </c>
       <c r="B223" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C223" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D223">
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F223">
         <v>210</v>
@@ -21572,16 +21576,16 @@
         <v>44040</v>
       </c>
       <c r="B224" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C224" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D224">
         <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F224">
         <v>210</v>
@@ -21612,16 +21616,16 @@
         <v>44040</v>
       </c>
       <c r="B225" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C225" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D225">
         <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F225">
         <v>210</v>
@@ -21652,16 +21656,16 @@
         <v>44040</v>
       </c>
       <c r="B226" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C226" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D226">
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F226">
         <v>240</v>
@@ -21692,16 +21696,16 @@
         <v>44040</v>
       </c>
       <c r="B227" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C227" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D227">
         <v>2</v>
       </c>
       <c r="E227" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F227">
         <v>240</v>
@@ -21732,16 +21736,16 @@
         <v>44040</v>
       </c>
       <c r="B228" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C228" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D228">
         <v>2</v>
       </c>
       <c r="E228" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F228">
         <v>240</v>
@@ -21772,16 +21776,16 @@
         <v>44040</v>
       </c>
       <c r="B229" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C229" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D229">
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F229">
         <v>240</v>
@@ -21812,16 +21816,16 @@
         <v>44040</v>
       </c>
       <c r="B230" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C230" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D230">
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F230">
         <v>240</v>
@@ -21852,16 +21856,16 @@
         <v>44040</v>
       </c>
       <c r="B231" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C231" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D231">
         <v>4</v>
       </c>
       <c r="E231" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F231">
         <v>240</v>
@@ -21892,16 +21896,16 @@
         <v>44040</v>
       </c>
       <c r="B232" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C232" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D232">
         <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F232">
         <v>240</v>
@@ -21932,16 +21936,16 @@
         <v>44040</v>
       </c>
       <c r="B233" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C233" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D233">
         <v>1</v>
       </c>
       <c r="E233" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F233">
         <v>240</v>
@@ -21970,16 +21974,16 @@
         <v>44040</v>
       </c>
       <c r="B234" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C234" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F234">
         <v>270</v>
@@ -22008,16 +22012,16 @@
         <v>44040</v>
       </c>
       <c r="B235" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C235" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F235">
         <v>270</v>
@@ -22046,16 +22050,16 @@
         <v>44040</v>
       </c>
       <c r="B236" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D236">
         <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F236">
         <v>270</v>
@@ -22084,16 +22088,16 @@
         <v>44040</v>
       </c>
       <c r="B237" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C237" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D237">
         <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F237">
         <v>270</v>
@@ -22122,16 +22126,16 @@
         <v>44040</v>
       </c>
       <c r="B238" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C238" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D238">
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F238">
         <v>270</v>
@@ -22160,16 +22164,16 @@
         <v>44040</v>
       </c>
       <c r="B239" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C239" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D239">
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F239">
         <v>270</v>
@@ -22198,16 +22202,16 @@
         <v>44040</v>
       </c>
       <c r="B240" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C240" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D240">
         <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F240">
         <v>270</v>
@@ -22236,16 +22240,16 @@
         <v>44040</v>
       </c>
       <c r="B241" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C241" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D241">
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F241">
         <v>270</v>
@@ -22274,16 +22278,16 @@
         <v>44040</v>
       </c>
       <c r="B242" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D242">
         <v>1</v>
       </c>
       <c r="E242" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F242">
         <v>300</v>
@@ -22312,16 +22316,16 @@
         <v>44040</v>
       </c>
       <c r="B243" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C243" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D243">
         <v>1</v>
       </c>
       <c r="E243" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F243">
         <v>300</v>
@@ -22350,16 +22354,16 @@
         <v>44040</v>
       </c>
       <c r="B244" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C244" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D244">
         <v>2</v>
       </c>
       <c r="E244" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F244">
         <v>300</v>
@@ -22388,16 +22392,16 @@
         <v>44040</v>
       </c>
       <c r="B245" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C245" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D245">
         <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F245">
         <v>300</v>
@@ -22426,16 +22430,16 @@
         <v>44040</v>
       </c>
       <c r="B246" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C246" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D246">
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F246">
         <v>300</v>
@@ -22464,16 +22468,16 @@
         <v>44040</v>
       </c>
       <c r="B247" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C247" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D247">
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F247">
         <v>300</v>
@@ -22502,16 +22506,16 @@
         <v>44040</v>
       </c>
       <c r="B248" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C248" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D248">
         <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F248">
         <v>300</v>
@@ -22540,16 +22544,16 @@
         <v>44040</v>
       </c>
       <c r="B249" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C249" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D249">
         <v>4</v>
       </c>
       <c r="E249" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F249">
         <v>300</v>
@@ -22578,16 +22582,16 @@
         <v>44040</v>
       </c>
       <c r="B250" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C250" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D250">
         <v>1</v>
       </c>
       <c r="E250" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F250">
         <v>330</v>
@@ -22616,16 +22620,16 @@
         <v>44040</v>
       </c>
       <c r="B251" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C251" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D251">
         <v>1</v>
       </c>
       <c r="E251" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F251">
         <v>330</v>
@@ -22654,16 +22658,16 @@
         <v>44040</v>
       </c>
       <c r="B252" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C252" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D252">
         <v>2</v>
       </c>
       <c r="E252" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F252">
         <v>330</v>
@@ -22692,16 +22696,16 @@
         <v>44040</v>
       </c>
       <c r="B253" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C253" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D253">
         <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F253">
         <v>330</v>
@@ -22730,16 +22734,16 @@
         <v>44040</v>
       </c>
       <c r="B254" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C254" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D254">
         <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F254">
         <v>330</v>
@@ -22768,16 +22772,16 @@
         <v>44040</v>
       </c>
       <c r="B255" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C255" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D255">
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F255">
         <v>330</v>
@@ -22806,16 +22810,16 @@
         <v>44040</v>
       </c>
       <c r="B256" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C256" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D256">
         <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F256">
         <v>330</v>
@@ -22844,16 +22848,16 @@
         <v>44040</v>
       </c>
       <c r="B257" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C257" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D257">
         <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F257">
         <v>360</v>
@@ -22882,16 +22886,16 @@
         <v>44040</v>
       </c>
       <c r="B258" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C258" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D258">
         <v>2</v>
       </c>
       <c r="E258" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F258">
         <v>360</v>
@@ -22920,16 +22924,16 @@
         <v>44040</v>
       </c>
       <c r="B259" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C259" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D259">
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F259">
         <v>360</v>
@@ -22958,16 +22962,16 @@
         <v>44040</v>
       </c>
       <c r="B260" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C260" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D260">
         <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F260">
         <v>360</v>
@@ -22996,16 +23000,16 @@
         <v>44040</v>
       </c>
       <c r="B261" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C261" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D261">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F261">
         <v>360</v>
@@ -23034,16 +23038,16 @@
         <v>44040</v>
       </c>
       <c r="B262" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C262" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D262">
         <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F262">
         <v>360</v>
@@ -23072,16 +23076,16 @@
         <v>44040</v>
       </c>
       <c r="B263" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C263" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D263">
         <v>4</v>
       </c>
       <c r="E263" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F263">
         <v>360</v>
@@ -23110,16 +23114,16 @@
         <v>44040</v>
       </c>
       <c r="B264" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C264" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D264">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F264">
         <v>390</v>

--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A44D7B-4C1E-46B4-9FAF-B22C98B5DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA7AEC8-97F2-4C05-9153-E7C2AD0EC49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DC1A8874-CF5D-4DF3-B66F-7CA3C73D11F3}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{DC1A8874-CF5D-4DF3-B66F-7CA3C73D11F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -5859,181 +5859,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BBC4D-1054-4A81-B133-16FD0890ACC7}">
   <dimension ref="A1:FZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.73046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.1328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="26" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="30" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="21" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="6" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="9" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="29.1328125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="7" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="4.265625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="14" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="14" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="14" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="14" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="14" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="14" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="14" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="14" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="14" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="166" max="173" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="3.59765625" bestFit="1" customWidth="1"/>
-    <col min="175" max="182" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="166" max="173" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="175" max="182" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6581,7 +6579,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>184</v>
       </c>
@@ -6619,12 +6617,24 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="R2" s="7">
+        <v>32</v>
+      </c>
+      <c r="S2" s="4">
+        <v>48</v>
+      </c>
+      <c r="T2" s="7">
+        <v>83</v>
+      </c>
+      <c r="U2" s="4">
+        <v>111</v>
+      </c>
+      <c r="V2" s="4">
+        <v>141</v>
+      </c>
+      <c r="W2" s="7">
+        <v>160</v>
+      </c>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
@@ -6784,7 +6794,7 @@
       <c r="FY2" s="8"/>
       <c r="FZ2" s="8"/>
     </row>
-    <row r="3" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>184</v>
       </c>
@@ -6816,12 +6826,24 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="R3" s="7">
+        <v>32</v>
+      </c>
+      <c r="S3" s="4">
+        <v>48</v>
+      </c>
+      <c r="T3" s="7">
+        <v>83</v>
+      </c>
+      <c r="U3" s="4">
+        <v>111</v>
+      </c>
+      <c r="V3" s="4">
+        <v>141</v>
+      </c>
+      <c r="W3" s="7">
+        <v>160</v>
+      </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
@@ -7081,7 +7103,7 @@
       <c r="FY3" s="8"/>
       <c r="FZ3" s="8"/>
     </row>
-    <row r="4" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>184</v>
       </c>
@@ -7117,12 +7139,24 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="R4" s="7">
+        <v>32</v>
+      </c>
+      <c r="S4" s="4">
+        <v>48</v>
+      </c>
+      <c r="T4" s="7">
+        <v>83</v>
+      </c>
+      <c r="U4" s="4">
+        <v>111</v>
+      </c>
+      <c r="V4" s="4">
+        <v>141</v>
+      </c>
+      <c r="W4" s="7">
+        <v>160</v>
+      </c>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
@@ -7282,7 +7316,7 @@
       <c r="FY4" s="8"/>
       <c r="FZ4" s="8"/>
     </row>
-    <row r="5" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>184</v>
       </c>
@@ -7318,12 +7352,24 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
+      <c r="R5" s="7">
+        <v>32</v>
+      </c>
+      <c r="S5" s="4">
+        <v>48</v>
+      </c>
+      <c r="T5" s="7">
+        <v>83</v>
+      </c>
+      <c r="U5" s="4">
+        <v>111</v>
+      </c>
+      <c r="V5" s="4">
+        <v>141</v>
+      </c>
+      <c r="W5" s="7">
+        <v>160</v>
+      </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -7483,7 +7529,7 @@
       <c r="FY5" s="8"/>
       <c r="FZ5" s="8"/>
     </row>
-    <row r="6" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>184</v>
       </c>
@@ -7524,11 +7570,21 @@
       <c r="R6" s="7">
         <v>32</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="S6" s="4">
+        <v>48</v>
+      </c>
+      <c r="T6" s="7">
+        <v>83</v>
+      </c>
+      <c r="U6" s="4">
+        <v>111</v>
+      </c>
+      <c r="V6" s="4">
+        <v>141</v>
+      </c>
+      <c r="W6" s="7">
+        <v>160</v>
+      </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -7760,7 +7816,7 @@
       <c r="FY6" s="8"/>
       <c r="FZ6" s="8"/>
     </row>
-    <row r="7" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
@@ -7796,12 +7852,24 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="R7" s="7">
+        <v>32</v>
+      </c>
+      <c r="S7" s="4">
+        <v>48</v>
+      </c>
+      <c r="T7" s="7">
+        <v>83</v>
+      </c>
+      <c r="U7" s="4">
+        <v>111</v>
+      </c>
+      <c r="V7" s="4">
+        <v>141</v>
+      </c>
+      <c r="W7" s="7">
+        <v>160</v>
+      </c>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -7961,7 +8029,7 @@
       <c r="FY7" s="8"/>
       <c r="FZ7" s="8"/>
     </row>
-    <row r="8" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>184</v>
       </c>
@@ -7997,12 +8065,24 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="R8" s="7">
+        <v>32</v>
+      </c>
+      <c r="S8" s="4">
+        <v>48</v>
+      </c>
+      <c r="T8" s="7">
+        <v>83</v>
+      </c>
+      <c r="U8" s="4">
+        <v>111</v>
+      </c>
+      <c r="V8" s="4">
+        <v>141</v>
+      </c>
+      <c r="W8" s="7">
+        <v>160</v>
+      </c>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -8174,7 +8254,7 @@
       <c r="FY8" s="8"/>
       <c r="FZ8" s="8"/>
     </row>
-    <row r="9" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>184</v>
       </c>
@@ -8216,14 +8296,24 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="7">
+        <v>32</v>
+      </c>
       <c r="S9" s="4">
         <v>48</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="T9" s="7">
+        <v>83</v>
+      </c>
+      <c r="U9" s="4">
+        <v>111</v>
+      </c>
+      <c r="V9" s="4">
+        <v>141</v>
+      </c>
+      <c r="W9" s="7">
+        <v>160</v>
+      </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -8363,7 +8453,7 @@
       <c r="FY9" s="8"/>
       <c r="FZ9" s="8"/>
     </row>
-    <row r="10" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>184</v>
       </c>
@@ -8399,12 +8489,24 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
+      <c r="R10" s="7">
+        <v>32</v>
+      </c>
+      <c r="S10" s="4">
+        <v>48</v>
+      </c>
+      <c r="T10" s="7">
+        <v>83</v>
+      </c>
+      <c r="U10" s="4">
+        <v>111</v>
+      </c>
+      <c r="V10" s="4">
+        <v>141</v>
+      </c>
+      <c r="W10" s="7">
+        <v>160</v>
+      </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -8579,7 +8681,7 @@
       <c r="FY10" s="8"/>
       <c r="FZ10" s="8"/>
     </row>
-    <row r="11" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>184</v>
       </c>
@@ -8615,12 +8717,24 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="R11" s="7">
+        <v>32</v>
+      </c>
+      <c r="S11" s="4">
+        <v>48</v>
+      </c>
+      <c r="T11" s="7">
+        <v>83</v>
+      </c>
+      <c r="U11" s="4">
+        <v>111</v>
+      </c>
+      <c r="V11" s="4">
+        <v>141</v>
+      </c>
+      <c r="W11" s="7">
+        <v>160</v>
+      </c>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -8760,7 +8874,7 @@
       <c r="FY11" s="8"/>
       <c r="FZ11" s="8"/>
     </row>
-    <row r="12" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>184</v>
       </c>
@@ -8796,12 +8910,24 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="R12" s="7">
+        <v>32</v>
+      </c>
+      <c r="S12" s="4">
+        <v>48</v>
+      </c>
+      <c r="T12" s="7">
+        <v>83</v>
+      </c>
+      <c r="U12" s="4">
+        <v>111</v>
+      </c>
+      <c r="V12" s="4">
+        <v>141</v>
+      </c>
+      <c r="W12" s="7">
+        <v>160</v>
+      </c>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
@@ -8958,7 +9084,7 @@
       <c r="FY12" s="8"/>
       <c r="FZ12" s="8"/>
     </row>
-    <row r="13" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>184</v>
       </c>
@@ -8994,12 +9120,24 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
+      <c r="R13" s="7">
+        <v>32</v>
+      </c>
+      <c r="S13" s="4">
+        <v>48</v>
+      </c>
+      <c r="T13" s="7">
+        <v>83</v>
+      </c>
+      <c r="U13" s="4">
+        <v>111</v>
+      </c>
+      <c r="V13" s="4">
+        <v>141</v>
+      </c>
+      <c r="W13" s="7">
+        <v>160</v>
+      </c>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
@@ -9160,7 +9298,7 @@
       <c r="FY13" s="8"/>
       <c r="FZ13" s="8"/>
     </row>
-    <row r="14" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>184</v>
       </c>
@@ -9202,14 +9340,24 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="R14" s="7">
+        <v>32</v>
+      </c>
+      <c r="S14" s="4">
+        <v>48</v>
+      </c>
       <c r="T14" s="7">
         <v>83</v>
       </c>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="U14" s="4">
+        <v>111</v>
+      </c>
+      <c r="V14" s="4">
+        <v>141</v>
+      </c>
+      <c r="W14" s="7">
+        <v>160</v>
+      </c>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
@@ -9370,7 +9518,7 @@
       <c r="FY14" s="8"/>
       <c r="FZ14" s="8"/>
     </row>
-    <row r="15" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>184</v>
       </c>
@@ -9406,12 +9554,24 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="R15" s="7">
+        <v>32</v>
+      </c>
+      <c r="S15" s="4">
+        <v>48</v>
+      </c>
+      <c r="T15" s="7">
+        <v>83</v>
+      </c>
+      <c r="U15" s="4">
+        <v>111</v>
+      </c>
+      <c r="V15" s="4">
+        <v>141</v>
+      </c>
+      <c r="W15" s="7">
+        <v>160</v>
+      </c>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
@@ -9572,7 +9732,7 @@
       <c r="FY15" s="8"/>
       <c r="FZ15" s="8"/>
     </row>
-    <row r="16" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>184</v>
       </c>
@@ -9604,12 +9764,24 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+      <c r="R16" s="7">
+        <v>32</v>
+      </c>
+      <c r="S16" s="4">
+        <v>48</v>
+      </c>
+      <c r="T16" s="7">
+        <v>83</v>
+      </c>
+      <c r="U16" s="4">
+        <v>111</v>
+      </c>
+      <c r="V16" s="4">
+        <v>141</v>
+      </c>
+      <c r="W16" s="7">
+        <v>160</v>
+      </c>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -9809,7 +9981,7 @@
       <c r="FY16" s="8"/>
       <c r="FZ16" s="8"/>
     </row>
-    <row r="17" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>184</v>
       </c>
@@ -9841,12 +10013,24 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
+      <c r="R17" s="7">
+        <v>32</v>
+      </c>
+      <c r="S17" s="4">
+        <v>48</v>
+      </c>
+      <c r="T17" s="7">
+        <v>83</v>
+      </c>
+      <c r="U17" s="4">
+        <v>111</v>
+      </c>
+      <c r="V17" s="4">
+        <v>141</v>
+      </c>
+      <c r="W17" s="7">
+        <v>160</v>
+      </c>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
@@ -10139,7 +10323,7 @@
       <c r="FY17" s="8"/>
       <c r="FZ17" s="8"/>
     </row>
-    <row r="18" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>184</v>
       </c>
@@ -10177,14 +10361,24 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
+      <c r="R18" s="7">
+        <v>32</v>
+      </c>
+      <c r="S18" s="4">
+        <v>48</v>
+      </c>
+      <c r="T18" s="7">
+        <v>83</v>
+      </c>
       <c r="U18" s="4">
         <v>111</v>
       </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
+      <c r="V18" s="4">
+        <v>141</v>
+      </c>
+      <c r="W18" s="7">
+        <v>160</v>
+      </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -10344,7 +10538,7 @@
       <c r="FY18" s="8"/>
       <c r="FZ18" s="8"/>
     </row>
-    <row r="19" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>184</v>
       </c>
@@ -10376,12 +10570,24 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
+      <c r="R19" s="7">
+        <v>32</v>
+      </c>
+      <c r="S19" s="4">
+        <v>48</v>
+      </c>
+      <c r="T19" s="7">
+        <v>83</v>
+      </c>
+      <c r="U19" s="4">
+        <v>111</v>
+      </c>
+      <c r="V19" s="4">
+        <v>141</v>
+      </c>
+      <c r="W19" s="7">
+        <v>160</v>
+      </c>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -10575,7 +10781,7 @@
       <c r="FY19" s="8"/>
       <c r="FZ19" s="8"/>
     </row>
-    <row r="20" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>184</v>
       </c>
@@ -10613,14 +10819,24 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="R20" s="7">
+        <v>32</v>
+      </c>
+      <c r="S20" s="4">
+        <v>48</v>
+      </c>
+      <c r="T20" s="7">
+        <v>83</v>
+      </c>
+      <c r="U20" s="4">
+        <v>111</v>
+      </c>
       <c r="V20" s="4">
         <v>141</v>
       </c>
-      <c r="W20" s="4"/>
+      <c r="W20" s="7">
+        <v>160</v>
+      </c>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -10775,7 +10991,7 @@
       <c r="FY20" s="8"/>
       <c r="FZ20" s="8"/>
     </row>
-    <row r="21" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>184</v>
       </c>
@@ -10813,12 +11029,24 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
+      <c r="R21" s="7">
+        <v>32</v>
+      </c>
+      <c r="S21" s="4">
+        <v>48</v>
+      </c>
+      <c r="T21" s="7">
+        <v>83</v>
+      </c>
+      <c r="U21" s="4">
+        <v>111</v>
+      </c>
+      <c r="V21" s="4">
+        <v>141</v>
+      </c>
+      <c r="W21" s="7">
+        <v>160</v>
+      </c>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -10991,7 +11219,7 @@
       <c r="FY21" s="8"/>
       <c r="FZ21" s="8"/>
     </row>
-    <row r="22" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>184</v>
       </c>
@@ -11023,12 +11251,24 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
+      <c r="R22" s="7">
+        <v>32</v>
+      </c>
+      <c r="S22" s="4">
+        <v>48</v>
+      </c>
+      <c r="T22" s="7">
+        <v>83</v>
+      </c>
+      <c r="U22" s="4">
+        <v>111</v>
+      </c>
+      <c r="V22" s="4">
+        <v>141</v>
+      </c>
+      <c r="W22" s="7">
+        <v>160</v>
+      </c>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -11349,37 +11589,37 @@
       <selection pane="bottomRight" activeCell="AB31" sqref="AB31:AC31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.3984375" customWidth="1"/>
-    <col min="27" max="27" width="12.1328125" customWidth="1"/>
-    <col min="28" max="28" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -11417,7 +11657,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>43872</v>
       </c>
@@ -11499,7 +11739,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43872</v>
       </c>
@@ -11582,7 +11822,7 @@
         <v>1.0647907174092814</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43872</v>
       </c>
@@ -11660,7 +11900,7 @@
         <v>0.71386002572888851</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43872</v>
       </c>
@@ -11738,7 +11978,7 @@
         <v>2.4197644315896523</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43872</v>
       </c>
@@ -11816,7 +12056,7 @@
         <v>3.7214462838798901</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43872</v>
       </c>
@@ -11894,7 +12134,7 @@
         <v>2.8113679400343057</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43872</v>
       </c>
@@ -11972,7 +12212,7 @@
         <v>2.1063638999668055</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43872</v>
       </c>
@@ -12055,7 +12295,7 @@
         <v>1.4843995190331649</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43899</v>
       </c>
@@ -12133,7 +12373,7 @@
         <v>0.77127282663013985</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43899</v>
       </c>
@@ -12211,7 +12451,7 @@
         <v>4.5034058217117074</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43899</v>
       </c>
@@ -12289,7 +12529,7 @@
         <v>4.3105752327423099</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43899</v>
       </c>
@@ -12367,7 +12607,7 @@
         <v>3.5287158029842107</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43899</v>
       </c>
@@ -12445,7 +12685,7 @@
         <v>2.547071496229885</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43899</v>
       </c>
@@ -12528,7 +12768,7 @@
         <v>0.88715448942124731</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43899</v>
       </c>
@@ -12606,7 +12846,7 @@
         <v>1.1079869986664943</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43899</v>
       </c>
@@ -12684,7 +12924,7 @@
         <v>2.5128673171463425</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43965</v>
       </c>
@@ -12762,7 +13002,7 @@
         <v>3.4065554764346313</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43965</v>
       </c>
@@ -12840,7 +13080,7 @@
         <v>3.0111603818040944</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43965</v>
       </c>
@@ -12918,7 +13158,7 @@
         <v>3.1451842343082994</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43965</v>
       </c>
@@ -12996,7 +13236,7 @@
         <v>2.7139037573163911</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43965</v>
       </c>
@@ -13074,7 +13314,7 @@
         <v>2.4148953177003234</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43965</v>
       </c>
@@ -13157,7 +13397,7 @@
         <v>0.34460327673508545</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43965</v>
       </c>
@@ -13235,7 +13475,7 @@
         <v>0.66790377032818293</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43965</v>
       </c>
@@ -13313,7 +13553,7 @@
         <v>3.0931060168494766</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44040</v>
       </c>
@@ -13391,7 +13631,7 @@
         <v>4.1384985662659126</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44040</v>
       </c>
@@ -13469,7 +13709,7 @@
         <v>3.4144460603070823</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44040</v>
       </c>
@@ -13547,7 +13787,7 @@
         <v>2.235662586790629</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44040</v>
       </c>
@@ -13625,7 +13865,7 @@
         <v>2.556588049637369</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44040</v>
       </c>
@@ -13703,7 +13943,7 @@
         <v>2.7467656631364146</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44040</v>
       </c>
@@ -13781,7 +14021,7 @@
         <v>5.6401735252428447</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44040</v>
       </c>
@@ -13843,7 +14083,7 @@
       </c>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>44040</v>
       </c>
@@ -13905,7 +14145,7 @@
       </c>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43872</v>
       </c>
@@ -13967,7 +14207,7 @@
       </c>
       <c r="X34" s="12"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43872</v>
       </c>
@@ -14029,7 +14269,7 @@
       </c>
       <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>43872</v>
       </c>
@@ -14091,7 +14331,7 @@
       </c>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43872</v>
       </c>
@@ -14131,7 +14371,7 @@
         <v>34.170415224913526</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43872</v>
       </c>
@@ -14171,7 +14411,7 @@
         <v>34.255700325732889</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43872</v>
       </c>
@@ -14211,7 +14451,7 @@
         <v>35.893867924528287</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43872</v>
       </c>
@@ -14251,7 +14491,7 @@
         <v>32.507812500000036</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43872</v>
       </c>
@@ -14291,7 +14531,7 @@
         <v>31.948398576512428</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43899</v>
       </c>
@@ -14331,7 +14571,7 @@
         <v>34.552297939778114</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43899</v>
       </c>
@@ -14371,7 +14611,7 @@
         <v>35.957943925233643</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43899</v>
       </c>
@@ -14411,7 +14651,7 @@
         <v>37.379396984924654</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43899</v>
       </c>
@@ -14451,7 +14691,7 @@
         <v>35.821551724137969</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43899</v>
       </c>
@@ -14491,7 +14731,7 @@
         <v>40.989291598023051</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>43899</v>
       </c>
@@ -14531,7 +14771,7 @@
         <v>39.369767441860454</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43899</v>
       </c>
@@ -14571,7 +14811,7 @@
         <v>38.57441860465115</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43899</v>
       </c>
@@ -14611,7 +14851,7 @@
         <v>35.799846625766854</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>43965</v>
       </c>
@@ -14651,7 +14891,7 @@
         <v>16.958677685950427</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>43965</v>
       </c>
@@ -14691,7 +14931,7 @@
         <v>15.718662952646255</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>43965</v>
       </c>
@@ -14731,7 +14971,7 @@
         <v>16.646017699115017</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>43965</v>
       </c>
@@ -14771,7 +15011,7 @@
         <v>14.400000000000015</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>43965</v>
       </c>
@@ -14811,7 +15051,7 @@
         <v>21.024590163934445</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>43965</v>
       </c>
@@ -14851,7 +15091,7 @@
         <v>20.520000000000017</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>43965</v>
       </c>
@@ -14891,7 +15131,7 @@
         <v>12.387784090909102</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>43965</v>
       </c>
@@ -14931,7 +15171,7 @@
         <v>13.324675324675336</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>44040</v>
       </c>
@@ -14971,7 +15211,7 @@
         <v>11.659090909090921</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>44040</v>
       </c>
@@ -15011,7 +15251,7 @@
         <v>11.274725274725284</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>44040</v>
       </c>
@@ -15051,7 +15291,7 @@
         <v>9.7714285714285811</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>44040</v>
       </c>
@@ -15091,7 +15331,7 @@
         <v>13.619469026548654</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>44040</v>
       </c>
@@ -15131,7 +15371,7 @@
         <v>15.959999999999981</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>44040</v>
       </c>
@@ -15171,7 +15411,7 @@
         <v>12.825000000000012</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>44040</v>
       </c>
@@ -15211,7 +15451,7 @@
         <v>12.37499999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>44040</v>
       </c>
@@ -15251,7 +15491,7 @@
         <v>10.992857142857098</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>43872</v>
       </c>
@@ -15291,7 +15531,7 @@
         <v>81.134328358208947</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>43872</v>
       </c>
@@ -15331,7 +15571,7 @@
         <v>64.350000000000009</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>43872</v>
       </c>
@@ -15371,7 +15611,7 @@
         <v>80.858638743455586</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>43872</v>
       </c>
@@ -15411,7 +15651,7 @@
         <v>79.576694411414991</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>43872</v>
       </c>
@@ -15451,7 +15691,7 @@
         <v>78.917647058823491</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>43872</v>
       </c>
@@ -15491,7 +15731,7 @@
         <v>80.091954022988503</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>43872</v>
       </c>
@@ -15531,7 +15771,7 @@
         <v>70.438775510204067</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>43872</v>
       </c>
@@ -15571,7 +15811,7 @@
         <v>67.232323232323168</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>43899</v>
       </c>
@@ -15611,7 +15851,7 @@
         <v>51.624742268041231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>43899</v>
       </c>
@@ -15651,7 +15891,7 @@
         <v>56.690721649484516</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>43899</v>
       </c>
@@ -15691,7 +15931,7 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>43899</v>
       </c>
@@ -15731,7 +15971,7 @@
         <v>76.277602523659382</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>43899</v>
       </c>
@@ -15771,7 +16011,7 @@
         <v>86.628696604600236</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>43899</v>
       </c>
@@ -15811,7 +16051,7 @@
         <v>87.516533637400173</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>43899</v>
       </c>
@@ -15851,7 +16091,7 @@
         <v>74.919957310565593</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>43899</v>
       </c>
@@ -15891,7 +16131,7 @@
         <v>74.127659574468083</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>43965</v>
       </c>
@@ -15931,7 +16171,7 @@
         <v>31.909090909090853</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>43965</v>
       </c>
@@ -15971,7 +16211,7 @@
         <v>32.110948905109439</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>43965</v>
       </c>
@@ -16011,7 +16251,7 @@
         <v>44.571428571428527</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>43965</v>
       </c>
@@ -16051,7 +16291,7 @@
         <v>42.46502835538746</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>43965</v>
       </c>
@@ -16091,7 +16331,7 @@
         <v>52.16801292407105</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>43965</v>
       </c>
@@ -16131,7 +16371,7 @@
         <v>47.531249999999943</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>43965</v>
       </c>
@@ -16171,7 +16411,7 @@
         <v>43.133640552995345</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>43965</v>
       </c>
@@ -16211,7 +16451,7 @@
         <v>38.296809986130413</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>44040</v>
       </c>
@@ -16251,7 +16491,7 @@
         <v>20.727272727272748</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>44040</v>
       </c>
@@ -16291,7 +16531,7 @@
         <v>19.734939759036081</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>44040</v>
       </c>
@@ -16331,7 +16571,7 @@
         <v>38.621359223301006</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>44040</v>
       </c>
@@ -16371,7 +16611,7 @@
         <v>41.404825737265448</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>44040</v>
       </c>
@@ -16411,7 +16651,7 @@
         <v>38.834042553191523</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>44040</v>
       </c>
@@ -16451,7 +16691,7 @@
         <v>36.850393700787372</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>44040</v>
       </c>
@@ -16491,7 +16731,7 @@
         <v>40.839622641509472</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>44040</v>
       </c>
@@ -16531,7 +16771,7 @@
         <v>35.289048473967618</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>43872</v>
       </c>
@@ -16571,7 +16811,7 @@
         <v>66.034682080924853</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>43872</v>
       </c>
@@ -16611,7 +16851,7 @@
         <v>66.163849154746401</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>43872</v>
       </c>
@@ -16651,7 +16891,7 @@
         <v>89.674418604651109</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>43872</v>
       </c>
@@ -16691,7 +16931,7 @@
         <v>87.893333333333331</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>43872</v>
       </c>
@@ -16731,7 +16971,7 @@
         <v>90.000000000000043</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>43872</v>
       </c>
@@ -16771,7 +17011,7 @@
         <v>91.05386416861829</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>43872</v>
       </c>
@@ -16811,7 +17051,7 @@
         <v>78.578680203045678</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>43872</v>
       </c>
@@ -16851,7 +17091,7 @@
         <v>76.374622356495479</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>43899</v>
       </c>
@@ -16891,7 +17131,7 @@
         <v>59.340659340659322</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>43899</v>
       </c>
@@ -16931,7 +17171,7 @@
         <v>60.656136087484875</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>43899</v>
       </c>
@@ -16971,7 +17211,7 @@
         <v>81.92</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>43899</v>
       </c>
@@ -17011,7 +17251,7 @@
         <v>82.188879082082934</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>43899</v>
       </c>
@@ -17051,7 +17291,7 @@
         <v>92.258635961027494</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>43899</v>
       </c>
@@ -17091,7 +17331,7 @@
         <v>88.047337278106539</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>43899</v>
       </c>
@@ -17131,7 +17371,7 @@
         <v>83.156881616939444</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>43899</v>
       </c>
@@ -17171,7 +17411,7 @@
         <v>83.895652173913064</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>43965</v>
       </c>
@@ -17211,7 +17451,7 @@
         <v>37.725752508361239</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>43965</v>
       </c>
@@ -17251,7 +17491,7 @@
         <v>37.423728813559357</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>43965</v>
       </c>
@@ -17291,7 +17531,7 @@
         <v>55.60975609756094</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>43965</v>
       </c>
@@ -17331,7 +17571,7 @@
         <v>51.386861313868664</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>43965</v>
       </c>
@@ -17371,7 +17611,7 @@
         <v>58.639798488664972</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>43965</v>
       </c>
@@ -17411,7 +17651,7 @@
         <v>61.660079051383349</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>43965</v>
       </c>
@@ -17451,7 +17691,7 @@
         <v>58.000000000000057</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>43965</v>
       </c>
@@ -17491,7 +17731,7 @@
         <v>58.947368421052602</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>44040</v>
       </c>
@@ -17531,7 +17771,7 @@
         <v>26.74094707520894</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>44040</v>
       </c>
@@ -17571,7 +17811,7 @@
         <v>24.587973273942055</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>44040</v>
       </c>
@@ -17611,7 +17851,7 @@
         <v>49.040247678018538</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>44040</v>
       </c>
@@ -17651,7 +17891,7 @@
         <v>47.863247863247913</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>44040</v>
       </c>
@@ -17691,7 +17931,7 @@
         <v>47.421686746987994</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>44040</v>
       </c>
@@ -17731,7 +17971,7 @@
         <v>43.885714285714329</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>44040</v>
       </c>
@@ -17771,7 +18011,7 @@
         <v>55.862068965517231</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>44040</v>
       </c>
@@ -17811,7 +18051,7 @@
         <v>53.631284916201167</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>43872</v>
       </c>
@@ -17851,7 +18091,7 @@
         <v>66.63403781979973</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>43872</v>
       </c>
@@ -17891,7 +18131,7 @@
         <v>67.193954659949611</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>43872</v>
       </c>
@@ -17931,7 +18171,7 @@
         <v>85.186516853932602</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>43872</v>
       </c>
@@ -17971,7 +18211,7 @@
         <v>84.712166172106848</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>43872</v>
       </c>
@@ -18011,7 +18251,7 @@
         <v>84.355555555555497</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>43872</v>
       </c>
@@ -18051,7 +18291,7 @@
         <v>86.078571428571408</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>43872</v>
       </c>
@@ -18091,7 +18331,7 @@
         <v>79.365898617511505</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>43872</v>
       </c>
@@ -18131,7 +18371,7 @@
         <v>79.852242744063304</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>43899</v>
       </c>
@@ -18171,7 +18411,7 @@
         <v>63.055624227441271</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>43899</v>
       </c>
@@ -18211,7 +18451,7 @@
         <v>64.434782608695713</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>43899</v>
       </c>
@@ -18251,7 +18491,7 @@
         <v>81.437288135593178</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>43899</v>
       </c>
@@ -18291,7 +18531,7 @@
         <v>80.17529880478088</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>43899</v>
       </c>
@@ -18331,7 +18571,7 @@
         <v>89.362204724409423</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>43899</v>
       </c>
@@ -18371,7 +18611,7 @@
         <v>86.795252225519278</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>43899</v>
       </c>
@@ -18411,7 +18651,7 @@
         <v>83.625403659849255</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>43899</v>
       </c>
@@ -18451,7 +18691,7 @@
         <v>84.870466321243526</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>43965</v>
       </c>
@@ -18491,7 +18731,7 @@
         <v>40.466165413533773</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>43965</v>
       </c>
@@ -18531,7 +18771,7 @@
         <v>40.695652173913082</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>43965</v>
       </c>
@@ -18571,7 +18811,7 @@
         <v>58.203045685279172</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>43965</v>
       </c>
@@ -18611,7 +18851,7 @@
         <v>59.74468085106389</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>43965</v>
       </c>
@@ -18651,7 +18891,7 @@
         <v>54.418604651162774</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>43965</v>
       </c>
@@ -18691,7 +18931,7 @@
         <v>56.842105263157947</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>43965</v>
       </c>
@@ -18731,7 +18971,7 @@
         <v>59.459016393442674</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>43965</v>
       </c>
@@ -18771,7 +19011,7 @@
         <v>61.674418604651144</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>44040</v>
       </c>
@@ -18811,7 +19051,7 @@
         <v>27.39512195121954</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>44040</v>
       </c>
@@ -18851,7 +19091,7 @@
         <v>27.529411764705809</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>44040</v>
       </c>
@@ -18891,7 +19131,7 @@
         <v>47.085365853658502</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>44040</v>
       </c>
@@ -18931,7 +19171,7 @@
         <v>45.56842105263155</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>44040</v>
       </c>
@@ -18971,7 +19211,7 @@
         <v>43.636363636363612</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>44040</v>
       </c>
@@ -19011,7 +19251,7 @@
         <v>39.757281553398094</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>44040</v>
       </c>
@@ -19051,7 +19291,7 @@
         <v>52.156626506024061</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>44040</v>
       </c>
@@ -19091,7 +19331,7 @@
         <v>51.008174386920956</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>43872</v>
       </c>
@@ -19131,7 +19371,7 @@
         <v>60.177514792899409</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>43872</v>
       </c>
@@ -19171,7 +19411,7 @@
         <v>62.804097311139557</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>43872</v>
       </c>
@@ -19211,7 +19451,7 @@
         <v>73.15789473684211</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>43872</v>
       </c>
@@ -19251,7 +19491,7 @@
         <v>74.416342412451328</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>43872</v>
       </c>
@@ -19291,7 +19531,7 @@
         <v>73.364928909952695</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>43872</v>
       </c>
@@ -19331,7 +19571,7 @@
         <v>72.015915119363413</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>43872</v>
       </c>
@@ -19371,7 +19611,7 @@
         <v>71.893491124260322</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>43872</v>
       </c>
@@ -19411,7 +19651,7 @@
         <v>77.430167597765319</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>43899</v>
       </c>
@@ -19451,7 +19691,7 @@
         <v>62.16730038022812</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>43899</v>
       </c>
@@ -19491,7 +19731,7 @@
         <v>63.281249999999986</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>43899</v>
       </c>
@@ -19531,7 +19771,7 @@
         <v>78.853754940711468</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>43899</v>
       </c>
@@ -19571,7 +19811,7 @@
         <v>75.427594070695562</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>43899</v>
       </c>
@@ -19611,7 +19851,7 @@
         <v>78.353948620361592</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>43899</v>
       </c>
@@ -19651,7 +19891,7 @@
         <v>75.607287449392672</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>43899</v>
       </c>
@@ -19691,7 +19931,7 @@
         <v>79.867549668874176</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>43899</v>
       </c>
@@ -19731,7 +19971,7 @@
         <v>79.186893203883514</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>43965</v>
       </c>
@@ -19771,7 +20011,7 @@
         <v>46.11307420494704</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>43965</v>
       </c>
@@ -19811,7 +20051,7 @@
         <v>37.305699481865254</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>43965</v>
       </c>
@@ -19851,7 +20091,7 @@
         <v>56.249999999999979</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>43965</v>
       </c>
@@ -19891,7 +20131,7 @@
         <v>68.041237113402133</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>43965</v>
       </c>
@@ -19931,7 +20171,7 @@
         <v>53.899721448468014</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>43965</v>
       </c>
@@ -19971,7 +20211,7 @@
         <v>54.255319148936223</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>43965</v>
       </c>
@@ -20011,7 +20251,7 @@
         <v>54.655870445344178</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>43965</v>
       </c>
@@ -20051,7 +20291,7 @@
         <v>57.507987220447255</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>44040</v>
       </c>
@@ -20091,7 +20331,7 @@
         <v>28.201634877384219</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>44040</v>
       </c>
@@ -20131,7 +20371,7 @@
         <v>27.850162866449537</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>44040</v>
       </c>
@@ -20171,7 +20411,7 @@
         <v>39.071856287425106</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>44040</v>
       </c>
@@ -20211,7 +20451,7 @@
         <v>36.869747899159698</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>44040</v>
       </c>
@@ -20251,7 +20491,7 @@
         <v>41.086956521739111</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>44040</v>
       </c>
@@ -20291,7 +20531,7 @@
         <v>33.445945945945915</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>44040</v>
       </c>
@@ -20331,7 +20571,7 @@
         <v>44.60641399416906</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>44040</v>
       </c>
@@ -20371,7 +20611,7 @@
         <v>42.300000000000047</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>43965</v>
       </c>
@@ -20411,7 +20651,7 @@
         <v>44.318181818181763</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>43965</v>
       </c>
@@ -20451,7 +20691,7 @@
         <v>48.885793871866341</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>43965</v>
       </c>
@@ -20491,7 +20731,7 @@
         <v>58.264462809917347</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>43965</v>
       </c>
@@ -20531,7 +20771,7 @@
         <v>64.981949458483712</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>43965</v>
       </c>
@@ -20571,7 +20811,7 @@
         <v>64.90384615384616</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>43965</v>
       </c>
@@ -20611,7 +20851,7 @@
         <v>63.496932515337406</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>43965</v>
       </c>
@@ -20651,7 +20891,7 @@
         <v>61.363636363636331</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>43965</v>
       </c>
@@ -20691,7 +20931,7 @@
         <v>60.21897810218983</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>44040</v>
       </c>
@@ -20731,7 +20971,7 @@
         <v>34.777517564402842</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>44040</v>
       </c>
@@ -20771,7 +21011,7 @@
         <v>31.829268292682954</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>44040</v>
       </c>
@@ -20811,7 +21051,7 @@
         <v>45.121951219512226</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="12">
         <v>44040</v>
       </c>
@@ -20851,7 +21091,7 @@
         <v>45.389048991354507</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="12">
         <v>44040</v>
       </c>
@@ -20891,7 +21131,7 @@
         <v>31.542056074766382</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="12">
         <v>44040</v>
       </c>
@@ -20931,7 +21171,7 @@
         <v>36.290322580645189</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="12">
         <v>44040</v>
       </c>
@@ -20971,7 +21211,7 @@
         <v>48.175182481751875</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="12">
         <v>44040</v>
       </c>
@@ -21011,7 +21251,7 @@
         <v>48.046874999999979</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="12">
         <v>43965</v>
       </c>
@@ -21051,7 +21291,7 @@
         <v>67.105263157894726</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="12">
         <v>43965</v>
       </c>
@@ -21091,7 +21331,7 @@
         <v>52.090032154340804</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="12">
         <v>43965</v>
       </c>
@@ -21131,7 +21371,7 @@
         <v>47.368421052631618</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="12">
         <v>43965</v>
       </c>
@@ -21171,7 +21411,7 @@
         <v>51.639344262295062</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="12">
         <v>43965</v>
       </c>
@@ -21211,7 +21451,7 @@
         <v>52.941176470588282</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>43965</v>
       </c>
@@ -21251,7 +21491,7 @@
         <v>62.6373626373626</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>43965</v>
       </c>
@@ -21291,7 +21531,7 @@
         <v>62.376237623762357</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="12">
         <v>43965</v>
       </c>
@@ -21331,7 +21571,7 @@
         <v>58.396946564885454</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>44040</v>
       </c>
@@ -21371,7 +21611,7 @@
         <v>32.876712328767098</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="12">
         <v>44040</v>
       </c>
@@ -21411,7 +21651,7 @@
         <v>28.329297820823271</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="12">
         <v>44040</v>
       </c>
@@ -21451,7 +21691,7 @@
         <v>46.739130434782652</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="12">
         <v>44040</v>
       </c>
@@ -21491,7 +21731,7 @@
         <v>45.895522388059682</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
         <v>44040</v>
       </c>
@@ -21531,7 +21771,7 @@
         <v>34.430604982206347</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>44040</v>
       </c>
@@ -21571,7 +21811,7 @@
         <v>31.818181818181849</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="12">
         <v>44040</v>
       </c>
@@ -21611,7 +21851,7 @@
         <v>44.062500000000043</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="12">
         <v>44040</v>
       </c>
@@ -21651,7 +21891,7 @@
         <v>47.104677060133618</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="12">
         <v>44040</v>
       </c>
@@ -21691,7 +21931,7 @@
         <v>33.812154696132531</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="12">
         <v>44040</v>
       </c>
@@ -21731,7 +21971,7 @@
         <v>50.38765008576334</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="12">
         <v>44040</v>
       </c>
@@ -21771,7 +22011,7 @@
         <v>45.900000000000041</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="12">
         <v>44040</v>
       </c>
@@ -21811,7 +22051,7 @@
         <v>33.561290322580618</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="12">
         <v>44040</v>
       </c>
@@ -21851,7 +22091,7 @@
         <v>35.143851508120683</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="12">
         <v>44040</v>
       </c>
@@ -21891,7 +22131,7 @@
         <v>43.262068965517223</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="12">
         <v>44040</v>
       </c>
@@ -21931,7 +22171,7 @@
         <v>46.785123966942194</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>44040</v>
       </c>
@@ -21969,7 +22209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>44040</v>
       </c>
@@ -22007,7 +22247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="12">
         <v>44040</v>
       </c>
@@ -22045,7 +22285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="12">
         <v>44040</v>
       </c>
@@ -22083,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="12">
         <v>44040</v>
       </c>
@@ -22121,7 +22361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>44040</v>
       </c>
@@ -22159,7 +22399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="12">
         <v>44040</v>
       </c>
@@ -22197,7 +22437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>44040</v>
       </c>
@@ -22235,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>44040</v>
       </c>
@@ -22273,7 +22513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="12">
         <v>44040</v>
       </c>
@@ -22311,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="12">
         <v>44040</v>
       </c>
@@ -22349,7 +22589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="12">
         <v>44040</v>
       </c>
@@ -22387,7 +22627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="12">
         <v>44040</v>
       </c>
@@ -22425,7 +22665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
         <v>44040</v>
       </c>
@@ -22463,7 +22703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="12">
         <v>44040</v>
       </c>
@@ -22501,7 +22741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="12">
         <v>44040</v>
       </c>
@@ -22539,7 +22779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="12">
         <v>44040</v>
       </c>
@@ -22577,7 +22817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="12">
         <v>44040</v>
       </c>
@@ -22615,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="12">
         <v>44040</v>
       </c>
@@ -22653,7 +22893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="12">
         <v>44040</v>
       </c>
@@ -22691,7 +22931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="12">
         <v>44040</v>
       </c>
@@ -22729,7 +22969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>44040</v>
       </c>
@@ -22767,7 +23007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="12">
         <v>44040</v>
       </c>
@@ -22805,7 +23045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="12">
         <v>44040</v>
       </c>
@@ -22843,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="12">
         <v>44040</v>
       </c>
@@ -22881,7 +23121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="12">
         <v>44040</v>
       </c>
@@ -22919,7 +23159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="12">
         <v>44040</v>
       </c>
@@ -22957,7 +23197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="12">
         <v>44040</v>
       </c>
@@ -22995,7 +23235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="12">
         <v>44040</v>
       </c>
@@ -23033,7 +23273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="12">
         <v>44040</v>
       </c>
@@ -23071,7 +23311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="12">
         <v>44040</v>
       </c>
@@ -23109,7 +23349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="12">
         <v>44040</v>
       </c>

--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A44D7B-4C1E-46B4-9FAF-B22C98B5DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D600040-F4B7-4914-B3E3-3E7C0FA6C519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DC1A8874-CF5D-4DF3-B66F-7CA3C73D11F3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC1A8874-CF5D-4DF3-B66F-7CA3C73D11F3}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>dw_OB</t>
-  </si>
-  <si>
-    <t>Cotton.Fruit.Nconc</t>
   </si>
   <si>
     <t>Cotton.Fruit.N</t>
@@ -712,6 +709,9 @@
   </si>
   <si>
     <t>Cotton.Leaf.SpecificAreaCanopy</t>
+  </si>
+  <si>
+    <t>Cotton.Fruit.NConc</t>
   </si>
 </sst>
 </file>
@@ -5859,181 +5859,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BBC4D-1054-4A81-B133-16FD0890ACC7}">
   <dimension ref="A1:FZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BJ5" sqref="BJ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.73046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.1328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="26" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="30" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="21" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="6" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="9" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="29.1328125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="7" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="4.265625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="14" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="14" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="14" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="14" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="14" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="14" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="14" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="14" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="14" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="166" max="173" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="3.59765625" bestFit="1" customWidth="1"/>
-    <col min="175" max="182" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="166" max="173" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="175" max="182" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AR1" t="s">
         <v>42</v>
@@ -6212,378 +6212,378 @@
         <v>57</v>
       </c>
       <c r="BH1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BI1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>82</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>84</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>85</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>87</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>88</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CR1" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CZ1" t="s">
         <v>190</v>
       </c>
-      <c r="CR1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CX1" t="s">
+      <c r="DA1" t="s">
+        <v>191</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>192</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DD1" t="s">
         <v>92</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DE1" t="s">
         <v>170</v>
       </c>
-      <c r="CZ1" t="s">
-        <v>191</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>192</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>193</v>
-      </c>
-      <c r="DC1" t="s">
+      <c r="DF1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DH1" t="s">
         <v>194</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DI1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DJ1" t="s">
         <v>93</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DK1" t="s">
         <v>171</v>
       </c>
-      <c r="DF1" t="s">
-        <v>219</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>195</v>
-      </c>
-      <c r="DI1" t="s">
+      <c r="DL1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DN1" t="s">
         <v>196</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DO1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DP1" t="s">
         <v>94</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DQ1" t="s">
         <v>172</v>
       </c>
-      <c r="DL1" t="s">
-        <v>207</v>
-      </c>
-      <c r="DM1" t="s">
+      <c r="DR1" t="s">
         <v>208</v>
       </c>
-      <c r="DN1" t="s">
-        <v>197</v>
-      </c>
-      <c r="DO1" t="s">
+      <c r="DS1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DT1" t="s">
         <v>198</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DU1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DV1" t="s">
         <v>95</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DW1" t="s">
         <v>173</v>
       </c>
-      <c r="DR1" t="s">
-        <v>209</v>
-      </c>
-      <c r="DS1" t="s">
+      <c r="DX1" t="s">
         <v>210</v>
       </c>
-      <c r="DT1" t="s">
-        <v>199</v>
-      </c>
-      <c r="DU1" t="s">
+      <c r="DY1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DZ1" t="s">
         <v>200</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="EA1" t="s">
+        <v>201</v>
+      </c>
+      <c r="EB1" t="s">
         <v>96</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="EC1" t="s">
         <v>174</v>
       </c>
-      <c r="DX1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DY1" t="s">
+      <c r="ED1" t="s">
         <v>212</v>
       </c>
-      <c r="DZ1" t="s">
-        <v>201</v>
-      </c>
-      <c r="EA1" t="s">
+      <c r="EE1" t="s">
+        <v>213</v>
+      </c>
+      <c r="EF1" t="s">
         <v>202</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EG1" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH1" t="s">
         <v>97</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EI1" t="s">
         <v>175</v>
       </c>
-      <c r="ED1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EE1" t="s">
+      <c r="EJ1" t="s">
         <v>214</v>
       </c>
-      <c r="EF1" t="s">
-        <v>203</v>
-      </c>
-      <c r="EG1" t="s">
+      <c r="EK1" t="s">
+        <v>215</v>
+      </c>
+      <c r="EL1" t="s">
         <v>204</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EM1" t="s">
+        <v>205</v>
+      </c>
+      <c r="EN1" t="s">
         <v>98</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EO1" t="s">
         <v>176</v>
       </c>
-      <c r="EJ1" t="s">
-        <v>215</v>
-      </c>
-      <c r="EK1" t="s">
+      <c r="EP1" t="s">
         <v>216</v>
       </c>
-      <c r="EL1" t="s">
-        <v>205</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>206</v>
-      </c>
-      <c r="EN1" t="s">
+      <c r="EQ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="ER1" t="s">
         <v>99</v>
       </c>
-      <c r="EO1" t="s">
-        <v>177</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>217</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>218</v>
-      </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>100</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>101</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>102</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>103</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>104</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>105</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>106</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>107</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>108</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>109</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>110</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>111</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>112</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>113</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>114</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>115</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>116</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>117</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>118</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>119</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>120</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>121</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FO1" t="s">
         <v>122</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>123</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>124</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>125</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>126</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>127</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FU1" t="s">
         <v>128</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FV1" t="s">
         <v>129</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FW1" t="s">
         <v>130</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FX1" t="s">
         <v>131</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FY1" t="s">
         <v>132</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FZ1" t="s">
         <v>133</v>
       </c>
-      <c r="FZ1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:182" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
@@ -6593,16 +6593,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" s="6">
         <v>10.5</v>
@@ -6784,9 +6784,9 @@
       <c r="FY2" s="8"/>
       <c r="FZ2" s="8"/>
     </row>
-    <row r="3" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
@@ -6799,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I3" s="6">
         <v>10.5</v>
@@ -7081,9 +7081,9 @@
       <c r="FY3" s="8"/>
       <c r="FZ3" s="8"/>
     </row>
-    <row r="4" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
@@ -7096,7 +7096,7 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I4" s="6">
         <v>10.5</v>
@@ -7282,9 +7282,9 @@
       <c r="FY4" s="8"/>
       <c r="FZ4" s="8"/>
     </row>
-    <row r="5" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
@@ -7297,7 +7297,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" s="6">
         <v>10.5</v>
@@ -7483,9 +7483,9 @@
       <c r="FY5" s="8"/>
       <c r="FZ5" s="8"/>
     </row>
-    <row r="6" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -7495,16 +7495,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="G6" s="2">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I6" s="6">
         <v>10.5</v>
@@ -7760,9 +7760,9 @@
       <c r="FY6" s="8"/>
       <c r="FZ6" s="8"/>
     </row>
-    <row r="7" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
@@ -7775,7 +7775,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I7" s="6">
         <v>10.5</v>
@@ -7961,9 +7961,9 @@
       <c r="FY7" s="8"/>
       <c r="FZ7" s="8"/>
     </row>
-    <row r="8" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
@@ -7976,7 +7976,7 @@
         <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="6">
         <v>10.5</v>
@@ -8174,9 +8174,9 @@
       <c r="FY8" s="8"/>
       <c r="FZ8" s="8"/>
     </row>
-    <row r="9" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -8186,16 +8186,16 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G9" s="2">
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="6">
         <v>10.5</v>
@@ -8363,9 +8363,9 @@
       <c r="FY9" s="8"/>
       <c r="FZ9" s="8"/>
     </row>
-    <row r="10" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -8378,7 +8378,7 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" s="6">
         <v>10.5</v>
@@ -8579,9 +8579,9 @@
       <c r="FY10" s="8"/>
       <c r="FZ10" s="8"/>
     </row>
-    <row r="11" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -8594,7 +8594,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I11" s="6">
         <v>10.5</v>
@@ -8760,9 +8760,9 @@
       <c r="FY11" s="8"/>
       <c r="FZ11" s="8"/>
     </row>
-    <row r="12" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -8775,7 +8775,7 @@
         <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I12" s="6">
         <v>10.5</v>
@@ -8958,9 +8958,9 @@
       <c r="FY12" s="8"/>
       <c r="FZ12" s="8"/>
     </row>
-    <row r="13" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -8973,7 +8973,7 @@
         <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I13" s="6">
         <v>10.5</v>
@@ -9160,9 +9160,9 @@
       <c r="FY13" s="8"/>
       <c r="FZ13" s="8"/>
     </row>
-    <row r="14" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -9172,16 +9172,16 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
         <v>142</v>
-      </c>
-      <c r="F14" t="s">
-        <v>143</v>
       </c>
       <c r="G14" s="2">
         <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I14" s="6">
         <v>10.5</v>
@@ -9370,9 +9370,9 @@
       <c r="FY14" s="8"/>
       <c r="FZ14" s="8"/>
     </row>
-    <row r="15" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -9385,7 +9385,7 @@
         <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" s="6">
         <v>10.5</v>
@@ -9572,9 +9572,9 @@
       <c r="FY15" s="8"/>
       <c r="FZ15" s="8"/>
     </row>
-    <row r="16" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -9587,7 +9587,7 @@
         <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I16" s="6">
         <v>10.5</v>
@@ -9809,9 +9809,9 @@
       <c r="FY16" s="8"/>
       <c r="FZ16" s="8"/>
     </row>
-    <row r="17" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -9824,7 +9824,7 @@
         <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I17" s="6">
         <v>10.5</v>
@@ -10139,9 +10139,9 @@
       <c r="FY17" s="8"/>
       <c r="FZ17" s="8"/>
     </row>
-    <row r="18" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -10151,16 +10151,16 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="G18" s="2">
         <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I18" s="6">
         <v>10.5</v>
@@ -10344,9 +10344,9 @@
       <c r="FY18" s="8"/>
       <c r="FZ18" s="8"/>
     </row>
-    <row r="19" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -10359,7 +10359,7 @@
         <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" s="6">
         <v>10.5</v>
@@ -10575,9 +10575,9 @@
       <c r="FY19" s="8"/>
       <c r="FZ19" s="8"/>
     </row>
-    <row r="20" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -10587,16 +10587,16 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G20" s="2">
         <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I20" s="6">
         <v>10.5</v>
@@ -10775,9 +10775,9 @@
       <c r="FY20" s="8"/>
       <c r="FZ20" s="8"/>
     </row>
-    <row r="21" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -10787,16 +10787,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="G21" s="2">
         <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I21" s="6">
         <v>10.5</v>
@@ -10991,9 +10991,9 @@
       <c r="FY21" s="8"/>
       <c r="FZ21" s="8"/>
     </row>
-    <row r="22" spans="1:182" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -11006,7 +11006,7 @@
         <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I22" s="6">
         <v>10.5</v>
@@ -11349,89 +11349,89 @@
       <selection pane="bottomRight" activeCell="AB31" sqref="AB31:AC31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.3984375" customWidth="1"/>
-    <col min="27" max="27" width="12.1328125" customWidth="1"/>
-    <col min="28" max="28" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" t="s">
         <v>154</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
         <v>179</v>
       </c>
-      <c r="I1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>43872</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -11457,63 +11457,63 @@
         <v>27.815742397137726</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="P2" t="s">
         <v>164</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>165</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>166</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T2" t="s">
+        <v>181</v>
+      </c>
+      <c r="U2" t="s">
+        <v>182</v>
+      </c>
+      <c r="X2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="S2" t="s">
-        <v>181</v>
-      </c>
-      <c r="T2" t="s">
-        <v>182</v>
-      </c>
-      <c r="U2" t="s">
-        <v>183</v>
-      </c>
-      <c r="X2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43872</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -11582,21 +11582,21 @@
         <v>1.0647907174092814</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43872</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -11660,21 +11660,21 @@
         <v>0.71386002572888851</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43872</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -11738,21 +11738,21 @@
         <v>2.4197644315896523</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43872</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -11816,21 +11816,21 @@
         <v>3.7214462838798901</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43872</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -11894,21 +11894,21 @@
         <v>2.8113679400343057</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43872</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -11972,21 +11972,21 @@
         <v>2.1063638999668055</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43872</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -12055,21 +12055,21 @@
         <v>1.4843995190331649</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43899</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -12133,21 +12133,21 @@
         <v>0.77127282663013985</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43899</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -12211,21 +12211,21 @@
         <v>4.5034058217117074</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43899</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -12289,21 +12289,21 @@
         <v>4.3105752327423099</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43899</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -12367,21 +12367,21 @@
         <v>3.5287158029842107</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43899</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -12445,21 +12445,21 @@
         <v>2.547071496229885</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43899</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -12528,21 +12528,21 @@
         <v>0.88715448942124731</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43899</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -12606,21 +12606,21 @@
         <v>1.1079869986664943</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43899</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -12684,21 +12684,21 @@
         <v>2.5128673171463425</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43965</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -12762,21 +12762,21 @@
         <v>3.4065554764346313</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43965</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -12840,21 +12840,21 @@
         <v>3.0111603818040944</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43965</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -12918,21 +12918,21 @@
         <v>3.1451842343082994</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43965</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F21">
         <v>15</v>
@@ -12996,21 +12996,21 @@
         <v>2.7139037573163911</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43965</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -13074,21 +13074,21 @@
         <v>2.4148953177003234</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43965</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -13157,21 +13157,21 @@
         <v>0.34460327673508545</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43965</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F24">
         <v>15</v>
@@ -13235,21 +13235,21 @@
         <v>0.66790377032818293</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43965</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F25">
         <v>15</v>
@@ -13313,21 +13313,21 @@
         <v>3.0931060168494766</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44040</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26">
         <v>15</v>
@@ -13391,21 +13391,21 @@
         <v>4.1384985662659126</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44040</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -13469,21 +13469,21 @@
         <v>3.4144460603070823</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44040</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28">
         <v>15</v>
@@ -13547,21 +13547,21 @@
         <v>2.235662586790629</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44040</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29">
         <v>15</v>
@@ -13625,21 +13625,21 @@
         <v>2.556588049637369</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44040</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -13703,21 +13703,21 @@
         <v>2.7467656631364146</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44040</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -13781,21 +13781,21 @@
         <v>5.6401735252428447</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44040</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -13843,21 +13843,21 @@
       </c>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>44040</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33">
         <v>15</v>
@@ -13905,21 +13905,21 @@
       </c>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43872</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34">
         <v>30</v>
@@ -13967,21 +13967,21 @@
       </c>
       <c r="X34" s="12"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43872</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F35">
         <v>30</v>
@@ -14029,21 +14029,21 @@
       </c>
       <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>43872</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F36">
         <v>30</v>
@@ -14091,21 +14091,21 @@
       </c>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>43872</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37">
         <v>30</v>
@@ -14131,21 +14131,21 @@
         <v>34.170415224913526</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>43872</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F38">
         <v>30</v>
@@ -14171,21 +14171,21 @@
         <v>34.255700325732889</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>43872</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F39">
         <v>30</v>
@@ -14211,21 +14211,21 @@
         <v>35.893867924528287</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>43872</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F40">
         <v>30</v>
@@ -14251,21 +14251,21 @@
         <v>32.507812500000036</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43872</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F41">
         <v>30</v>
@@ -14291,21 +14291,21 @@
         <v>31.948398576512428</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>43899</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42">
         <v>30</v>
@@ -14331,21 +14331,21 @@
         <v>34.552297939778114</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>43899</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F43">
         <v>30</v>
@@ -14371,21 +14371,21 @@
         <v>35.957943925233643</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43899</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44">
         <v>30</v>
@@ -14411,21 +14411,21 @@
         <v>37.379396984924654</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43899</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F45">
         <v>30</v>
@@ -14451,21 +14451,21 @@
         <v>35.821551724137969</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>43899</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -14491,21 +14491,21 @@
         <v>40.989291598023051</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>43899</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F47">
         <v>30</v>
@@ -14531,21 +14531,21 @@
         <v>39.369767441860454</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>43899</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F48">
         <v>30</v>
@@ -14571,21 +14571,21 @@
         <v>38.57441860465115</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43899</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F49">
         <v>30</v>
@@ -14611,21 +14611,21 @@
         <v>35.799846625766854</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>43965</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F50">
         <v>30</v>
@@ -14651,21 +14651,21 @@
         <v>16.958677685950427</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>43965</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -14691,21 +14691,21 @@
         <v>15.718662952646255</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>43965</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F52">
         <v>30</v>
@@ -14731,21 +14731,21 @@
         <v>16.646017699115017</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>43965</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F53">
         <v>30</v>
@@ -14771,21 +14771,21 @@
         <v>14.400000000000015</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>43965</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F54">
         <v>30</v>
@@ -14811,21 +14811,21 @@
         <v>21.024590163934445</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>43965</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F55">
         <v>30</v>
@@ -14851,21 +14851,21 @@
         <v>20.520000000000017</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>43965</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56">
         <v>30</v>
@@ -14891,21 +14891,21 @@
         <v>12.387784090909102</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>43965</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F57">
         <v>30</v>
@@ -14931,21 +14931,21 @@
         <v>13.324675324675336</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>44040</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F58">
         <v>30</v>
@@ -14971,21 +14971,21 @@
         <v>11.659090909090921</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>44040</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F59">
         <v>30</v>
@@ -15011,21 +15011,21 @@
         <v>11.274725274725284</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>44040</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F60">
         <v>30</v>
@@ -15051,21 +15051,21 @@
         <v>9.7714285714285811</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>44040</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F61">
         <v>30</v>
@@ -15091,21 +15091,21 @@
         <v>13.619469026548654</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>44040</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F62">
         <v>30</v>
@@ -15131,21 +15131,21 @@
         <v>15.959999999999981</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>44040</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F63">
         <v>30</v>
@@ -15171,21 +15171,21 @@
         <v>12.825000000000012</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>44040</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F64">
         <v>30</v>
@@ -15211,21 +15211,21 @@
         <v>12.37499999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>44040</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F65">
         <v>30</v>
@@ -15251,21 +15251,21 @@
         <v>10.992857142857098</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>43872</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F66">
         <v>60</v>
@@ -15291,21 +15291,21 @@
         <v>81.134328358208947</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>43872</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F67">
         <v>60</v>
@@ -15331,21 +15331,21 @@
         <v>64.350000000000009</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>43872</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F68">
         <v>60</v>
@@ -15371,21 +15371,21 @@
         <v>80.858638743455586</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>43872</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F69">
         <v>60</v>
@@ -15411,21 +15411,21 @@
         <v>79.576694411414991</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>43872</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F70">
         <v>60</v>
@@ -15451,21 +15451,21 @@
         <v>78.917647058823491</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>43872</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F71">
         <v>60</v>
@@ -15491,21 +15491,21 @@
         <v>80.091954022988503</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>43872</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F72">
         <v>60</v>
@@ -15531,21 +15531,21 @@
         <v>70.438775510204067</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>43872</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F73">
         <v>60</v>
@@ -15571,21 +15571,21 @@
         <v>67.232323232323168</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>43899</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F74">
         <v>60</v>
@@ -15611,21 +15611,21 @@
         <v>51.624742268041231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>43899</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F75">
         <v>60</v>
@@ -15651,21 +15651,21 @@
         <v>56.690721649484516</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>43899</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F76">
         <v>60</v>
@@ -15691,21 +15691,21 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>43899</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F77">
         <v>60</v>
@@ -15731,21 +15731,21 @@
         <v>76.277602523659382</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>43899</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F78">
         <v>60</v>
@@ -15771,21 +15771,21 @@
         <v>86.628696604600236</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>43899</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F79">
         <v>60</v>
@@ -15811,21 +15811,21 @@
         <v>87.516533637400173</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>43899</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F80">
         <v>60</v>
@@ -15851,21 +15851,21 @@
         <v>74.919957310565593</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>43899</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F81">
         <v>60</v>
@@ -15891,21 +15891,21 @@
         <v>74.127659574468083</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>43965</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F82">
         <v>60</v>
@@ -15931,21 +15931,21 @@
         <v>31.909090909090853</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>43965</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F83">
         <v>60</v>
@@ -15971,21 +15971,21 @@
         <v>32.110948905109439</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>43965</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F84">
         <v>60</v>
@@ -16011,21 +16011,21 @@
         <v>44.571428571428527</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>43965</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F85">
         <v>60</v>
@@ -16051,21 +16051,21 @@
         <v>42.46502835538746</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>43965</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F86">
         <v>60</v>
@@ -16091,21 +16091,21 @@
         <v>52.16801292407105</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>43965</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F87">
         <v>60</v>
@@ -16131,21 +16131,21 @@
         <v>47.531249999999943</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>43965</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D88">
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F88">
         <v>60</v>
@@ -16171,21 +16171,21 @@
         <v>43.133640552995345</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>43965</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F89">
         <v>60</v>
@@ -16211,21 +16211,21 @@
         <v>38.296809986130413</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>44040</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F90">
         <v>60</v>
@@ -16251,21 +16251,21 @@
         <v>20.727272727272748</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>44040</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F91">
         <v>60</v>
@@ -16291,21 +16291,21 @@
         <v>19.734939759036081</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>44040</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F92">
         <v>60</v>
@@ -16331,21 +16331,21 @@
         <v>38.621359223301006</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>44040</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F93">
         <v>60</v>
@@ -16371,21 +16371,21 @@
         <v>41.404825737265448</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>44040</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F94">
         <v>60</v>
@@ -16411,21 +16411,21 @@
         <v>38.834042553191523</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>44040</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F95">
         <v>60</v>
@@ -16451,21 +16451,21 @@
         <v>36.850393700787372</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>44040</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F96">
         <v>60</v>
@@ -16491,21 +16491,21 @@
         <v>40.839622641509472</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>44040</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F97">
         <v>60</v>
@@ -16531,21 +16531,21 @@
         <v>35.289048473967618</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>43872</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F98">
         <v>90</v>
@@ -16571,21 +16571,21 @@
         <v>66.034682080924853</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>43872</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F99">
         <v>90</v>
@@ -16611,21 +16611,21 @@
         <v>66.163849154746401</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>43872</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F100">
         <v>90</v>
@@ -16651,21 +16651,21 @@
         <v>89.674418604651109</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>43872</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F101">
         <v>90</v>
@@ -16691,21 +16691,21 @@
         <v>87.893333333333331</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>43872</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F102">
         <v>90</v>
@@ -16731,21 +16731,21 @@
         <v>90.000000000000043</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>43872</v>
       </c>
       <c r="B103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F103">
         <v>90</v>
@@ -16771,21 +16771,21 @@
         <v>91.05386416861829</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>43872</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D104">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F104">
         <v>90</v>
@@ -16811,21 +16811,21 @@
         <v>78.578680203045678</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>43872</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F105">
         <v>90</v>
@@ -16851,21 +16851,21 @@
         <v>76.374622356495479</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>43899</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F106">
         <v>90</v>
@@ -16891,21 +16891,21 @@
         <v>59.340659340659322</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>43899</v>
       </c>
       <c r="B107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F107">
         <v>90</v>
@@ -16931,21 +16931,21 @@
         <v>60.656136087484875</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>43899</v>
       </c>
       <c r="B108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F108">
         <v>90</v>
@@ -16971,21 +16971,21 @@
         <v>81.92</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>43899</v>
       </c>
       <c r="B109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F109">
         <v>90</v>
@@ -17011,21 +17011,21 @@
         <v>82.188879082082934</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>43899</v>
       </c>
       <c r="B110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F110">
         <v>90</v>
@@ -17051,21 +17051,21 @@
         <v>92.258635961027494</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>43899</v>
       </c>
       <c r="B111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F111">
         <v>90</v>
@@ -17091,21 +17091,21 @@
         <v>88.047337278106539</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>43899</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F112">
         <v>90</v>
@@ -17131,21 +17131,21 @@
         <v>83.156881616939444</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>43899</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F113">
         <v>90</v>
@@ -17171,21 +17171,21 @@
         <v>83.895652173913064</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>43965</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F114">
         <v>90</v>
@@ -17211,21 +17211,21 @@
         <v>37.725752508361239</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>43965</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F115">
         <v>90</v>
@@ -17251,21 +17251,21 @@
         <v>37.423728813559357</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>43965</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F116">
         <v>90</v>
@@ -17291,21 +17291,21 @@
         <v>55.60975609756094</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>43965</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F117">
         <v>90</v>
@@ -17331,21 +17331,21 @@
         <v>51.386861313868664</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>43965</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F118">
         <v>90</v>
@@ -17371,21 +17371,21 @@
         <v>58.639798488664972</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>43965</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F119">
         <v>90</v>
@@ -17411,21 +17411,21 @@
         <v>61.660079051383349</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>43965</v>
       </c>
       <c r="B120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D120">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F120">
         <v>90</v>
@@ -17451,21 +17451,21 @@
         <v>58.000000000000057</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>43965</v>
       </c>
       <c r="B121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D121">
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F121">
         <v>90</v>
@@ -17491,21 +17491,21 @@
         <v>58.947368421052602</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>44040</v>
       </c>
       <c r="B122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F122">
         <v>90</v>
@@ -17531,21 +17531,21 @@
         <v>26.74094707520894</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>44040</v>
       </c>
       <c r="B123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F123">
         <v>90</v>
@@ -17571,21 +17571,21 @@
         <v>24.587973273942055</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>44040</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F124">
         <v>90</v>
@@ -17611,21 +17611,21 @@
         <v>49.040247678018538</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>44040</v>
       </c>
       <c r="B125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F125">
         <v>90</v>
@@ -17651,21 +17651,21 @@
         <v>47.863247863247913</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>44040</v>
       </c>
       <c r="B126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D126">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F126">
         <v>90</v>
@@ -17691,21 +17691,21 @@
         <v>47.421686746987994</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>44040</v>
       </c>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F127">
         <v>90</v>
@@ -17731,21 +17731,21 @@
         <v>43.885714285714329</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>44040</v>
       </c>
       <c r="B128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D128">
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F128">
         <v>90</v>
@@ -17771,21 +17771,21 @@
         <v>55.862068965517231</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>44040</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D129">
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F129">
         <v>90</v>
@@ -17811,21 +17811,21 @@
         <v>53.631284916201167</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>43872</v>
       </c>
       <c r="B130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F130">
         <v>120</v>
@@ -17851,21 +17851,21 @@
         <v>66.63403781979973</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>43872</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F131">
         <v>120</v>
@@ -17891,21 +17891,21 @@
         <v>67.193954659949611</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>43872</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F132">
         <v>120</v>
@@ -17931,21 +17931,21 @@
         <v>85.186516853932602</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>43872</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D133">
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F133">
         <v>120</v>
@@ -17971,21 +17971,21 @@
         <v>84.712166172106848</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>43872</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D134">
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F134">
         <v>120</v>
@@ -18011,21 +18011,21 @@
         <v>84.355555555555497</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>43872</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F135">
         <v>120</v>
@@ -18051,21 +18051,21 @@
         <v>86.078571428571408</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>43872</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D136">
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F136">
         <v>120</v>
@@ -18091,21 +18091,21 @@
         <v>79.365898617511505</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>43872</v>
       </c>
       <c r="B137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D137">
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F137">
         <v>120</v>
@@ -18131,21 +18131,21 @@
         <v>79.852242744063304</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>43899</v>
       </c>
       <c r="B138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F138">
         <v>120</v>
@@ -18171,21 +18171,21 @@
         <v>63.055624227441271</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>43899</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F139">
         <v>120</v>
@@ -18211,21 +18211,21 @@
         <v>64.434782608695713</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>43899</v>
       </c>
       <c r="B140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D140">
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F140">
         <v>120</v>
@@ -18251,21 +18251,21 @@
         <v>81.437288135593178</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>43899</v>
       </c>
       <c r="B141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F141">
         <v>120</v>
@@ -18291,21 +18291,21 @@
         <v>80.17529880478088</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>43899</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D142">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F142">
         <v>120</v>
@@ -18331,21 +18331,21 @@
         <v>89.362204724409423</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>43899</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C143" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D143">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F143">
         <v>120</v>
@@ -18371,21 +18371,21 @@
         <v>86.795252225519278</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>43899</v>
       </c>
       <c r="B144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D144">
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F144">
         <v>120</v>
@@ -18411,21 +18411,21 @@
         <v>83.625403659849255</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>43899</v>
       </c>
       <c r="B145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D145">
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F145">
         <v>120</v>
@@ -18451,21 +18451,21 @@
         <v>84.870466321243526</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>43965</v>
       </c>
       <c r="B146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F146">
         <v>120</v>
@@ -18491,21 +18491,21 @@
         <v>40.466165413533773</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>43965</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F147">
         <v>120</v>
@@ -18531,21 +18531,21 @@
         <v>40.695652173913082</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>43965</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C148" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D148">
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F148">
         <v>120</v>
@@ -18571,21 +18571,21 @@
         <v>58.203045685279172</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>43965</v>
       </c>
       <c r="B149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D149">
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F149">
         <v>120</v>
@@ -18611,21 +18611,21 @@
         <v>59.74468085106389</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>43965</v>
       </c>
       <c r="B150" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F150">
         <v>120</v>
@@ -18651,21 +18651,21 @@
         <v>54.418604651162774</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>43965</v>
       </c>
       <c r="B151" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D151">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F151">
         <v>120</v>
@@ -18691,21 +18691,21 @@
         <v>56.842105263157947</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>43965</v>
       </c>
       <c r="B152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D152">
         <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F152">
         <v>120</v>
@@ -18731,21 +18731,21 @@
         <v>59.459016393442674</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>43965</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D153">
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F153">
         <v>120</v>
@@ -18771,21 +18771,21 @@
         <v>61.674418604651144</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>44040</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F154">
         <v>120</v>
@@ -18811,21 +18811,21 @@
         <v>27.39512195121954</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>44040</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F155">
         <v>120</v>
@@ -18851,21 +18851,21 @@
         <v>27.529411764705809</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>44040</v>
       </c>
       <c r="B156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F156">
         <v>120</v>
@@ -18891,21 +18891,21 @@
         <v>47.085365853658502</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>44040</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F157">
         <v>120</v>
@@ -18931,21 +18931,21 @@
         <v>45.56842105263155</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>44040</v>
       </c>
       <c r="B158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F158">
         <v>120</v>
@@ -18971,21 +18971,21 @@
         <v>43.636363636363612</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>44040</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D159">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F159">
         <v>120</v>
@@ -19011,21 +19011,21 @@
         <v>39.757281553398094</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>44040</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160">
         <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F160">
         <v>120</v>
@@ -19051,21 +19051,21 @@
         <v>52.156626506024061</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>44040</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D161">
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F161">
         <v>120</v>
@@ -19091,21 +19091,21 @@
         <v>51.008174386920956</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>43872</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C162" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F162">
         <v>150</v>
@@ -19131,21 +19131,21 @@
         <v>60.177514792899409</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>43872</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F163">
         <v>150</v>
@@ -19171,21 +19171,21 @@
         <v>62.804097311139557</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>43872</v>
       </c>
       <c r="B164" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F164">
         <v>150</v>
@@ -19211,21 +19211,21 @@
         <v>73.15789473684211</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>43872</v>
       </c>
       <c r="B165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D165">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F165">
         <v>150</v>
@@ -19251,21 +19251,21 @@
         <v>74.416342412451328</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>43872</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C166" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D166">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F166">
         <v>150</v>
@@ -19291,21 +19291,21 @@
         <v>73.364928909952695</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>43872</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C167" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D167">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F167">
         <v>150</v>
@@ -19331,21 +19331,21 @@
         <v>72.015915119363413</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>43872</v>
       </c>
       <c r="B168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D168">
         <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F168">
         <v>150</v>
@@ -19371,21 +19371,21 @@
         <v>71.893491124260322</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>43872</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D169">
         <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F169">
         <v>150</v>
@@ -19411,21 +19411,21 @@
         <v>77.430167597765319</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>43899</v>
       </c>
       <c r="B170" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C170" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F170">
         <v>150</v>
@@ -19451,21 +19451,21 @@
         <v>62.16730038022812</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>43899</v>
       </c>
       <c r="B171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C171" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F171">
         <v>150</v>
@@ -19491,21 +19491,21 @@
         <v>63.281249999999986</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>43899</v>
       </c>
       <c r="B172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C172" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F172">
         <v>150</v>
@@ -19531,21 +19531,21 @@
         <v>78.853754940711468</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>43899</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C173" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F173">
         <v>150</v>
@@ -19571,21 +19571,21 @@
         <v>75.427594070695562</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>43899</v>
       </c>
       <c r="B174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C174" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F174">
         <v>150</v>
@@ -19611,21 +19611,21 @@
         <v>78.353948620361592</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>43899</v>
       </c>
       <c r="B175" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F175">
         <v>150</v>
@@ -19651,21 +19651,21 @@
         <v>75.607287449392672</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>43899</v>
       </c>
       <c r="B176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C176" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D176">
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F176">
         <v>150</v>
@@ -19691,21 +19691,21 @@
         <v>79.867549668874176</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>43899</v>
       </c>
       <c r="B177" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C177" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D177">
         <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F177">
         <v>150</v>
@@ -19731,21 +19731,21 @@
         <v>79.186893203883514</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>43965</v>
       </c>
       <c r="B178" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C178" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F178">
         <v>150</v>
@@ -19771,21 +19771,21 @@
         <v>46.11307420494704</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>43965</v>
       </c>
       <c r="B179" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C179" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F179">
         <v>150</v>
@@ -19811,21 +19811,21 @@
         <v>37.305699481865254</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>43965</v>
       </c>
       <c r="B180" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C180" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D180">
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F180">
         <v>150</v>
@@ -19851,21 +19851,21 @@
         <v>56.249999999999979</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>43965</v>
       </c>
       <c r="B181" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D181">
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F181">
         <v>150</v>
@@ -19891,21 +19891,21 @@
         <v>68.041237113402133</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>43965</v>
       </c>
       <c r="B182" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C182" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F182">
         <v>150</v>
@@ -19931,21 +19931,21 @@
         <v>53.899721448468014</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>43965</v>
       </c>
       <c r="B183" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C183" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F183">
         <v>150</v>
@@ -19971,21 +19971,21 @@
         <v>54.255319148936223</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>43965</v>
       </c>
       <c r="B184" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C184" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D184">
         <v>4</v>
       </c>
       <c r="E184" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F184">
         <v>150</v>
@@ -20011,21 +20011,21 @@
         <v>54.655870445344178</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>43965</v>
       </c>
       <c r="B185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C185" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D185">
         <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F185">
         <v>150</v>
@@ -20051,21 +20051,21 @@
         <v>57.507987220447255</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>44040</v>
       </c>
       <c r="B186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C186" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F186">
         <v>150</v>
@@ -20091,21 +20091,21 @@
         <v>28.201634877384219</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>44040</v>
       </c>
       <c r="B187" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F187">
         <v>150</v>
@@ -20131,21 +20131,21 @@
         <v>27.850162866449537</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>44040</v>
       </c>
       <c r="B188" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C188" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D188">
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F188">
         <v>150</v>
@@ -20171,21 +20171,21 @@
         <v>39.071856287425106</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>44040</v>
       </c>
       <c r="B189" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C189" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F189">
         <v>150</v>
@@ -20211,21 +20211,21 @@
         <v>36.869747899159698</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>44040</v>
       </c>
       <c r="B190" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C190" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F190">
         <v>150</v>
@@ -20251,21 +20251,21 @@
         <v>41.086956521739111</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>44040</v>
       </c>
       <c r="B191" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C191" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D191">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F191">
         <v>150</v>
@@ -20291,21 +20291,21 @@
         <v>33.445945945945915</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>44040</v>
       </c>
       <c r="B192" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C192" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D192">
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F192">
         <v>150</v>
@@ -20331,21 +20331,21 @@
         <v>44.60641399416906</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>44040</v>
       </c>
       <c r="B193" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C193" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D193">
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F193">
         <v>150</v>
@@ -20371,21 +20371,21 @@
         <v>42.300000000000047</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>43965</v>
       </c>
       <c r="B194" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C194" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F194">
         <v>180</v>
@@ -20411,21 +20411,21 @@
         <v>44.318181818181763</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>43965</v>
       </c>
       <c r="B195" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C195" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F195">
         <v>180</v>
@@ -20451,21 +20451,21 @@
         <v>48.885793871866341</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>43965</v>
       </c>
       <c r="B196" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C196" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D196">
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F196">
         <v>180</v>
@@ -20491,21 +20491,21 @@
         <v>58.264462809917347</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>43965</v>
       </c>
       <c r="B197" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C197" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D197">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F197">
         <v>180</v>
@@ -20531,21 +20531,21 @@
         <v>64.981949458483712</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>43965</v>
       </c>
       <c r="B198" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D198">
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F198">
         <v>180</v>
@@ -20571,21 +20571,21 @@
         <v>64.90384615384616</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>43965</v>
       </c>
       <c r="B199" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C199" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D199">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F199">
         <v>180</v>
@@ -20611,21 +20611,21 @@
         <v>63.496932515337406</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>43965</v>
       </c>
       <c r="B200" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C200" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D200">
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F200">
         <v>180</v>
@@ -20651,21 +20651,21 @@
         <v>61.363636363636331</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>43965</v>
       </c>
       <c r="B201" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C201" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D201">
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F201">
         <v>180</v>
@@ -20691,21 +20691,21 @@
         <v>60.21897810218983</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>44040</v>
       </c>
       <c r="B202" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C202" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F202">
         <v>180</v>
@@ -20731,21 +20731,21 @@
         <v>34.777517564402842</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>44040</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C203" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F203">
         <v>180</v>
@@ -20771,21 +20771,21 @@
         <v>31.829268292682954</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>44040</v>
       </c>
       <c r="B204" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C204" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F204">
         <v>180</v>
@@ -20811,21 +20811,21 @@
         <v>45.121951219512226</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="12">
         <v>44040</v>
       </c>
       <c r="B205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C205" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F205">
         <v>180</v>
@@ -20851,21 +20851,21 @@
         <v>45.389048991354507</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="12">
         <v>44040</v>
       </c>
       <c r="B206" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C206" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D206">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F206">
         <v>180</v>
@@ -20891,21 +20891,21 @@
         <v>31.542056074766382</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="12">
         <v>44040</v>
       </c>
       <c r="B207" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C207" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D207">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F207">
         <v>180</v>
@@ -20931,21 +20931,21 @@
         <v>36.290322580645189</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="12">
         <v>44040</v>
       </c>
       <c r="B208" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C208" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D208">
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F208">
         <v>180</v>
@@ -20971,21 +20971,21 @@
         <v>48.175182481751875</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="12">
         <v>44040</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C209" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D209">
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F209">
         <v>180</v>
@@ -21011,21 +21011,21 @@
         <v>48.046874999999979</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="12">
         <v>43965</v>
       </c>
       <c r="B210" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C210" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D210">
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F210">
         <v>210</v>
@@ -21051,21 +21051,21 @@
         <v>67.105263157894726</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="12">
         <v>43965</v>
       </c>
       <c r="B211" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C211" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D211">
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F211">
         <v>210</v>
@@ -21091,21 +21091,21 @@
         <v>52.090032154340804</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="12">
         <v>43965</v>
       </c>
       <c r="B212" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C212" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F212">
         <v>210</v>
@@ -21131,21 +21131,21 @@
         <v>47.368421052631618</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="12">
         <v>43965</v>
       </c>
       <c r="B213" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C213" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F213">
         <v>210</v>
@@ -21171,21 +21171,21 @@
         <v>51.639344262295062</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="12">
         <v>43965</v>
       </c>
       <c r="B214" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C214" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D214">
         <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F214">
         <v>210</v>
@@ -21211,21 +21211,21 @@
         <v>52.941176470588282</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>43965</v>
       </c>
       <c r="B215" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C215" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D215">
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F215">
         <v>210</v>
@@ -21251,21 +21251,21 @@
         <v>62.6373626373626</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>43965</v>
       </c>
       <c r="B216" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C216" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D216">
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F216">
         <v>210</v>
@@ -21291,21 +21291,21 @@
         <v>62.376237623762357</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="12">
         <v>43965</v>
       </c>
       <c r="B217" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C217" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D217">
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F217">
         <v>210</v>
@@ -21331,21 +21331,21 @@
         <v>58.396946564885454</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>44040</v>
       </c>
       <c r="B218" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C218" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D218">
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F218">
         <v>210</v>
@@ -21371,21 +21371,21 @@
         <v>32.876712328767098</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="12">
         <v>44040</v>
       </c>
       <c r="B219" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C219" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D219">
         <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F219">
         <v>210</v>
@@ -21411,21 +21411,21 @@
         <v>28.329297820823271</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="12">
         <v>44040</v>
       </c>
       <c r="B220" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C220" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D220">
         <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F220">
         <v>210</v>
@@ -21451,21 +21451,21 @@
         <v>46.739130434782652</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="12">
         <v>44040</v>
       </c>
       <c r="B221" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C221" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D221">
         <v>2</v>
       </c>
       <c r="E221" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F221">
         <v>210</v>
@@ -21491,21 +21491,21 @@
         <v>45.895522388059682</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
         <v>44040</v>
       </c>
       <c r="B222" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C222" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D222">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F222">
         <v>210</v>
@@ -21531,21 +21531,21 @@
         <v>34.430604982206347</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>44040</v>
       </c>
       <c r="B223" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C223" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D223">
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F223">
         <v>210</v>
@@ -21571,21 +21571,21 @@
         <v>31.818181818181849</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="12">
         <v>44040</v>
       </c>
       <c r="B224" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C224" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D224">
         <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F224">
         <v>210</v>
@@ -21611,21 +21611,21 @@
         <v>44.062500000000043</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="12">
         <v>44040</v>
       </c>
       <c r="B225" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C225" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D225">
         <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F225">
         <v>210</v>
@@ -21651,21 +21651,21 @@
         <v>47.104677060133618</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="12">
         <v>44040</v>
       </c>
       <c r="B226" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C226" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D226">
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F226">
         <v>240</v>
@@ -21691,21 +21691,21 @@
         <v>33.812154696132531</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="12">
         <v>44040</v>
       </c>
       <c r="B227" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C227" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D227">
         <v>2</v>
       </c>
       <c r="E227" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F227">
         <v>240</v>
@@ -21731,21 +21731,21 @@
         <v>50.38765008576334</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="12">
         <v>44040</v>
       </c>
       <c r="B228" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C228" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D228">
         <v>2</v>
       </c>
       <c r="E228" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F228">
         <v>240</v>
@@ -21771,21 +21771,21 @@
         <v>45.900000000000041</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="12">
         <v>44040</v>
       </c>
       <c r="B229" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C229" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D229">
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F229">
         <v>240</v>
@@ -21811,21 +21811,21 @@
         <v>33.561290322580618</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="12">
         <v>44040</v>
       </c>
       <c r="B230" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C230" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D230">
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F230">
         <v>240</v>
@@ -21851,21 +21851,21 @@
         <v>35.143851508120683</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="12">
         <v>44040</v>
       </c>
       <c r="B231" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D231">
         <v>4</v>
       </c>
       <c r="E231" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F231">
         <v>240</v>
@@ -21891,21 +21891,21 @@
         <v>43.262068965517223</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="12">
         <v>44040</v>
       </c>
       <c r="B232" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C232" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D232">
         <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F232">
         <v>240</v>
@@ -21931,21 +21931,21 @@
         <v>46.785123966942194</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>44040</v>
       </c>
       <c r="B233" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C233" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D233">
         <v>1</v>
       </c>
       <c r="E233" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F233">
         <v>240</v>
@@ -21969,21 +21969,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>44040</v>
       </c>
       <c r="B234" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C234" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F234">
         <v>270</v>
@@ -22007,21 +22007,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="12">
         <v>44040</v>
       </c>
       <c r="B235" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C235" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F235">
         <v>270</v>
@@ -22045,21 +22045,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="12">
         <v>44040</v>
       </c>
       <c r="B236" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C236" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D236">
         <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F236">
         <v>270</v>
@@ -22083,21 +22083,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="12">
         <v>44040</v>
       </c>
       <c r="B237" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C237" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D237">
         <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F237">
         <v>270</v>
@@ -22121,21 +22121,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>44040</v>
       </c>
       <c r="B238" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C238" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D238">
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F238">
         <v>270</v>
@@ -22159,21 +22159,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="12">
         <v>44040</v>
       </c>
       <c r="B239" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C239" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D239">
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F239">
         <v>270</v>
@@ -22197,21 +22197,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>44040</v>
       </c>
       <c r="B240" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C240" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D240">
         <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F240">
         <v>270</v>
@@ -22235,21 +22235,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>44040</v>
       </c>
       <c r="B241" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C241" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D241">
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F241">
         <v>270</v>
@@ -22273,21 +22273,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="12">
         <v>44040</v>
       </c>
       <c r="B242" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D242">
         <v>1</v>
       </c>
       <c r="E242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F242">
         <v>300</v>
@@ -22311,21 +22311,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="12">
         <v>44040</v>
       </c>
       <c r="B243" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C243" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D243">
         <v>1</v>
       </c>
       <c r="E243" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F243">
         <v>300</v>
@@ -22349,21 +22349,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="12">
         <v>44040</v>
       </c>
       <c r="B244" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C244" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D244">
         <v>2</v>
       </c>
       <c r="E244" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F244">
         <v>300</v>
@@ -22387,21 +22387,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="12">
         <v>44040</v>
       </c>
       <c r="B245" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C245" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D245">
         <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F245">
         <v>300</v>
@@ -22425,21 +22425,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
         <v>44040</v>
       </c>
       <c r="B246" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C246" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D246">
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F246">
         <v>300</v>
@@ -22463,21 +22463,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="12">
         <v>44040</v>
       </c>
       <c r="B247" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C247" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D247">
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F247">
         <v>300</v>
@@ -22501,21 +22501,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="12">
         <v>44040</v>
       </c>
       <c r="B248" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C248" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D248">
         <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F248">
         <v>300</v>
@@ -22539,21 +22539,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="12">
         <v>44040</v>
       </c>
       <c r="B249" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C249" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D249">
         <v>4</v>
       </c>
       <c r="E249" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F249">
         <v>300</v>
@@ -22577,21 +22577,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="12">
         <v>44040</v>
       </c>
       <c r="B250" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C250" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D250">
         <v>1</v>
       </c>
       <c r="E250" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F250">
         <v>330</v>
@@ -22615,21 +22615,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="12">
         <v>44040</v>
       </c>
       <c r="B251" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C251" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D251">
         <v>1</v>
       </c>
       <c r="E251" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F251">
         <v>330</v>
@@ -22653,21 +22653,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="12">
         <v>44040</v>
       </c>
       <c r="B252" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C252" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D252">
         <v>2</v>
       </c>
       <c r="E252" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F252">
         <v>330</v>
@@ -22691,21 +22691,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="12">
         <v>44040</v>
       </c>
       <c r="B253" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C253" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D253">
         <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F253">
         <v>330</v>
@@ -22729,21 +22729,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>44040</v>
       </c>
       <c r="B254" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C254" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D254">
         <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F254">
         <v>330</v>
@@ -22767,21 +22767,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="12">
         <v>44040</v>
       </c>
       <c r="B255" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C255" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D255">
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F255">
         <v>330</v>
@@ -22805,21 +22805,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="12">
         <v>44040</v>
       </c>
       <c r="B256" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C256" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D256">
         <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F256">
         <v>330</v>
@@ -22843,21 +22843,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="12">
         <v>44040</v>
       </c>
       <c r="B257" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C257" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D257">
         <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F257">
         <v>360</v>
@@ -22881,21 +22881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="12">
         <v>44040</v>
       </c>
       <c r="B258" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C258" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D258">
         <v>2</v>
       </c>
       <c r="E258" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F258">
         <v>360</v>
@@ -22919,21 +22919,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="12">
         <v>44040</v>
       </c>
       <c r="B259" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C259" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D259">
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F259">
         <v>360</v>
@@ -22957,21 +22957,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="12">
         <v>44040</v>
       </c>
       <c r="B260" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C260" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D260">
         <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F260">
         <v>360</v>
@@ -22995,21 +22995,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="12">
         <v>44040</v>
       </c>
       <c r="B261" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C261" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D261">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F261">
         <v>360</v>
@@ -23033,21 +23033,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="12">
         <v>44040</v>
       </c>
       <c r="B262" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C262" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D262">
         <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F262">
         <v>360</v>
@@ -23071,21 +23071,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="12">
         <v>44040</v>
       </c>
       <c r="B263" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D263">
         <v>4</v>
       </c>
       <c r="E263" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F263">
         <v>360</v>
@@ -23109,21 +23109,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="12">
         <v>44040</v>
       </c>
       <c r="B264" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C264" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D264">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F264">
         <v>390</v>

--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA7AEC8-97F2-4C05-9153-E7C2AD0EC49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6BD142-BE20-4DE8-A271-18D514FE2089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{DC1A8874-CF5D-4DF3-B66F-7CA3C73D11F3}"/>
   </bookViews>
@@ -219,19 +219,10 @@
     <t>dw_OB</t>
   </si>
   <si>
-    <t>Cotton.Fruit.Nconc</t>
-  </si>
-  <si>
-    <t>Cotton.Fruit.N</t>
-  </si>
-  <si>
     <t>Cotton.AboveGround.Wt</t>
   </si>
   <si>
     <t>Cotton.AboveGround.N</t>
-  </si>
-  <si>
-    <t>Cotton.Fruit.HarvestIndex</t>
   </si>
   <si>
     <t>Cotton.SeedCotton.Wt</t>
@@ -262,9 +253,6 @@
   </si>
   <si>
     <t>AboveGround.Partitioning.Leaf</t>
-  </si>
-  <si>
-    <t>AboveGround.Partitioning.Fruit</t>
   </si>
   <si>
     <t>Cotton.Sites</t>
@@ -712,6 +700,18 @@
   </si>
   <si>
     <t>Cotton.Leaf.SpecificAreaCanopy</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.NConc</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.N</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.HarvestIndex</t>
+  </si>
+  <si>
+    <t>AboveGround.Partitioning.Boll</t>
   </si>
 </sst>
 </file>
@@ -5859,7 +5859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BBC4D-1054-4A81-B133-16FD0890ACC7}">
   <dimension ref="A1:FZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6159,7 +6161,7 @@
         <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AR1" t="s">
         <v>42</v>
@@ -6210,378 +6212,378 @@
         <v>57</v>
       </c>
       <c r="BH1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM1" t="s">
         <v>221</v>
       </c>
-      <c r="BI1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY1" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BZ1" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CA1" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CB1" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CC1" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CD1" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CE1" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CF1" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CG1" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CH1" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CI1" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CJ1" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CK1" t="s">
         <v>82</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CL1" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CM1" t="s">
         <v>84</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CN1" t="s">
         <v>85</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CO1" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CP1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR1" t="s">
         <v>87</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CS1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX1" t="s">
         <v>88</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CY1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>187</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DD1" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="DE1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>191</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>192</v>
+      </c>
+      <c r="DJ1" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CR1" t="s">
+      <c r="DK1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>204</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DP1" t="s">
         <v>91</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="DQ1" t="s">
         <v>169</v>
       </c>
-      <c r="CT1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CX1" t="s">
+      <c r="DR1" t="s">
+        <v>205</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DV1" t="s">
         <v>92</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DW1" t="s">
         <v>170</v>
       </c>
-      <c r="CZ1" t="s">
-        <v>191</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>192</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>193</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>194</v>
-      </c>
-      <c r="DD1" t="s">
+      <c r="DX1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>208</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>198</v>
+      </c>
+      <c r="EB1" t="s">
         <v>93</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="EC1" t="s">
         <v>171</v>
       </c>
-      <c r="DF1" t="s">
-        <v>219</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>195</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>196</v>
-      </c>
-      <c r="DJ1" t="s">
+      <c r="ED1" t="s">
+        <v>209</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>210</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>199</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>200</v>
+      </c>
+      <c r="EH1" t="s">
         <v>94</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="EI1" t="s">
         <v>172</v>
       </c>
-      <c r="DL1" t="s">
-        <v>207</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>208</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>197</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>198</v>
-      </c>
-      <c r="DP1" t="s">
+      <c r="EJ1" t="s">
+        <v>211</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>212</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>201</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>202</v>
+      </c>
+      <c r="EN1" t="s">
         <v>95</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="EO1" t="s">
         <v>173</v>
       </c>
-      <c r="DR1" t="s">
-        <v>209</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>210</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>199</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>200</v>
-      </c>
-      <c r="DV1" t="s">
+      <c r="EP1" t="s">
+        <v>213</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>214</v>
+      </c>
+      <c r="ER1" t="s">
         <v>96</v>
       </c>
-      <c r="DW1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>212</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>201</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>202</v>
-      </c>
-      <c r="EB1" t="s">
+      <c r="ES1" t="s">
         <v>97</v>
       </c>
-      <c r="EC1" t="s">
-        <v>175</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>214</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>203</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EH1" t="s">
+      <c r="ET1" t="s">
         <v>98</v>
       </c>
-      <c r="EI1" t="s">
-        <v>176</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>215</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>216</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>205</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>206</v>
-      </c>
-      <c r="EN1" t="s">
+      <c r="EU1" t="s">
         <v>99</v>
       </c>
-      <c r="EO1" t="s">
-        <v>177</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>217</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>218</v>
-      </c>
-      <c r="ER1" t="s">
+      <c r="EV1" t="s">
         <v>100</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="EW1" t="s">
         <v>101</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EX1" t="s">
         <v>102</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EY1" t="s">
         <v>103</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EZ1" t="s">
         <v>104</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="FA1" t="s">
         <v>105</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="FB1" t="s">
         <v>106</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FC1" t="s">
         <v>107</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FD1" t="s">
         <v>108</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FE1" t="s">
         <v>109</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FF1" t="s">
         <v>110</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FG1" t="s">
         <v>111</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FH1" t="s">
         <v>112</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FI1" t="s">
         <v>113</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FJ1" t="s">
         <v>114</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FK1" t="s">
         <v>115</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FL1" t="s">
         <v>116</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FM1" t="s">
         <v>117</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FN1" t="s">
         <v>118</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FO1" t="s">
         <v>119</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FP1" t="s">
         <v>120</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FQ1" t="s">
         <v>121</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FR1" t="s">
         <v>122</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FS1" t="s">
         <v>123</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FT1" t="s">
         <v>124</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FU1" t="s">
         <v>125</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FV1" t="s">
         <v>126</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FW1" t="s">
         <v>127</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FX1" t="s">
         <v>128</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FY1" t="s">
         <v>129</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FZ1" t="s">
         <v>130</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>131</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>132</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>133</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
@@ -6591,16 +6593,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I2" s="6">
         <v>10.5</v>
@@ -6796,7 +6798,7 @@
     </row>
     <row r="3" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
@@ -6809,7 +6811,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I3" s="6">
         <v>10.5</v>
@@ -7105,7 +7107,7 @@
     </row>
     <row r="4" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
@@ -7118,7 +7120,7 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I4" s="6">
         <v>10.5</v>
@@ -7318,7 +7320,7 @@
     </row>
     <row r="5" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
@@ -7331,7 +7333,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I5" s="6">
         <v>10.5</v>
@@ -7531,7 +7533,7 @@
     </row>
     <row r="6" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -7541,16 +7543,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G6" s="2">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I6" s="6">
         <v>10.5</v>
@@ -7818,7 +7820,7 @@
     </row>
     <row r="7" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
@@ -7831,7 +7833,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I7" s="6">
         <v>10.5</v>
@@ -8031,7 +8033,7 @@
     </row>
     <row r="8" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
@@ -8044,7 +8046,7 @@
         <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I8" s="6">
         <v>10.5</v>
@@ -8256,7 +8258,7 @@
     </row>
     <row r="9" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
@@ -8266,16 +8268,16 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G9" s="2">
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I9" s="6">
         <v>10.5</v>
@@ -8455,7 +8457,7 @@
     </row>
     <row r="10" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -8468,7 +8470,7 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I10" s="6">
         <v>10.5</v>
@@ -8683,7 +8685,7 @@
     </row>
     <row r="11" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
@@ -8696,7 +8698,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I11" s="6">
         <v>10.5</v>
@@ -8876,7 +8878,7 @@
     </row>
     <row r="12" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
@@ -8889,7 +8891,7 @@
         <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I12" s="6">
         <v>10.5</v>
@@ -9086,7 +9088,7 @@
     </row>
     <row r="13" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
@@ -9099,7 +9101,7 @@
         <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I13" s="6">
         <v>10.5</v>
@@ -9300,7 +9302,7 @@
     </row>
     <row r="14" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
@@ -9310,16 +9312,16 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G14" s="2">
         <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I14" s="6">
         <v>10.5</v>
@@ -9520,7 +9522,7 @@
     </row>
     <row r="15" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -9533,7 +9535,7 @@
         <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I15" s="6">
         <v>10.5</v>
@@ -9734,7 +9736,7 @@
     </row>
     <row r="16" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -9747,7 +9749,7 @@
         <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I16" s="6">
         <v>10.5</v>
@@ -9983,7 +9985,7 @@
     </row>
     <row r="17" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -9996,7 +9998,7 @@
         <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I17" s="6">
         <v>10.5</v>
@@ -10325,7 +10327,7 @@
     </row>
     <row r="18" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -10335,16 +10337,16 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G18" s="2">
         <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I18" s="6">
         <v>10.5</v>
@@ -10540,7 +10542,7 @@
     </row>
     <row r="19" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -10553,7 +10555,7 @@
         <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I19" s="6">
         <v>10.5</v>
@@ -10783,7 +10785,7 @@
     </row>
     <row r="20" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -10793,16 +10795,16 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G20" s="2">
         <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I20" s="6">
         <v>10.5</v>
@@ -10993,7 +10995,7 @@
     </row>
     <row r="21" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -11003,16 +11005,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G21" s="2">
         <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I21" s="6">
         <v>10.5</v>
@@ -11221,7 +11223,7 @@
     </row>
     <row r="22" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -11234,7 +11236,7 @@
         <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I22" s="6">
         <v>10.5</v>
@@ -11621,40 +11623,40 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" t="s">
-        <v>156</v>
-      </c>
       <c r="L1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -11662,16 +11664,16 @@
         <v>43872</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -11697,46 +11699,46 @@
         <v>27.815742397137726</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2" t="s">
+        <v>163</v>
+      </c>
+      <c r="S2" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U2" t="s">
+        <v>179</v>
+      </c>
+      <c r="X2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="P2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>166</v>
-      </c>
-      <c r="R2" t="s">
-        <v>167</v>
-      </c>
-      <c r="S2" t="s">
-        <v>181</v>
-      </c>
-      <c r="T2" t="s">
-        <v>182</v>
-      </c>
-      <c r="U2" t="s">
-        <v>183</v>
-      </c>
-      <c r="X2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -11744,16 +11746,16 @@
         <v>43872</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -11827,16 +11829,16 @@
         <v>43872</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -11905,16 +11907,16 @@
         <v>43872</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -11983,16 +11985,16 @@
         <v>43872</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -12061,16 +12063,16 @@
         <v>43872</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -12139,16 +12141,16 @@
         <v>43872</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -12217,16 +12219,16 @@
         <v>43872</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -12300,16 +12302,16 @@
         <v>43899</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -12378,16 +12380,16 @@
         <v>43899</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -12456,16 +12458,16 @@
         <v>43899</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -12534,16 +12536,16 @@
         <v>43899</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -12612,16 +12614,16 @@
         <v>43899</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -12690,16 +12692,16 @@
         <v>43899</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -12773,16 +12775,16 @@
         <v>43899</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -12851,16 +12853,16 @@
         <v>43899</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -12929,16 +12931,16 @@
         <v>43965</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -13007,16 +13009,16 @@
         <v>43965</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -13085,16 +13087,16 @@
         <v>43965</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -13163,16 +13165,16 @@
         <v>43965</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F21">
         <v>15</v>
@@ -13241,16 +13243,16 @@
         <v>43965</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -13319,16 +13321,16 @@
         <v>43965</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -13402,16 +13404,16 @@
         <v>43965</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F24">
         <v>15</v>
@@ -13480,16 +13482,16 @@
         <v>43965</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F25">
         <v>15</v>
@@ -13558,16 +13560,16 @@
         <v>44040</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F26">
         <v>15</v>
@@ -13636,16 +13638,16 @@
         <v>44040</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -13714,16 +13716,16 @@
         <v>44040</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F28">
         <v>15</v>
@@ -13792,16 +13794,16 @@
         <v>44040</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F29">
         <v>15</v>
@@ -13870,16 +13872,16 @@
         <v>44040</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -13948,16 +13950,16 @@
         <v>44040</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -14026,16 +14028,16 @@
         <v>44040</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -14088,16 +14090,16 @@
         <v>44040</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F33">
         <v>15</v>
@@ -14150,16 +14152,16 @@
         <v>43872</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F34">
         <v>30</v>
@@ -14212,16 +14214,16 @@
         <v>43872</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F35">
         <v>30</v>
@@ -14274,16 +14276,16 @@
         <v>43872</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F36">
         <v>30</v>
@@ -14336,16 +14338,16 @@
         <v>43872</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F37">
         <v>30</v>
@@ -14376,16 +14378,16 @@
         <v>43872</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F38">
         <v>30</v>
@@ -14416,16 +14418,16 @@
         <v>43872</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F39">
         <v>30</v>
@@ -14456,16 +14458,16 @@
         <v>43872</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F40">
         <v>30</v>
@@ -14496,16 +14498,16 @@
         <v>43872</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F41">
         <v>30</v>
@@ -14536,16 +14538,16 @@
         <v>43899</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F42">
         <v>30</v>
@@ -14576,16 +14578,16 @@
         <v>43899</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F43">
         <v>30</v>
@@ -14616,16 +14618,16 @@
         <v>43899</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F44">
         <v>30</v>
@@ -14656,16 +14658,16 @@
         <v>43899</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F45">
         <v>30</v>
@@ -14696,16 +14698,16 @@
         <v>43899</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -14736,16 +14738,16 @@
         <v>43899</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F47">
         <v>30</v>
@@ -14776,16 +14778,16 @@
         <v>43899</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F48">
         <v>30</v>
@@ -14816,16 +14818,16 @@
         <v>43899</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F49">
         <v>30</v>
@@ -14856,16 +14858,16 @@
         <v>43965</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F50">
         <v>30</v>
@@ -14896,16 +14898,16 @@
         <v>43965</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -14936,16 +14938,16 @@
         <v>43965</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F52">
         <v>30</v>
@@ -14976,16 +14978,16 @@
         <v>43965</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F53">
         <v>30</v>
@@ -15016,16 +15018,16 @@
         <v>43965</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F54">
         <v>30</v>
@@ -15056,16 +15058,16 @@
         <v>43965</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F55">
         <v>30</v>
@@ -15096,16 +15098,16 @@
         <v>43965</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F56">
         <v>30</v>
@@ -15136,16 +15138,16 @@
         <v>43965</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F57">
         <v>30</v>
@@ -15176,16 +15178,16 @@
         <v>44040</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F58">
         <v>30</v>
@@ -15216,16 +15218,16 @@
         <v>44040</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F59">
         <v>30</v>
@@ -15256,16 +15258,16 @@
         <v>44040</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F60">
         <v>30</v>
@@ -15296,16 +15298,16 @@
         <v>44040</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F61">
         <v>30</v>
@@ -15336,16 +15338,16 @@
         <v>44040</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F62">
         <v>30</v>
@@ -15376,16 +15378,16 @@
         <v>44040</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F63">
         <v>30</v>
@@ -15416,16 +15418,16 @@
         <v>44040</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F64">
         <v>30</v>
@@ -15456,16 +15458,16 @@
         <v>44040</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F65">
         <v>30</v>
@@ -15496,16 +15498,16 @@
         <v>43872</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F66">
         <v>60</v>
@@ -15536,16 +15538,16 @@
         <v>43872</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F67">
         <v>60</v>
@@ -15576,16 +15578,16 @@
         <v>43872</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F68">
         <v>60</v>
@@ -15616,16 +15618,16 @@
         <v>43872</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F69">
         <v>60</v>
@@ -15656,16 +15658,16 @@
         <v>43872</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F70">
         <v>60</v>
@@ -15696,16 +15698,16 @@
         <v>43872</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F71">
         <v>60</v>
@@ -15736,16 +15738,16 @@
         <v>43872</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F72">
         <v>60</v>
@@ -15776,16 +15778,16 @@
         <v>43872</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D73">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F73">
         <v>60</v>
@@ -15816,16 +15818,16 @@
         <v>43899</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F74">
         <v>60</v>
@@ -15856,16 +15858,16 @@
         <v>43899</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F75">
         <v>60</v>
@@ -15896,16 +15898,16 @@
         <v>43899</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F76">
         <v>60</v>
@@ -15936,16 +15938,16 @@
         <v>43899</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F77">
         <v>60</v>
@@ -15976,16 +15978,16 @@
         <v>43899</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F78">
         <v>60</v>
@@ -16016,16 +16018,16 @@
         <v>43899</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F79">
         <v>60</v>
@@ -16056,16 +16058,16 @@
         <v>43899</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F80">
         <v>60</v>
@@ -16096,16 +16098,16 @@
         <v>43899</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D81">
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F81">
         <v>60</v>
@@ -16136,16 +16138,16 @@
         <v>43965</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F82">
         <v>60</v>
@@ -16176,16 +16178,16 @@
         <v>43965</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F83">
         <v>60</v>
@@ -16216,16 +16218,16 @@
         <v>43965</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F84">
         <v>60</v>
@@ -16256,16 +16258,16 @@
         <v>43965</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F85">
         <v>60</v>
@@ -16296,16 +16298,16 @@
         <v>43965</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F86">
         <v>60</v>
@@ -16336,16 +16338,16 @@
         <v>43965</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F87">
         <v>60</v>
@@ -16376,16 +16378,16 @@
         <v>43965</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D88">
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F88">
         <v>60</v>
@@ -16416,16 +16418,16 @@
         <v>43965</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F89">
         <v>60</v>
@@ -16456,16 +16458,16 @@
         <v>44040</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F90">
         <v>60</v>
@@ -16496,16 +16498,16 @@
         <v>44040</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F91">
         <v>60</v>
@@ -16536,16 +16538,16 @@
         <v>44040</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F92">
         <v>60</v>
@@ -16576,16 +16578,16 @@
         <v>44040</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F93">
         <v>60</v>
@@ -16616,16 +16618,16 @@
         <v>44040</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C94" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F94">
         <v>60</v>
@@ -16656,16 +16658,16 @@
         <v>44040</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F95">
         <v>60</v>
@@ -16696,16 +16698,16 @@
         <v>44040</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F96">
         <v>60</v>
@@ -16736,16 +16738,16 @@
         <v>44040</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F97">
         <v>60</v>
@@ -16776,16 +16778,16 @@
         <v>43872</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F98">
         <v>90</v>
@@ -16816,16 +16818,16 @@
         <v>43872</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F99">
         <v>90</v>
@@ -16856,16 +16858,16 @@
         <v>43872</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F100">
         <v>90</v>
@@ -16896,16 +16898,16 @@
         <v>43872</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F101">
         <v>90</v>
@@ -16936,16 +16938,16 @@
         <v>43872</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F102">
         <v>90</v>
@@ -16976,16 +16978,16 @@
         <v>43872</v>
       </c>
       <c r="B103" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F103">
         <v>90</v>
@@ -17016,16 +17018,16 @@
         <v>43872</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D104">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F104">
         <v>90</v>
@@ -17056,16 +17058,16 @@
         <v>43872</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F105">
         <v>90</v>
@@ -17096,16 +17098,16 @@
         <v>43899</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F106">
         <v>90</v>
@@ -17136,16 +17138,16 @@
         <v>43899</v>
       </c>
       <c r="B107" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C107" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F107">
         <v>90</v>
@@ -17176,16 +17178,16 @@
         <v>43899</v>
       </c>
       <c r="B108" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F108">
         <v>90</v>
@@ -17216,16 +17218,16 @@
         <v>43899</v>
       </c>
       <c r="B109" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F109">
         <v>90</v>
@@ -17256,16 +17258,16 @@
         <v>43899</v>
       </c>
       <c r="B110" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C110" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F110">
         <v>90</v>
@@ -17296,16 +17298,16 @@
         <v>43899</v>
       </c>
       <c r="B111" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F111">
         <v>90</v>
@@ -17336,16 +17338,16 @@
         <v>43899</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F112">
         <v>90</v>
@@ -17376,16 +17378,16 @@
         <v>43899</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F113">
         <v>90</v>
@@ -17416,16 +17418,16 @@
         <v>43965</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F114">
         <v>90</v>
@@ -17456,16 +17458,16 @@
         <v>43965</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C115" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F115">
         <v>90</v>
@@ -17496,16 +17498,16 @@
         <v>43965</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C116" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F116">
         <v>90</v>
@@ -17536,16 +17538,16 @@
         <v>43965</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C117" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F117">
         <v>90</v>
@@ -17576,16 +17578,16 @@
         <v>43965</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F118">
         <v>90</v>
@@ -17616,16 +17618,16 @@
         <v>43965</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F119">
         <v>90</v>
@@ -17656,16 +17658,16 @@
         <v>43965</v>
       </c>
       <c r="B120" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D120">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F120">
         <v>90</v>
@@ -17696,16 +17698,16 @@
         <v>43965</v>
       </c>
       <c r="B121" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D121">
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F121">
         <v>90</v>
@@ -17736,16 +17738,16 @@
         <v>44040</v>
       </c>
       <c r="B122" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C122" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F122">
         <v>90</v>
@@ -17776,16 +17778,16 @@
         <v>44040</v>
       </c>
       <c r="B123" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F123">
         <v>90</v>
@@ -17816,16 +17818,16 @@
         <v>44040</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F124">
         <v>90</v>
@@ -17856,16 +17858,16 @@
         <v>44040</v>
       </c>
       <c r="B125" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F125">
         <v>90</v>
@@ -17896,16 +17898,16 @@
         <v>44040</v>
       </c>
       <c r="B126" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C126" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D126">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F126">
         <v>90</v>
@@ -17936,16 +17938,16 @@
         <v>44040</v>
       </c>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C127" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F127">
         <v>90</v>
@@ -17976,16 +17978,16 @@
         <v>44040</v>
       </c>
       <c r="B128" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D128">
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F128">
         <v>90</v>
@@ -18016,16 +18018,16 @@
         <v>44040</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C129" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D129">
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F129">
         <v>90</v>
@@ -18056,16 +18058,16 @@
         <v>43872</v>
       </c>
       <c r="B130" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F130">
         <v>120</v>
@@ -18096,16 +18098,16 @@
         <v>43872</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C131" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F131">
         <v>120</v>
@@ -18136,16 +18138,16 @@
         <v>43872</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C132" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F132">
         <v>120</v>
@@ -18176,16 +18178,16 @@
         <v>43872</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D133">
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F133">
         <v>120</v>
@@ -18216,16 +18218,16 @@
         <v>43872</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D134">
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F134">
         <v>120</v>
@@ -18256,16 +18258,16 @@
         <v>43872</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C135" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F135">
         <v>120</v>
@@ -18296,16 +18298,16 @@
         <v>43872</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C136" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D136">
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F136">
         <v>120</v>
@@ -18336,16 +18338,16 @@
         <v>43872</v>
       </c>
       <c r="B137" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D137">
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F137">
         <v>120</v>
@@ -18376,16 +18378,16 @@
         <v>43899</v>
       </c>
       <c r="B138" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C138" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F138">
         <v>120</v>
@@ -18416,16 +18418,16 @@
         <v>43899</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C139" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F139">
         <v>120</v>
@@ -18456,16 +18458,16 @@
         <v>43899</v>
       </c>
       <c r="B140" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C140" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D140">
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F140">
         <v>120</v>
@@ -18496,16 +18498,16 @@
         <v>43899</v>
       </c>
       <c r="B141" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C141" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F141">
         <v>120</v>
@@ -18536,16 +18538,16 @@
         <v>43899</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D142">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F142">
         <v>120</v>
@@ -18576,16 +18578,16 @@
         <v>43899</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C143" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D143">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F143">
         <v>120</v>
@@ -18616,16 +18618,16 @@
         <v>43899</v>
       </c>
       <c r="B144" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D144">
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F144">
         <v>120</v>
@@ -18656,16 +18658,16 @@
         <v>43899</v>
       </c>
       <c r="B145" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D145">
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F145">
         <v>120</v>
@@ -18696,16 +18698,16 @@
         <v>43965</v>
       </c>
       <c r="B146" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F146">
         <v>120</v>
@@ -18736,16 +18738,16 @@
         <v>43965</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F147">
         <v>120</v>
@@ -18776,16 +18778,16 @@
         <v>43965</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C148" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D148">
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F148">
         <v>120</v>
@@ -18816,16 +18818,16 @@
         <v>43965</v>
       </c>
       <c r="B149" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C149" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D149">
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F149">
         <v>120</v>
@@ -18856,16 +18858,16 @@
         <v>43965</v>
       </c>
       <c r="B150" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F150">
         <v>120</v>
@@ -18896,16 +18898,16 @@
         <v>43965</v>
       </c>
       <c r="B151" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D151">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F151">
         <v>120</v>
@@ -18936,16 +18938,16 @@
         <v>43965</v>
       </c>
       <c r="B152" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C152" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D152">
         <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F152">
         <v>120</v>
@@ -18976,16 +18978,16 @@
         <v>43965</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C153" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D153">
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F153">
         <v>120</v>
@@ -19016,16 +19018,16 @@
         <v>44040</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C154" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F154">
         <v>120</v>
@@ -19056,16 +19058,16 @@
         <v>44040</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F155">
         <v>120</v>
@@ -19096,16 +19098,16 @@
         <v>44040</v>
       </c>
       <c r="B156" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F156">
         <v>120</v>
@@ -19136,16 +19138,16 @@
         <v>44040</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F157">
         <v>120</v>
@@ -19176,16 +19178,16 @@
         <v>44040</v>
       </c>
       <c r="B158" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F158">
         <v>120</v>
@@ -19216,16 +19218,16 @@
         <v>44040</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D159">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F159">
         <v>120</v>
@@ -19256,16 +19258,16 @@
         <v>44040</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D160">
         <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F160">
         <v>120</v>
@@ -19296,16 +19298,16 @@
         <v>44040</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D161">
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F161">
         <v>120</v>
@@ -19336,16 +19338,16 @@
         <v>43872</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C162" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F162">
         <v>150</v>
@@ -19376,16 +19378,16 @@
         <v>43872</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C163" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F163">
         <v>150</v>
@@ -19416,16 +19418,16 @@
         <v>43872</v>
       </c>
       <c r="B164" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C164" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F164">
         <v>150</v>
@@ -19456,16 +19458,16 @@
         <v>43872</v>
       </c>
       <c r="B165" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C165" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D165">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F165">
         <v>150</v>
@@ -19496,16 +19498,16 @@
         <v>43872</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C166" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D166">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F166">
         <v>150</v>
@@ -19536,16 +19538,16 @@
         <v>43872</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C167" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D167">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F167">
         <v>150</v>
@@ -19576,16 +19578,16 @@
         <v>43872</v>
       </c>
       <c r="B168" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C168" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D168">
         <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F168">
         <v>150</v>
@@ -19616,16 +19618,16 @@
         <v>43872</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C169" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D169">
         <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F169">
         <v>150</v>
@@ -19656,16 +19658,16 @@
         <v>43899</v>
       </c>
       <c r="B170" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C170" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F170">
         <v>150</v>
@@ -19696,16 +19698,16 @@
         <v>43899</v>
       </c>
       <c r="B171" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C171" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F171">
         <v>150</v>
@@ -19736,16 +19738,16 @@
         <v>43899</v>
       </c>
       <c r="B172" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C172" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F172">
         <v>150</v>
@@ -19776,16 +19778,16 @@
         <v>43899</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C173" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F173">
         <v>150</v>
@@ -19816,16 +19818,16 @@
         <v>43899</v>
       </c>
       <c r="B174" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C174" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F174">
         <v>150</v>
@@ -19856,16 +19858,16 @@
         <v>43899</v>
       </c>
       <c r="B175" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C175" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F175">
         <v>150</v>
@@ -19896,16 +19898,16 @@
         <v>43899</v>
       </c>
       <c r="B176" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C176" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D176">
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F176">
         <v>150</v>
@@ -19936,16 +19938,16 @@
         <v>43899</v>
       </c>
       <c r="B177" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C177" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D177">
         <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F177">
         <v>150</v>
@@ -19976,16 +19978,16 @@
         <v>43965</v>
       </c>
       <c r="B178" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C178" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F178">
         <v>150</v>
@@ -20016,16 +20018,16 @@
         <v>43965</v>
       </c>
       <c r="B179" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C179" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F179">
         <v>150</v>
@@ -20056,16 +20058,16 @@
         <v>43965</v>
       </c>
       <c r="B180" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C180" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D180">
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F180">
         <v>150</v>
@@ -20096,16 +20098,16 @@
         <v>43965</v>
       </c>
       <c r="B181" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D181">
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F181">
         <v>150</v>
@@ -20136,16 +20138,16 @@
         <v>43965</v>
       </c>
       <c r="B182" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C182" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F182">
         <v>150</v>
@@ -20176,16 +20178,16 @@
         <v>43965</v>
       </c>
       <c r="B183" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C183" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F183">
         <v>150</v>
@@ -20216,16 +20218,16 @@
         <v>43965</v>
       </c>
       <c r="B184" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C184" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D184">
         <v>4</v>
       </c>
       <c r="E184" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F184">
         <v>150</v>
@@ -20256,16 +20258,16 @@
         <v>43965</v>
       </c>
       <c r="B185" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C185" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D185">
         <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F185">
         <v>150</v>
@@ -20296,16 +20298,16 @@
         <v>44040</v>
       </c>
       <c r="B186" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C186" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F186">
         <v>150</v>
@@ -20336,16 +20338,16 @@
         <v>44040</v>
       </c>
       <c r="B187" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C187" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F187">
         <v>150</v>
@@ -20376,16 +20378,16 @@
         <v>44040</v>
       </c>
       <c r="B188" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C188" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D188">
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F188">
         <v>150</v>
@@ -20416,16 +20418,16 @@
         <v>44040</v>
       </c>
       <c r="B189" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C189" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F189">
         <v>150</v>
@@ -20456,16 +20458,16 @@
         <v>44040</v>
       </c>
       <c r="B190" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C190" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F190">
         <v>150</v>
@@ -20496,16 +20498,16 @@
         <v>44040</v>
       </c>
       <c r="B191" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C191" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D191">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F191">
         <v>150</v>
@@ -20536,16 +20538,16 @@
         <v>44040</v>
       </c>
       <c r="B192" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C192" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D192">
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F192">
         <v>150</v>
@@ -20576,16 +20578,16 @@
         <v>44040</v>
       </c>
       <c r="B193" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C193" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D193">
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F193">
         <v>150</v>
@@ -20616,16 +20618,16 @@
         <v>43965</v>
       </c>
       <c r="B194" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C194" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F194">
         <v>180</v>
@@ -20656,16 +20658,16 @@
         <v>43965</v>
       </c>
       <c r="B195" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C195" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F195">
         <v>180</v>
@@ -20696,16 +20698,16 @@
         <v>43965</v>
       </c>
       <c r="B196" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C196" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D196">
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F196">
         <v>180</v>
@@ -20736,16 +20738,16 @@
         <v>43965</v>
       </c>
       <c r="B197" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C197" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D197">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F197">
         <v>180</v>
@@ -20776,16 +20778,16 @@
         <v>43965</v>
       </c>
       <c r="B198" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C198" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D198">
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F198">
         <v>180</v>
@@ -20816,16 +20818,16 @@
         <v>43965</v>
       </c>
       <c r="B199" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C199" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D199">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F199">
         <v>180</v>
@@ -20856,16 +20858,16 @@
         <v>43965</v>
       </c>
       <c r="B200" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C200" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D200">
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F200">
         <v>180</v>
@@ -20896,16 +20898,16 @@
         <v>43965</v>
       </c>
       <c r="B201" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C201" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D201">
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F201">
         <v>180</v>
@@ -20936,16 +20938,16 @@
         <v>44040</v>
       </c>
       <c r="B202" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C202" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F202">
         <v>180</v>
@@ -20976,16 +20978,16 @@
         <v>44040</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C203" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F203">
         <v>180</v>
@@ -21016,16 +21018,16 @@
         <v>44040</v>
       </c>
       <c r="B204" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C204" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F204">
         <v>180</v>
@@ -21056,16 +21058,16 @@
         <v>44040</v>
       </c>
       <c r="B205" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C205" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F205">
         <v>180</v>
@@ -21096,16 +21098,16 @@
         <v>44040</v>
       </c>
       <c r="B206" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C206" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D206">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F206">
         <v>180</v>
@@ -21136,16 +21138,16 @@
         <v>44040</v>
       </c>
       <c r="B207" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C207" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D207">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F207">
         <v>180</v>
@@ -21176,16 +21178,16 @@
         <v>44040</v>
       </c>
       <c r="B208" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C208" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D208">
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F208">
         <v>180</v>
@@ -21216,16 +21218,16 @@
         <v>44040</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C209" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D209">
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F209">
         <v>180</v>
@@ -21256,16 +21258,16 @@
         <v>43965</v>
       </c>
       <c r="B210" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C210" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D210">
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F210">
         <v>210</v>
@@ -21296,16 +21298,16 @@
         <v>43965</v>
       </c>
       <c r="B211" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C211" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D211">
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F211">
         <v>210</v>
@@ -21336,16 +21338,16 @@
         <v>43965</v>
       </c>
       <c r="B212" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C212" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F212">
         <v>210</v>
@@ -21376,16 +21378,16 @@
         <v>43965</v>
       </c>
       <c r="B213" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C213" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F213">
         <v>210</v>
@@ -21416,16 +21418,16 @@
         <v>43965</v>
       </c>
       <c r="B214" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C214" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D214">
         <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F214">
         <v>210</v>
@@ -21456,16 +21458,16 @@
         <v>43965</v>
       </c>
       <c r="B215" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C215" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D215">
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F215">
         <v>210</v>
@@ -21496,16 +21498,16 @@
         <v>43965</v>
       </c>
       <c r="B216" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C216" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D216">
         <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F216">
         <v>210</v>
@@ -21536,16 +21538,16 @@
         <v>43965</v>
       </c>
       <c r="B217" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C217" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D217">
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F217">
         <v>210</v>
@@ -21576,16 +21578,16 @@
         <v>44040</v>
       </c>
       <c r="B218" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C218" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D218">
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F218">
         <v>210</v>
@@ -21616,16 +21618,16 @@
         <v>44040</v>
       </c>
       <c r="B219" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C219" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D219">
         <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F219">
         <v>210</v>
@@ -21656,16 +21658,16 @@
         <v>44040</v>
       </c>
       <c r="B220" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C220" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D220">
         <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F220">
         <v>210</v>
@@ -21696,16 +21698,16 @@
         <v>44040</v>
       </c>
       <c r="B221" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C221" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D221">
         <v>2</v>
       </c>
       <c r="E221" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F221">
         <v>210</v>
@@ -21736,16 +21738,16 @@
         <v>44040</v>
       </c>
       <c r="B222" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C222" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D222">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F222">
         <v>210</v>
@@ -21776,16 +21778,16 @@
         <v>44040</v>
       </c>
       <c r="B223" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C223" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D223">
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F223">
         <v>210</v>
@@ -21816,16 +21818,16 @@
         <v>44040</v>
       </c>
       <c r="B224" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C224" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D224">
         <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F224">
         <v>210</v>
@@ -21856,16 +21858,16 @@
         <v>44040</v>
       </c>
       <c r="B225" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C225" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D225">
         <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F225">
         <v>210</v>
@@ -21896,16 +21898,16 @@
         <v>44040</v>
       </c>
       <c r="B226" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C226" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D226">
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F226">
         <v>240</v>
@@ -21936,16 +21938,16 @@
         <v>44040</v>
       </c>
       <c r="B227" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C227" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D227">
         <v>2</v>
       </c>
       <c r="E227" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F227">
         <v>240</v>
@@ -21976,16 +21978,16 @@
         <v>44040</v>
       </c>
       <c r="B228" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C228" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D228">
         <v>2</v>
       </c>
       <c r="E228" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F228">
         <v>240</v>
@@ -22016,16 +22018,16 @@
         <v>44040</v>
       </c>
       <c r="B229" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C229" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D229">
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F229">
         <v>240</v>
@@ -22056,16 +22058,16 @@
         <v>44040</v>
       </c>
       <c r="B230" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C230" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D230">
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F230">
         <v>240</v>
@@ -22096,16 +22098,16 @@
         <v>44040</v>
       </c>
       <c r="B231" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C231" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D231">
         <v>4</v>
       </c>
       <c r="E231" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F231">
         <v>240</v>
@@ -22136,16 +22138,16 @@
         <v>44040</v>
       </c>
       <c r="B232" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C232" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D232">
         <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F232">
         <v>240</v>
@@ -22176,16 +22178,16 @@
         <v>44040</v>
       </c>
       <c r="B233" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C233" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D233">
         <v>1</v>
       </c>
       <c r="E233" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F233">
         <v>240</v>
@@ -22214,16 +22216,16 @@
         <v>44040</v>
       </c>
       <c r="B234" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C234" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F234">
         <v>270</v>
@@ -22252,16 +22254,16 @@
         <v>44040</v>
       </c>
       <c r="B235" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C235" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F235">
         <v>270</v>
@@ -22290,16 +22292,16 @@
         <v>44040</v>
       </c>
       <c r="B236" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C236" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D236">
         <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F236">
         <v>270</v>
@@ -22328,16 +22330,16 @@
         <v>44040</v>
       </c>
       <c r="B237" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C237" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D237">
         <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F237">
         <v>270</v>
@@ -22366,16 +22368,16 @@
         <v>44040</v>
       </c>
       <c r="B238" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C238" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D238">
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F238">
         <v>270</v>
@@ -22404,16 +22406,16 @@
         <v>44040</v>
       </c>
       <c r="B239" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C239" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D239">
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F239">
         <v>270</v>
@@ -22442,16 +22444,16 @@
         <v>44040</v>
       </c>
       <c r="B240" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C240" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D240">
         <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F240">
         <v>270</v>
@@ -22480,16 +22482,16 @@
         <v>44040</v>
       </c>
       <c r="B241" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C241" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D241">
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F241">
         <v>270</v>
@@ -22518,16 +22520,16 @@
         <v>44040</v>
       </c>
       <c r="B242" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C242" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D242">
         <v>1</v>
       </c>
       <c r="E242" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F242">
         <v>300</v>
@@ -22556,16 +22558,16 @@
         <v>44040</v>
       </c>
       <c r="B243" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C243" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D243">
         <v>1</v>
       </c>
       <c r="E243" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F243">
         <v>300</v>
@@ -22594,16 +22596,16 @@
         <v>44040</v>
       </c>
       <c r="B244" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C244" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D244">
         <v>2</v>
       </c>
       <c r="E244" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F244">
         <v>300</v>
@@ -22632,16 +22634,16 @@
         <v>44040</v>
       </c>
       <c r="B245" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C245" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D245">
         <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F245">
         <v>300</v>
@@ -22670,16 +22672,16 @@
         <v>44040</v>
       </c>
       <c r="B246" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C246" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D246">
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F246">
         <v>300</v>
@@ -22708,16 +22710,16 @@
         <v>44040</v>
       </c>
       <c r="B247" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C247" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D247">
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F247">
         <v>300</v>
@@ -22746,16 +22748,16 @@
         <v>44040</v>
       </c>
       <c r="B248" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C248" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D248">
         <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F248">
         <v>300</v>
@@ -22784,16 +22786,16 @@
         <v>44040</v>
       </c>
       <c r="B249" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C249" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D249">
         <v>4</v>
       </c>
       <c r="E249" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F249">
         <v>300</v>
@@ -22822,16 +22824,16 @@
         <v>44040</v>
       </c>
       <c r="B250" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C250" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D250">
         <v>1</v>
       </c>
       <c r="E250" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F250">
         <v>330</v>
@@ -22860,16 +22862,16 @@
         <v>44040</v>
       </c>
       <c r="B251" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C251" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D251">
         <v>1</v>
       </c>
       <c r="E251" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F251">
         <v>330</v>
@@ -22898,16 +22900,16 @@
         <v>44040</v>
       </c>
       <c r="B252" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C252" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D252">
         <v>2</v>
       </c>
       <c r="E252" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F252">
         <v>330</v>
@@ -22936,16 +22938,16 @@
         <v>44040</v>
       </c>
       <c r="B253" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C253" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D253">
         <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F253">
         <v>330</v>
@@ -22974,16 +22976,16 @@
         <v>44040</v>
       </c>
       <c r="B254" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C254" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D254">
         <v>3</v>
       </c>
       <c r="E254" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F254">
         <v>330</v>
@@ -23012,16 +23014,16 @@
         <v>44040</v>
       </c>
       <c r="B255" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C255" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D255">
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F255">
         <v>330</v>
@@ -23050,16 +23052,16 @@
         <v>44040</v>
       </c>
       <c r="B256" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C256" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D256">
         <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F256">
         <v>330</v>
@@ -23088,16 +23090,16 @@
         <v>44040</v>
       </c>
       <c r="B257" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C257" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D257">
         <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F257">
         <v>360</v>
@@ -23126,16 +23128,16 @@
         <v>44040</v>
       </c>
       <c r="B258" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C258" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D258">
         <v>2</v>
       </c>
       <c r="E258" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F258">
         <v>360</v>
@@ -23164,16 +23166,16 @@
         <v>44040</v>
       </c>
       <c r="B259" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C259" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D259">
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F259">
         <v>360</v>
@@ -23202,16 +23204,16 @@
         <v>44040</v>
       </c>
       <c r="B260" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C260" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D260">
         <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F260">
         <v>360</v>
@@ -23240,16 +23242,16 @@
         <v>44040</v>
       </c>
       <c r="B261" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C261" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D261">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F261">
         <v>360</v>
@@ -23278,16 +23280,16 @@
         <v>44040</v>
       </c>
       <c r="B262" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C262" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D262">
         <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F262">
         <v>360</v>
@@ -23316,16 +23318,16 @@
         <v>44040</v>
       </c>
       <c r="B263" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C263" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D263">
         <v>4</v>
       </c>
       <c r="E263" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F263">
         <v>360</v>
@@ -23354,16 +23356,16 @@
         <v>44040</v>
       </c>
       <c r="B264" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C264" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D264">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F264">
         <v>390</v>

--- a/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/DouglasDaly2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C2C7E1-08E2-4E19-AF61-C0B23C363479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CE0CD-BE7B-4FE6-8525-01C2298E2937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{DC1A8874-CF5D-4DF3-B66F-7CA3C73D11F3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="214">
   <si>
     <t>SimulationName</t>
   </si>
@@ -668,9 +668,6 @@
   </si>
   <si>
     <t>AboveGround.Partitioning.Boll</t>
-  </si>
-  <si>
-    <t>Cotton.Phenology.EmergenceDAS</t>
   </si>
   <si>
     <t>Cotton.Phenology.SquaringDAS</t>
@@ -11093,23 +11090,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87D205F-99C3-4C6A-970E-7F3255BDCE6D}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11123,41 +11119,117 @@
         <v>210</v>
       </c>
       <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
         <v>211</v>
-      </c>
-      <c r="F1" t="s">
-        <v>214</v>
       </c>
       <c r="G1" t="s">
         <v>212</v>
       </c>
-      <c r="H1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>32</v>
+      </c>
       <c r="C2" s="4">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F2" s="4">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="G2" s="4">
-        <v>141</v>
-      </c>
-      <c r="H2" s="4">
         <v>160</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
